--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7D0F0-8D88-4F67-A847-2812CDB05138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC3962-5F38-4D9E-820F-DA37B0E3118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="773">
   <si>
     <t>id</t>
   </si>
@@ -1804,21 +1804,12 @@
     <t>redacción</t>
   </si>
   <si>
-    <t>EVALUAR</t>
-  </si>
-  <si>
-    <t>Astrid-Fernanda</t>
-  </si>
-  <si>
     <t>Etiquetas de fila</t>
   </si>
   <si>
     <t>Total general</t>
   </si>
   <si>
-    <t>(en blanco)</t>
-  </si>
-  <si>
     <t>(Todas)</t>
   </si>
   <si>
@@ -1834,13 +1825,553 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Cambiar datos</t>
-  </si>
-  <si>
-    <t>Cambiar datos y link regional</t>
-  </si>
-  <si>
     <t>colores</t>
+  </si>
+  <si>
+    <t>Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Cantidad de conexiones de internet fija</t>
+  </si>
+  <si>
+    <t>Tecnología Internet y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Internet fija</t>
+  </si>
+  <si>
+    <t>Periodo 2007-2019</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Biblioteca Congreso Nacional</t>
+  </si>
+  <si>
+    <t>Top 10 de comunas en Chile con mayor cantidad de suscripciones a internet fija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El top 10 de comunas con mayor cantidad de conexiones a internet fijo tanto para el año 2018 como para el 2019, es Santiago, Maipú, Puente Alto, La Florida, Viña del Mar, Antofagasta, Providencia, Ñuñoa y Temuco. A pesar que en ambos años algunas de estas estaban en diferentes posiciones del ranking, las 10 se mantuvieron de un año a otro. </t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>ranking,conexiones,internet,fija,comuna,región,chile</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008435350</t>
+  </si>
+  <si>
+    <t>July 27, 2021</t>
+  </si>
+  <si>
+    <t>Zoho</t>
+  </si>
+  <si>
+    <t>Por País</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Coquimo</t>
+  </si>
+  <si>
+    <t>Mapa de cantidad de conexiones a internet fija en la región de Coquimbo || Año 2019</t>
+  </si>
+  <si>
+    <t>En el año 2019, la comuna de la región de Coquimbo que poseía la mayor cantidad de conexiones internet fija, fue la comuna de Combarbalá, con 70.319 conexiones, mientras por su lado en segundo lugar viene la comuna de La Serena, con 60,752 conexiones.</t>
+  </si>
+  <si>
+    <t>Mapa de calor</t>
+  </si>
+  <si>
+    <t>conexion,internet,fina,comuna,coquimbo,región,serena,combarbalá,2019</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008435500?ZOHO_CRITERIA=%22Conexi%C3%B3n_Internet_fija%22.%22Codreg%22%3D4</t>
+  </si>
+  <si>
+    <t>Por comuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad suscriptores a televisión de pago </t>
+  </si>
+  <si>
+    <t>Televisión de pago</t>
+  </si>
+  <si>
+    <t>Evolución de los suscriptores de televisión de pago para la región de Antofagasta</t>
+  </si>
+  <si>
+    <t>En la comuna de Tocopilla, en la región de Antofagasta se muestra una constante disminución en la cantidad de suscriptores de televisión de pago, desde el año 2015, de esta manera los 5,814 suscriptores que habían el año 2014, terminaron en 3.977 el año 2019.</t>
+  </si>
+  <si>
+    <t>Gráfico</t>
+  </si>
+  <si>
+    <t>cantidad,suscripciones,televisón,pago,regional,comuna,Tocopilla,Antofagasta</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008434853?ZOHO_CRITERIA=%22Televisi%C3%B3n_Pago%22.%22CodRegi%C3%B3n%22%3D2</t>
+  </si>
+  <si>
+    <t>Comunas por región con la mayor cantidad de suscripciones de televisión de pago || Año 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el año 2019, en la región de Magallanes, la comuna con mayor cantidad de suscripciones a televisión de pago, fue la de Punta Arenas, con 26.196 suscripciones. mientras que en segundo lugar viene la comuna de Natales con 4.562 suscripciones. </t>
+  </si>
+  <si>
+    <t>ranking,suscripciones,televisón,pago,regional,comuna,magallanes,natales,punta,arenas,2019</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008435117</t>
+  </si>
+  <si>
+    <t>Población de Pueblos Originarios por comuna</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Año 2017</t>
+  </si>
+  <si>
+    <t>Número de personas</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadísticas (INE)</t>
+  </si>
+  <si>
+    <t>Cantidad de Personas que se Identifican con un Pueblo Indígena por Comuna en el año 2017</t>
+  </si>
+  <si>
+    <t>Las comunas que tienen una población de pueblos indígenas de más de 25.000 personas son Arica, Temuco, Puente Alto, Puerto Montt, Maipú, Osorno, Calama, La Florida, Padre las Casas, San Bernardo, Pudahuel, Santiago, Peñalolén, Valdivia, Punta Arenas, Iquique, Antofagasta, La Pintana y Copiapó, con 75.883, 68.369, 62.337, 52.483, 51.728, 47.257, 39.724, 37.510, 37.197, 33.691, 33.021, 32.817, 30.534, 28.868, 28.334, 28.298, 28.114, 27.540 y 27.078 personas, respectivamente.</t>
+  </si>
+  <si>
+    <t>poblacion,pueblos,originarios,indigenas,etnia,comunal</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008436309</t>
+  </si>
+  <si>
+    <t>July 28, 2021</t>
+  </si>
+  <si>
+    <t>Por comuna, Por región</t>
+  </si>
+  <si>
+    <t>Año 2023</t>
+  </si>
+  <si>
+    <t>Población de Pueblos Originarios por grupo de edad y región</t>
+  </si>
+  <si>
+    <t>Cantidad de Personas que se Identifican con un Pueblo Indígena por Grupo de Edad y Región | año 2017</t>
+  </si>
+  <si>
+    <t>La región que tiene la más alta cantidad de personas pertenecientes a un pueblo indígena sobre los 100 años es la Metropolitana, con 141 habitantes. Le siguen La Araucanía y Los Lagos, con 85 y 38 habitantes, respectivamente.</t>
+  </si>
+  <si>
+    <t>poblacion,pueblos,originarios,indigenas,etnia,edad,regional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008436580</t>
+  </si>
+  <si>
+    <t>Población de Pueblos Originarios por pueblo</t>
+  </si>
+  <si>
+    <t>Cantidad de Personas que se Identifican con un Pueblo Indígena por Pueblo en el año 2017</t>
+  </si>
+  <si>
+    <t>En Chile, el pueblo Mapuche es el más grande, con 1.745.147 personas. Al contrario, el más pequeño es el Yagán o Yámana, con 1.600 habitantes. Según el Instituto Nacional de Estadísticas, el pueblo "Otro" considera a otros pueblos indígenas, originarios, tribales u otras etnias declaradas por la población censada, y el "Pueblo Ignorado" considera a la población que se declaró perteneciente a un pueblo indígena u originario pero cuyo pueblo específico no fue declarado o posible de clasificar.</t>
+  </si>
+  <si>
+    <t>poblacion,pueblos,originarios,indigenas,etnia</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008436794</t>
+  </si>
+  <si>
+    <t>Población de Pueblos Originarios por pueblo y región</t>
+  </si>
+  <si>
+    <t>Cantidad de Personas que se Identifican con un Pueblo Indígena por Pueblo y Región en el año 2017</t>
+  </si>
+  <si>
+    <t>La región más habitada con población mapuche es la Metropolitana, con 614.881 personas. Por otro lado, la más habitada con población diaguita es Coquimbo, con 26.470 habitantes. Según el Instituto Nacional de Estadísticas, el pueblo "Otro" considera a otros pueblos indígenas, originarios, tribales u otras etnias declaradas por la población censada, y el "Pueblo Ignorado" considera a la población que se declaró perteneciente a un pueblo indígena u originario pero cuyo pueblo específico no fue declarado o posible de clasificar.</t>
+  </si>
+  <si>
+    <t>poblacion,pueblos,originarios,indigenas,etnia,regional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008436989</t>
+  </si>
+  <si>
+    <t>Población de Pueblos Originarios por región y sexo</t>
+  </si>
+  <si>
+    <t>Cantidad de Personas que se Identifican con un Pueblo Indígena por Sexo y Región en el año 2017</t>
+  </si>
+  <si>
+    <t>La presencia de mujeres pertenecientes a pueblos indígenas es más notoria en la región Metropolitana, alcanzando 352.651 mujeres. Al contrario, la región que tiene menos mujeres pertenecientes a pueblos indígenas es Arica y Parinacota, con11.128 habitantes.</t>
+  </si>
+  <si>
+    <t>poblacion,pueblos,originarios,indigenas,etnia,regional,sexo,hombre,mujer</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008439092</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>1986-2021</t>
+  </si>
+  <si>
+    <t>Banco Central</t>
+  </si>
+  <si>
+    <t>Tasa de Desocupación Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008196724</t>
+  </si>
+  <si>
+    <t>Variación de la Fuerza de Trabajo respecto al mismo periodo del año anterior</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008199603</t>
+  </si>
+  <si>
+    <t>Variación de Desocupados respecto al mismo período del año anterior</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008199783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo 2014-2021 </t>
+  </si>
+  <si>
+    <t>Índice de Producción Minera</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008086091</t>
+  </si>
+  <si>
+    <t>Periodo 2014-2021</t>
+  </si>
+  <si>
+    <t>Producción de Cobre</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008086867</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Producción de Cloruro de Sodio</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008087059</t>
+  </si>
+  <si>
+    <t>Producción de Hierro</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008087414</t>
+  </si>
+  <si>
+    <t>Turismo</t>
+  </si>
+  <si>
+    <t>Ocupación</t>
+  </si>
+  <si>
+    <t>Número de Pernoctaciones</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008295693</t>
+  </si>
+  <si>
+    <t>Precio Habitación</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008299317</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>Desembarque Industrial</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de Pesca (SERNAPESCA)</t>
+  </si>
+  <si>
+    <t>Evolución del Desembarque Industrial a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008335799</t>
+  </si>
+  <si>
+    <t>Evolución del Desembarque Artesanal de Algas por Especie a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008388979</t>
+  </si>
+  <si>
+    <t>Cosechas Acuícolas</t>
+  </si>
+  <si>
+    <t>Evolución de las Cosechas Acuícolas de Peces por Especie a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008383927</t>
+  </si>
+  <si>
+    <t>Macroeconomía</t>
+  </si>
+  <si>
+    <t>Índice de Producción Manufacturera</t>
+  </si>
+  <si>
+    <t>Manufacturas</t>
+  </si>
+  <si>
+    <t>Evolución del Índice de Producción Manufacturera (IPMan) a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008251260</t>
+  </si>
+  <si>
+    <t>Evolución del Número de establecimientos clasificados como supermercados, que cuentan con tres o más cajas instaladas a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008293622</t>
+  </si>
+  <si>
+    <t>Evolución del Índice de Producción de la división Elaboración de productos alimenticios a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008251561</t>
+  </si>
+  <si>
+    <t>Evolución del Índice de Producción de la división Fabricación de productos farmacéuticos, sustancias químicas medicinales y productos botánicos de uso farmacéutico a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008261258</t>
+  </si>
+  <si>
+    <t>Evolución del Índice de Producción de la división Fabricación de sustancias y productos químicos a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008259838</t>
+  </si>
+  <si>
+    <t>Pórticos Autopistas Interurbanas</t>
+  </si>
+  <si>
+    <t>Pórticos y peajes</t>
+  </si>
+  <si>
+    <t>Ministerio de Transportes y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Evolución de la Pasada de vehículos por plazas de peajes y pórticos de autopistas interurbanas a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008305836</t>
+  </si>
+  <si>
+    <t>Taxis</t>
+  </si>
+  <si>
+    <t>Parque Vehicular</t>
+  </si>
+  <si>
+    <t>Evolución del Parque Vehicular de Taxis a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008301995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga Portuaria </t>
+  </si>
+  <si>
+    <t>Carga Marítima</t>
+  </si>
+  <si>
+    <t>Evolución del Movimiento de Carga Portuaria Embarcada al Exterior a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008307456</t>
+  </si>
+  <si>
+    <t>Superfie Autorizada Habitacional Obras Nuevas</t>
+  </si>
+  <si>
+    <t>Superficie Habitacional</t>
+  </si>
+  <si>
+    <t>Evolución de la Superficie de las solicitudes de edificación Habitacional autorizada para construcción de Obras Nuevas a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008222233</t>
+  </si>
+  <si>
+    <t>Viviendas Autorizadas</t>
+  </si>
+  <si>
+    <t>Viviendas</t>
+  </si>
+  <si>
+    <t>Evolución Mensual del Número de Viviendas Autorizadas para Construcción a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008211379</t>
+  </si>
+  <si>
+    <t>Superfie Autorizada No Habitacional ICEF Ampliaciones</t>
+  </si>
+  <si>
+    <t>Superficie No Habitacional</t>
+  </si>
+  <si>
+    <t>Evolución de la Superficie de las solicitudes de edificación No Habitacional autorizada para construcción de Ampliaciones de la industria, comercio y establecimientos financieros (ICEF) a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008224055</t>
+  </si>
+  <si>
+    <t>Periodo 2019-2020</t>
+  </si>
+  <si>
+    <t>Centro de Estudios y Análisis del Delito (CEAD) de la Subsecretaría de Prevención del Delito</t>
+  </si>
+  <si>
+    <t>Variación de Frecuencia de Casos Policiales entre 2019 y 2020 de Robo con Violencia o Intimidación</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008449873</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Variación de Frecuencia de Casos Policiales entre 2019 y 2020 de Homicidios</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008456616</t>
+  </si>
+  <si>
+    <t>Relación entre Detenciones y Denuncias (%) para Delitos de Homicidio y Violación</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008443177</t>
+  </si>
+  <si>
+    <t>Pobreza</t>
+  </si>
+  <si>
+    <t>CASEN</t>
+  </si>
+  <si>
+    <t>Pobreza en la Población Autodefinida como Indígena a Escala Comunal - 2017 (Extrema y No Extrema)</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008493041</t>
+  </si>
+  <si>
+    <t>Periodo 2006-2017</t>
+  </si>
+  <si>
+    <t>Evolución de la Pobreza y Pobreza Extrema a Escala Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008486718</t>
+  </si>
+  <si>
+    <t>Geografía de la Pobreza Extrema a Escala Comunal - 2017</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000008483613</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo DI </t>
+  </si>
+  <si>
+    <t>En blanco / autor PE</t>
+  </si>
+  <si>
+    <t>Filtro hortalizas</t>
+  </si>
+  <si>
+    <t>Filtro frutas</t>
+  </si>
+  <si>
+    <t>Recalcular?</t>
+  </si>
+  <si>
+    <t>Links regionales</t>
+  </si>
+  <si>
+    <t>Valor acumulado</t>
+  </si>
+  <si>
+    <t>Color números</t>
+  </si>
+  <si>
+    <t>Link regional, mariposa</t>
+  </si>
+  <si>
+    <t>Colores</t>
+  </si>
+  <si>
+    <t>ajustar y crear otro</t>
+  </si>
+  <si>
+    <t>Revisar</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Cambiar gráfico</t>
+  </si>
+  <si>
+    <t>Igual a ID 144</t>
+  </si>
+  <si>
+    <t>141-145</t>
+  </si>
+  <si>
+    <t>Mapa años</t>
+  </si>
+  <si>
+    <t>Título y link regional</t>
+  </si>
+  <si>
+    <t>Buscar cap. Instalada</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2867,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2346,6 +2877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2353,6 +2885,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2398,7 +2931,202 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="215">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -2451,6 +3179,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -2521,6 +3279,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2555,21 +3318,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2640,51 +3388,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2825,21 +3528,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -3296,6 +3984,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -3328,6 +4046,341 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3591,8 +4644,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="RESPONDABLE">
@@ -3615,7 +4668,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3625,8 +4678,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10334624" y="0"/>
-              <a:ext cx="3194050" cy="1190625"/>
+              <a:off x="10325099" y="0"/>
+              <a:ext cx="3190875" cy="1206500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3660,16 +4713,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44405.711424305555" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="161" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44407.038656597222" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="199" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="161"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="199"/>
     </cacheField>
     <cacheField name="Sector" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems containsBlank="1" count="26">
         <s v="Socioeconómico"/>
         <s v="Educación"/>
         <s v="Mujeres"/>
@@ -3684,10 +4737,22 @@
         <s v="Medio Ambiente"/>
         <s v="Transporte y Tránsito"/>
         <s v="Gobiernos locales"/>
+        <s v="Internet"/>
+        <s v="Telecomunicaciones"/>
+        <s v="Trabajo"/>
+        <s v="Turismo"/>
+        <s v="Pesca y Acuicultura"/>
+        <s v="Macroeconomía"/>
+        <s v="Transporte"/>
+        <s v="Construcción"/>
+        <s v="Delito"/>
+        <s v="Pobreza"/>
+        <m u="1"/>
+        <s v="Pueblos Indígenas" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Colección" numFmtId="0">
-      <sharedItems count="31">
+      <sharedItems containsBlank="1" count="40">
         <s v="Ingresos Históricos"/>
         <s v="Municipio Educación"/>
         <s v="Violencia contra la Mujer"/>
@@ -3719,17 +4784,28 @@
         <s v="Programas de Salud"/>
         <s v="Comercio"/>
         <s v="Establecimientos de Salud y Farmacia"/>
+        <s v="Internet"/>
+        <s v="Telecomunicaciones"/>
+        <s v="Trabajo"/>
+        <s v="Economía"/>
+        <s v="Turismo"/>
+        <s v="Pesca"/>
+        <s v="Macroeconomía"/>
+        <s v="Pobreza"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="9">
         <s v="Listo"/>
         <s v="Por ajustar"/>
+        <s v="Eliminar"/>
+        <s v="Revisar"/>
         <s v="Por hacer"/>
         <s v="Pendiente"/>
-        <s v="EVALUAR"/>
-        <m/>
+        <m u="1"/>
         <s v="DUDA" u="1"/>
+        <s v="EVALUAR" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Observación" numFmtId="0">
@@ -3741,15 +4817,15 @@
     <cacheField name="RESPONSABLE" numFmtId="0">
       <sharedItems containsBlank="1" count="10">
         <m/>
+        <s v="Patricio"/>
         <s v="Nati"/>
+        <s v="Caro"/>
+        <s v="Abner-Patricio"/>
         <s v="No asignado"/>
-        <s v="Patricio"/>
         <s v="Fernanda"/>
-        <s v="Abner-Patricio"/>
         <s v="Silvia"/>
-        <s v="Caro"/>
-        <s v="Astrid-Nati"/>
-        <s v="Astrid-Fernanda"/>
+        <s v="Astrid-Fernanda" u="1"/>
+        <s v="Astrid-Nati" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3762,7 +4838,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="161">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="199">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -3815,7 +4891,7 @@
     <x v="1"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="7"/>
@@ -3824,7 +4900,7 @@
     <x v="1"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="8"/>
@@ -3851,61 +4927,61 @@
     <x v="1"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="11"/>
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <m/>
+    <s v="Logo DI "/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="12"/>
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <m/>
+    <s v="Logo DI "/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="13"/>
     <x v="4"/>
     <x v="6"/>
     <x v="1"/>
-    <m/>
+    <s v="En blanco / autor PE"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="14"/>
     <x v="4"/>
     <x v="4"/>
     <x v="1"/>
-    <m/>
+    <s v="Filtro hortalizas"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="15"/>
     <x v="4"/>
     <x v="4"/>
     <x v="1"/>
-    <m/>
+    <s v="Filtro frutas"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="16"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="17"/>
@@ -4037,8 +5113,8 @@
     <n v="31"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
-    <m/>
+    <x v="2"/>
+    <s v="Igual a ID 144"/>
     <s v="No"/>
     <x v="0"/>
   </r>
@@ -4055,28 +5131,28 @@
     <n v="33"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="34"/>
     <x v="10"/>
     <x v="11"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Título"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="35"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="36"/>
@@ -4109,46 +5185,46 @@
     <n v="39"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
-    <m/>
+    <x v="0"/>
+    <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="40"/>
     <x v="11"/>
     <x v="14"/>
+    <x v="3"/>
+    <s v="Recalcular?"/>
+    <s v="Yes"/>
     <x v="1"/>
-    <m/>
-    <s v="Yes"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="41"/>
     <x v="11"/>
     <x v="14"/>
+    <x v="3"/>
+    <s v="Recalcular?"/>
+    <s v="Yes"/>
     <x v="1"/>
-    <m/>
-    <s v="Yes"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="42"/>
     <x v="11"/>
     <x v="14"/>
+    <x v="3"/>
+    <s v="Recalcular?"/>
+    <s v="Yes"/>
     <x v="1"/>
-    <m/>
-    <s v="Yes"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="43"/>
     <x v="11"/>
     <x v="15"/>
-    <x v="1"/>
+    <x v="4"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="44"/>
@@ -4163,46 +5239,46 @@
     <n v="45"/>
     <x v="4"/>
     <x v="16"/>
-    <x v="2"/>
+    <x v="4"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="46"/>
     <x v="7"/>
     <x v="17"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="47"/>
     <x v="7"/>
     <x v="18"/>
     <x v="1"/>
-    <m/>
+    <s v="Links regionales"/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="48"/>
     <x v="7"/>
     <x v="18"/>
-    <x v="2"/>
+    <x v="4"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="49"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="1"/>
+    <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="50"/>
@@ -4253,10 +5329,10 @@
     <n v="55"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="56"/>
@@ -4265,7 +5341,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="57"/>
@@ -4274,7 +5350,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="58"/>
@@ -4283,7 +5359,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="59"/>
@@ -4292,7 +5368,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="60"/>
@@ -4301,7 +5377,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="61"/>
@@ -4310,7 +5386,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="62"/>
@@ -4319,7 +5395,7 @@
     <x v="0"/>
     <s v="Título"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="63"/>
@@ -4328,7 +5404,7 @@
     <x v="0"/>
     <s v="Título"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="64"/>
@@ -4355,7 +5431,7 @@
     <x v="1"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="67"/>
@@ -4364,7 +5440,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="68"/>
@@ -4373,7 +5449,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="69"/>
@@ -4382,7 +5458,7 @@
     <x v="1"/>
     <s v="Link nacional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="70"/>
@@ -4391,7 +5467,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="71"/>
@@ -4400,7 +5476,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="72"/>
@@ -4415,91 +5491,91 @@
     <n v="73"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="74"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="75"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="76"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="77"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="78"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="79"/>
     <x v="9"/>
     <x v="10"/>
     <x v="1"/>
-    <s v="Links N y R"/>
+    <s v="Valor acumulado"/>
     <s v="Yes"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="80"/>
     <x v="9"/>
     <x v="10"/>
     <x v="1"/>
-    <s v="Links N y R"/>
+    <s v="Color números"/>
     <s v="Yes"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="81"/>
     <x v="7"/>
     <x v="25"/>
-    <x v="1"/>
+    <x v="5"/>
     <s v="Pidiendo datos 2021"/>
     <s v="No"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="82"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="2"/>
-    <m/>
+    <x v="0"/>
+    <s v="Título"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="83"/>
@@ -4542,9 +5618,9 @@
     <x v="9"/>
     <x v="10"/>
     <x v="1"/>
-    <s v="Link regional"/>
+    <s v="Link regional, mariposa"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="88"/>
@@ -4559,10 +5635,10 @@
     <n v="89"/>
     <x v="2"/>
     <x v="12"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="90"/>
@@ -4577,10 +5653,10 @@
     <n v="91"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="3"/>
     <s v="Revisar datos"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="92"/>
@@ -4589,7 +5665,7 @@
     <x v="1"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="93"/>
@@ -4598,7 +5674,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="94"/>
@@ -4607,7 +5683,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="95"/>
@@ -4616,7 +5692,7 @@
     <x v="1"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="96"/>
@@ -4625,25 +5701,25 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="97"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="98"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="99"/>
@@ -4652,7 +5728,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="100"/>
@@ -4661,124 +5737,124 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="101"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="102"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="103"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="104"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="105"/>
     <x v="6"/>
     <x v="7"/>
     <x v="1"/>
-    <s v="Link regional"/>
+    <s v="Colores"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="106"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="107"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="108"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="109"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="110"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="111"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="112"/>
     <x v="2"/>
     <x v="12"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="113"/>
     <x v="2"/>
     <x v="12"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="114"/>
@@ -4793,37 +5869,37 @@
     <n v="115"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="116"/>
     <x v="11"/>
     <x v="24"/>
-    <x v="3"/>
+    <x v="5"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="117"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="8"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="118"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="119"/>
@@ -4832,7 +5908,7 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="120"/>
@@ -4850,43 +5926,43 @@
     <x v="1"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="122"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="123"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="124"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="125"/>
     <x v="3"/>
     <x v="28"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="126"/>
@@ -4901,82 +5977,82 @@
     <n v="127"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="128"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Links N y R"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="129"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="4"/>
-    <m/>
+    <x v="1"/>
+    <s v="ajustar y crear otro"/>
     <s v="No"/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="130"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="4"/>
-    <m/>
+    <x v="1"/>
+    <s v="Link regional"/>
     <s v="No"/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="131"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="132"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="133"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="3"/>
+    <s v="Valores"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="134"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="135"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="136"/>
@@ -5003,7 +6079,7 @@
     <x v="0"/>
     <s v="Descripción"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="139"/>
@@ -5012,142 +6088,142 @@
     <x v="0"/>
     <s v="Descripción"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="140"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="4"/>
-    <m/>
+    <x v="1"/>
+    <s v="Cambiar gráfico"/>
     <s v="No"/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="141"/>
     <x v="3"/>
     <x v="30"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <s v="141-145"/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="142"/>
     <x v="3"/>
     <x v="30"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="143"/>
     <x v="3"/>
     <x v="30"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="144"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="145"/>
     <x v="3"/>
     <x v="30"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <s v="141-145"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="146"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link nacional"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="147"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link nacional"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="148"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <s v="Mapa años"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="149"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <s v="Mapa años"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="150"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link nacional"/>
     <s v="No"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="151"/>
     <x v="10"/>
     <x v="11"/>
-    <x v="1"/>
-    <s v="Cambiar datos y link regional"/>
+    <x v="0"/>
+    <s v="Título y link regional"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="152"/>
     <x v="10"/>
     <x v="11"/>
-    <x v="1"/>
-    <s v="Cambiar datos"/>
+    <x v="0"/>
+    <s v="Título"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="153"/>
     <x v="10"/>
     <x v="11"/>
-    <x v="5"/>
+    <x v="2"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="154"/>
     <x v="10"/>
     <x v="11"/>
     <x v="1"/>
-    <s v="Cambiar datos y link regional"/>
+    <s v="Buscar cap. Instalada"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="155"/>
@@ -5156,16 +6232,16 @@
     <x v="0"/>
     <s v="Título"/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="156"/>
     <x v="3"/>
     <x v="30"/>
     <x v="0"/>
-    <s v="colores"/>
+    <s v="Colores"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="157"/>
@@ -5180,10 +6256,10 @@
     <n v="158"/>
     <x v="3"/>
     <x v="30"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Link regional"/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="159"/>
@@ -5198,17 +6274,359 @@
     <n v="160"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="4"/>
-    <m/>
+    <x v="1"/>
+    <s v="Cambiar gráfico"/>
     <s v="No"/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="161"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="5"/>
+    <x v="1"/>
+    <s v="Cambiar gráfico"/>
+    <s v="No"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <x v="14"/>
+    <x v="31"/>
+    <x v="0"/>
     <m/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="14"/>
+    <x v="31"/>
+    <x v="0"/>
+    <m/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <x v="15"/>
+    <x v="32"/>
+    <x v="0"/>
+    <m/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <x v="15"/>
+    <x v="32"/>
+    <x v="1"/>
+    <s v="Leyenda"/>
+    <s v="No"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+    <s v="Link regional"/>
+    <s v="No"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+    <s v="Link regional"/>
+    <s v="No"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+    <m/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+    <s v="Link regional"/>
+    <s v="No"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+    <s v="Link regional"/>
+    <s v="No"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <x v="16"/>
+    <x v="33"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <x v="16"/>
+    <x v="33"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <x v="16"/>
+    <x v="33"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <x v="9"/>
+    <x v="34"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <x v="9"/>
+    <x v="34"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="9"/>
+    <x v="34"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="9"/>
+    <x v="34"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <x v="17"/>
+    <x v="35"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <x v="17"/>
+    <x v="35"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="18"/>
+    <x v="36"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="18"/>
+    <x v="36"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="18"/>
+    <x v="36"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <x v="20"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="20"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <x v="20"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <x v="21"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <x v="21"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <x v="21"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <x v="22"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <x v="22"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <x v="22"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <x v="23"/>
+    <x v="38"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <x v="23"/>
+    <x v="38"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <x v="23"/>
+    <x v="38"/>
+    <x v="0"/>
+    <s v="Texto"/>
     <s v="No"/>
     <x v="0"/>
   </r>
@@ -5216,12 +6634,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="27">
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
@@ -5236,11 +6654,23 @@
         <item x="0"/>
         <item x="12"/>
         <item x="8"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item m="1" x="25"/>
+        <item x="16"/>
+        <item m="1" x="24"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="32">
+      <items count="41">
         <item x="14"/>
         <item x="4"/>
         <item x="24"/>
@@ -5272,18 +6702,29 @@
         <item x="19"/>
         <item x="22"/>
         <item x="2"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item m="1" x="39"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="8">
+      <items count="10">
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
         <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5291,15 +6732,15 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
-        <item x="5"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
         <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
         <item x="3"/>
         <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -5309,7 +6750,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="46">
+  <rowItems count="67">
     <i>
       <x/>
     </i>
@@ -5336,6 +6777,9 @@
     </i>
     <i r="1">
       <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
     </i>
     <i>
       <x v="3"/>
@@ -5445,6 +6889,66 @@
     <i r="1">
       <x v="27"/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -5453,9 +6957,6 @@
     <field x="3"/>
   </colFields>
   <colItems count="7">
-    <i>
-      <x v="1"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
@@ -5469,7 +6970,10 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -5482,7 +6986,7 @@
     <dataField name="Cuenta de id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="69">
+    <format dxfId="214">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="6" selected="0">
@@ -5496,13 +7000,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="213">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="212">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="211">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="6">
@@ -5516,7 +7020,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="210">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5574,16 +7078,16 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Sector" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="2" rowHeight="241300"/>
-  <slicer name="Colección" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="SegmentaciónDeDatos_Colección" caption="Colección" startItem="9" columnCount="3" style="SlicerStyleLight2" rowHeight="241300"/>
+  <slicer name="Sector" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="12" columnCount="2" rowHeight="241300"/>
+  <slicer name="Colección" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="SegmentaciónDeDatos_Colección" caption="Colección" columnCount="3" style="SlicerStyleLight2" rowHeight="241300"/>
   <slicer name="ESTADO" xr10:uid="{6C99D46E-C006-4ADA-8155-D097114D7C5C}" cache="SegmentaciónDeDatos_ESTADO" caption="ESTADO" columnCount="2" style="SlicerStyleLight4" rowHeight="241300"/>
-  <slicer name="RESPONDABLE" xr10:uid="{2C69E7BF-7D6B-4D4B-A9E6-D4DD7219CFA8}" cache="SegmentaciónDeDatos_RESPONDABLE" caption="RESPONSABLE" startItem="4" columnCount="2" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="RESPONDABLE" xr10:uid="{2C69E7BF-7D6B-4D4B-A9E6-D4DD7219CFA8}" cache="SegmentaciónDeDatos_RESPONDABLE" caption="RESPONSABLE" startItem="2" columnCount="2" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:G169" totalsRowShown="0">
-  <autoFilter ref="A8:G169" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:G207" totalsRowShown="0">
+  <autoFilter ref="A8:G207" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G169">
     <sortCondition ref="A9:A169"/>
   </sortState>
@@ -5897,10 +7401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11954,7 +13458,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11989,7 +13493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12022,6 +13526,1570 @@
       </c>
       <c r="L162" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>591</v>
+      </c>
+      <c r="C163" t="s">
+        <v>591</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>593</v>
+      </c>
+      <c r="F163" t="s">
+        <v>594</v>
+      </c>
+      <c r="G163" t="s">
+        <v>595</v>
+      </c>
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" t="s">
+        <v>6</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" t="s">
+        <v>596</v>
+      </c>
+      <c r="L163" t="s">
+        <v>597</v>
+      </c>
+      <c r="M163" t="s">
+        <v>598</v>
+      </c>
+      <c r="N163" t="s">
+        <v>599</v>
+      </c>
+      <c r="O163" t="s">
+        <v>600</v>
+      </c>
+      <c r="P163" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>602</v>
+      </c>
+      <c r="R163" t="s">
+        <v>603</v>
+      </c>
+      <c r="S163" t="s">
+        <v>604</v>
+      </c>
+      <c r="T163" t="s">
+        <v>158</v>
+      </c>
+      <c r="U163" t="s">
+        <v>605</v>
+      </c>
+      <c r="V163" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>591</v>
+      </c>
+      <c r="C164" t="s">
+        <v>591</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>593</v>
+      </c>
+      <c r="F164" t="s">
+        <v>594</v>
+      </c>
+      <c r="G164" t="s">
+        <v>595</v>
+      </c>
+      <c r="H164" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>608</v>
+      </c>
+      <c r="K164">
+        <v>2019</v>
+      </c>
+      <c r="L164" t="s">
+        <v>597</v>
+      </c>
+      <c r="M164" t="s">
+        <v>598</v>
+      </c>
+      <c r="N164" t="s">
+        <v>609</v>
+      </c>
+      <c r="O164" t="s">
+        <v>610</v>
+      </c>
+      <c r="P164" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>612</v>
+      </c>
+      <c r="R164" t="s">
+        <v>613</v>
+      </c>
+      <c r="S164" t="s">
+        <v>604</v>
+      </c>
+      <c r="T164" t="s">
+        <v>158</v>
+      </c>
+      <c r="U164" t="s">
+        <v>605</v>
+      </c>
+      <c r="V164" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>592</v>
+      </c>
+      <c r="C165" t="s">
+        <v>592</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>615</v>
+      </c>
+      <c r="F165" t="s">
+        <v>594</v>
+      </c>
+      <c r="G165" t="s">
+        <v>616</v>
+      </c>
+      <c r="H165" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>244</v>
+      </c>
+      <c r="K165" t="s">
+        <v>596</v>
+      </c>
+      <c r="L165" t="s">
+        <v>597</v>
+      </c>
+      <c r="M165" t="s">
+        <v>598</v>
+      </c>
+      <c r="N165" t="s">
+        <v>617</v>
+      </c>
+      <c r="O165" t="s">
+        <v>618</v>
+      </c>
+      <c r="P165" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>620</v>
+      </c>
+      <c r="R165" t="s">
+        <v>621</v>
+      </c>
+      <c r="S165" t="s">
+        <v>604</v>
+      </c>
+      <c r="T165" t="s">
+        <v>158</v>
+      </c>
+      <c r="U165" t="s">
+        <v>605</v>
+      </c>
+      <c r="V165" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>592</v>
+      </c>
+      <c r="C166" t="s">
+        <v>592</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>615</v>
+      </c>
+      <c r="F166" t="s">
+        <v>594</v>
+      </c>
+      <c r="G166" t="s">
+        <v>616</v>
+      </c>
+      <c r="H166" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166">
+        <v>2019</v>
+      </c>
+      <c r="L166" t="s">
+        <v>597</v>
+      </c>
+      <c r="M166" t="s">
+        <v>598</v>
+      </c>
+      <c r="N166" t="s">
+        <v>622</v>
+      </c>
+      <c r="O166" t="s">
+        <v>623</v>
+      </c>
+      <c r="P166" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>624</v>
+      </c>
+      <c r="R166" t="s">
+        <v>625</v>
+      </c>
+      <c r="S166" t="s">
+        <v>604</v>
+      </c>
+      <c r="T166" t="s">
+        <v>158</v>
+      </c>
+      <c r="U166" t="s">
+        <v>605</v>
+      </c>
+      <c r="V166" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" t="s">
+        <v>272</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>626</v>
+      </c>
+      <c r="F167" t="s">
+        <v>258</v>
+      </c>
+      <c r="G167" t="s">
+        <v>627</v>
+      </c>
+      <c r="H167" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" t="s">
+        <v>32</v>
+      </c>
+      <c r="J167" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" t="s">
+        <v>628</v>
+      </c>
+      <c r="L167" t="s">
+        <v>629</v>
+      </c>
+      <c r="M167" t="s">
+        <v>630</v>
+      </c>
+      <c r="N167" t="s">
+        <v>631</v>
+      </c>
+      <c r="O167" t="s">
+        <v>632</v>
+      </c>
+      <c r="P167" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>633</v>
+      </c>
+      <c r="R167" t="s">
+        <v>634</v>
+      </c>
+      <c r="S167" t="s">
+        <v>635</v>
+      </c>
+      <c r="T167" t="s">
+        <v>24</v>
+      </c>
+      <c r="U167" t="s">
+        <v>605</v>
+      </c>
+      <c r="V167" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168" t="s">
+        <v>272</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>638</v>
+      </c>
+      <c r="F168" t="s">
+        <v>258</v>
+      </c>
+      <c r="G168" t="s">
+        <v>627</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" t="s">
+        <v>628</v>
+      </c>
+      <c r="L168" t="s">
+        <v>629</v>
+      </c>
+      <c r="M168" t="s">
+        <v>630</v>
+      </c>
+      <c r="N168" t="s">
+        <v>639</v>
+      </c>
+      <c r="O168" t="s">
+        <v>640</v>
+      </c>
+      <c r="P168" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>641</v>
+      </c>
+      <c r="R168" t="s">
+        <v>642</v>
+      </c>
+      <c r="S168" t="s">
+        <v>635</v>
+      </c>
+      <c r="T168" t="s">
+        <v>24</v>
+      </c>
+      <c r="U168" t="s">
+        <v>605</v>
+      </c>
+      <c r="V168" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>272</v>
+      </c>
+      <c r="C169" t="s">
+        <v>272</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>643</v>
+      </c>
+      <c r="F169" t="s">
+        <v>258</v>
+      </c>
+      <c r="G169" t="s">
+        <v>627</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>6</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" t="s">
+        <v>628</v>
+      </c>
+      <c r="L169" t="s">
+        <v>629</v>
+      </c>
+      <c r="M169" t="s">
+        <v>630</v>
+      </c>
+      <c r="N169" t="s">
+        <v>644</v>
+      </c>
+      <c r="O169" t="s">
+        <v>645</v>
+      </c>
+      <c r="P169" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>646</v>
+      </c>
+      <c r="R169" t="s">
+        <v>647</v>
+      </c>
+      <c r="S169" t="s">
+        <v>635</v>
+      </c>
+      <c r="T169" t="s">
+        <v>24</v>
+      </c>
+      <c r="U169" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>272</v>
+      </c>
+      <c r="C170" t="s">
+        <v>272</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>648</v>
+      </c>
+      <c r="F170" t="s">
+        <v>258</v>
+      </c>
+      <c r="G170" t="s">
+        <v>627</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" t="s">
+        <v>628</v>
+      </c>
+      <c r="L170" t="s">
+        <v>629</v>
+      </c>
+      <c r="M170" t="s">
+        <v>630</v>
+      </c>
+      <c r="N170" t="s">
+        <v>649</v>
+      </c>
+      <c r="O170" t="s">
+        <v>650</v>
+      </c>
+      <c r="P170" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>651</v>
+      </c>
+      <c r="R170" t="s">
+        <v>652</v>
+      </c>
+      <c r="S170" t="s">
+        <v>635</v>
+      </c>
+      <c r="T170" t="s">
+        <v>24</v>
+      </c>
+      <c r="U170" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>272</v>
+      </c>
+      <c r="C171" t="s">
+        <v>272</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>653</v>
+      </c>
+      <c r="F171" t="s">
+        <v>258</v>
+      </c>
+      <c r="G171" t="s">
+        <v>627</v>
+      </c>
+      <c r="H171" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>16</v>
+      </c>
+      <c r="K171" t="s">
+        <v>628</v>
+      </c>
+      <c r="L171" t="s">
+        <v>629</v>
+      </c>
+      <c r="M171" t="s">
+        <v>630</v>
+      </c>
+      <c r="N171" t="s">
+        <v>654</v>
+      </c>
+      <c r="O171" t="s">
+        <v>655</v>
+      </c>
+      <c r="P171" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>656</v>
+      </c>
+      <c r="R171" t="s">
+        <v>657</v>
+      </c>
+      <c r="S171" t="s">
+        <v>635</v>
+      </c>
+      <c r="T171" t="s">
+        <v>24</v>
+      </c>
+      <c r="U171" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>659</v>
+      </c>
+      <c r="C172" t="s">
+        <v>659</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>258</v>
+      </c>
+      <c r="K172" t="s">
+        <v>660</v>
+      </c>
+      <c r="M172" t="s">
+        <v>661</v>
+      </c>
+      <c r="N172" t="s">
+        <v>662</v>
+      </c>
+      <c r="R172" t="s">
+        <v>663</v>
+      </c>
+      <c r="T172" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>659</v>
+      </c>
+      <c r="C173" t="s">
+        <v>659</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>258</v>
+      </c>
+      <c r="K173" t="s">
+        <v>660</v>
+      </c>
+      <c r="M173" t="s">
+        <v>661</v>
+      </c>
+      <c r="N173" t="s">
+        <v>664</v>
+      </c>
+      <c r="R173" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>659</v>
+      </c>
+      <c r="C174" t="s">
+        <v>659</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
+        <v>660</v>
+      </c>
+      <c r="M174" t="s">
+        <v>661</v>
+      </c>
+      <c r="N174" t="s">
+        <v>666</v>
+      </c>
+      <c r="R174" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>189</v>
+      </c>
+      <c r="C175" t="s">
+        <v>189</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s">
+        <v>668</v>
+      </c>
+      <c r="M175" t="s">
+        <v>630</v>
+      </c>
+      <c r="N175" t="s">
+        <v>669</v>
+      </c>
+      <c r="R175" t="s">
+        <v>670</v>
+      </c>
+      <c r="T175" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s">
+        <v>671</v>
+      </c>
+      <c r="N176" t="s">
+        <v>672</v>
+      </c>
+      <c r="R176" t="s">
+        <v>673</v>
+      </c>
+      <c r="T176" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" t="s">
+        <v>189</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>189</v>
+      </c>
+      <c r="G177" t="s">
+        <v>674</v>
+      </c>
+      <c r="K177" t="s">
+        <v>671</v>
+      </c>
+      <c r="M177" t="s">
+        <v>630</v>
+      </c>
+      <c r="N177" t="s">
+        <v>675</v>
+      </c>
+      <c r="R177" t="s">
+        <v>676</v>
+      </c>
+      <c r="T177" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>189</v>
+      </c>
+      <c r="C178" t="s">
+        <v>189</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>674</v>
+      </c>
+      <c r="K178" t="s">
+        <v>671</v>
+      </c>
+      <c r="M178" t="s">
+        <v>630</v>
+      </c>
+      <c r="N178" t="s">
+        <v>677</v>
+      </c>
+      <c r="R178" t="s">
+        <v>678</v>
+      </c>
+      <c r="T178" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>679</v>
+      </c>
+      <c r="C179" t="s">
+        <v>679</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>189</v>
+      </c>
+      <c r="G179" t="s">
+        <v>680</v>
+      </c>
+      <c r="K179" t="s">
+        <v>671</v>
+      </c>
+      <c r="M179" t="s">
+        <v>630</v>
+      </c>
+      <c r="N179" t="s">
+        <v>681</v>
+      </c>
+      <c r="R179" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>679</v>
+      </c>
+      <c r="C180" t="s">
+        <v>679</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K180" t="s">
+        <v>671</v>
+      </c>
+      <c r="M180" t="s">
+        <v>630</v>
+      </c>
+      <c r="N180" t="s">
+        <v>683</v>
+      </c>
+      <c r="R180" t="s">
+        <v>684</v>
+      </c>
+      <c r="T180" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" t="s">
+        <v>686</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>687</v>
+      </c>
+      <c r="K181" t="s">
+        <v>671</v>
+      </c>
+      <c r="M181" t="s">
+        <v>688</v>
+      </c>
+      <c r="N181" t="s">
+        <v>689</v>
+      </c>
+      <c r="R181" t="s">
+        <v>690</v>
+      </c>
+      <c r="T181" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" t="s">
+        <v>686</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s">
+        <v>671</v>
+      </c>
+      <c r="M182" t="s">
+        <v>688</v>
+      </c>
+      <c r="N182" t="s">
+        <v>691</v>
+      </c>
+      <c r="R182" t="s">
+        <v>692</v>
+      </c>
+      <c r="T182" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" t="s">
+        <v>686</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>693</v>
+      </c>
+      <c r="K183" t="s">
+        <v>671</v>
+      </c>
+      <c r="M183" t="s">
+        <v>688</v>
+      </c>
+      <c r="N183" t="s">
+        <v>694</v>
+      </c>
+      <c r="R183" t="s">
+        <v>695</v>
+      </c>
+      <c r="T183" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>696</v>
+      </c>
+      <c r="C184" t="s">
+        <v>696</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>697</v>
+      </c>
+      <c r="F184" t="s">
+        <v>189</v>
+      </c>
+      <c r="G184" t="s">
+        <v>698</v>
+      </c>
+      <c r="K184" t="s">
+        <v>671</v>
+      </c>
+      <c r="M184" t="s">
+        <v>630</v>
+      </c>
+      <c r="N184" t="s">
+        <v>699</v>
+      </c>
+      <c r="R184" t="s">
+        <v>700</v>
+      </c>
+      <c r="T184" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>696</v>
+      </c>
+      <c r="C185" t="s">
+        <v>696</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>189</v>
+      </c>
+      <c r="K185" t="s">
+        <v>671</v>
+      </c>
+      <c r="M185" t="s">
+        <v>630</v>
+      </c>
+      <c r="N185" t="s">
+        <v>701</v>
+      </c>
+      <c r="R185" t="s">
+        <v>702</v>
+      </c>
+      <c r="T185" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>696</v>
+      </c>
+      <c r="C186" t="s">
+        <v>696</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>697</v>
+      </c>
+      <c r="G186" t="s">
+        <v>698</v>
+      </c>
+      <c r="M186" t="s">
+        <v>630</v>
+      </c>
+      <c r="N186" t="s">
+        <v>703</v>
+      </c>
+      <c r="R186" t="s">
+        <v>704</v>
+      </c>
+      <c r="T186" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>696</v>
+      </c>
+      <c r="C187" t="s">
+        <v>696</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>697</v>
+      </c>
+      <c r="F187" t="s">
+        <v>189</v>
+      </c>
+      <c r="G187" t="s">
+        <v>698</v>
+      </c>
+      <c r="K187" t="s">
+        <v>671</v>
+      </c>
+      <c r="M187" t="s">
+        <v>630</v>
+      </c>
+      <c r="N187" t="s">
+        <v>705</v>
+      </c>
+      <c r="R187" t="s">
+        <v>706</v>
+      </c>
+      <c r="T187" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>696</v>
+      </c>
+      <c r="C188" t="s">
+        <v>696</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>697</v>
+      </c>
+      <c r="G188" t="s">
+        <v>698</v>
+      </c>
+      <c r="K188" t="s">
+        <v>671</v>
+      </c>
+      <c r="M188" t="s">
+        <v>630</v>
+      </c>
+      <c r="N188" t="s">
+        <v>707</v>
+      </c>
+      <c r="R188" t="s">
+        <v>708</v>
+      </c>
+      <c r="T188" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" t="s">
+        <v>147</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>709</v>
+      </c>
+      <c r="G189" t="s">
+        <v>710</v>
+      </c>
+      <c r="K189" t="s">
+        <v>671</v>
+      </c>
+      <c r="M189" t="s">
+        <v>711</v>
+      </c>
+      <c r="N189" t="s">
+        <v>712</v>
+      </c>
+      <c r="R189" t="s">
+        <v>713</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>147</v>
+      </c>
+      <c r="C190" t="s">
+        <v>147</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>714</v>
+      </c>
+      <c r="G190" t="s">
+        <v>715</v>
+      </c>
+      <c r="K190" t="s">
+        <v>671</v>
+      </c>
+      <c r="M190" t="s">
+        <v>711</v>
+      </c>
+      <c r="N190" t="s">
+        <v>716</v>
+      </c>
+      <c r="R190" t="s">
+        <v>717</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>147</v>
+      </c>
+      <c r="C191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s">
+        <v>718</v>
+      </c>
+      <c r="G191" t="s">
+        <v>719</v>
+      </c>
+      <c r="K191" t="s">
+        <v>671</v>
+      </c>
+      <c r="M191" t="s">
+        <v>711</v>
+      </c>
+      <c r="N191" t="s">
+        <v>720</v>
+      </c>
+      <c r="R191" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>722</v>
+      </c>
+      <c r="G192" t="s">
+        <v>723</v>
+      </c>
+      <c r="K192" t="s">
+        <v>671</v>
+      </c>
+      <c r="M192" t="s">
+        <v>630</v>
+      </c>
+      <c r="N192" t="s">
+        <v>724</v>
+      </c>
+      <c r="R192" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>175</v>
+      </c>
+      <c r="C193" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>726</v>
+      </c>
+      <c r="G193" t="s">
+        <v>727</v>
+      </c>
+      <c r="K193" t="s">
+        <v>671</v>
+      </c>
+      <c r="M193" t="s">
+        <v>630</v>
+      </c>
+      <c r="N193" t="s">
+        <v>728</v>
+      </c>
+      <c r="R193" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>175</v>
+      </c>
+      <c r="C194" t="s">
+        <v>175</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
+        <v>730</v>
+      </c>
+      <c r="G194" t="s">
+        <v>731</v>
+      </c>
+      <c r="K194" t="s">
+        <v>671</v>
+      </c>
+      <c r="M194" t="s">
+        <v>630</v>
+      </c>
+      <c r="N194" t="s">
+        <v>732</v>
+      </c>
+      <c r="R194" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>255</v>
+      </c>
+      <c r="C195" t="s">
+        <v>255</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="K195" t="s">
+        <v>734</v>
+      </c>
+      <c r="M195" t="s">
+        <v>735</v>
+      </c>
+      <c r="N195" t="s">
+        <v>736</v>
+      </c>
+      <c r="R195" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>255</v>
+      </c>
+      <c r="C196" t="s">
+        <v>255</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="K196" t="s">
+        <v>734</v>
+      </c>
+      <c r="M196" t="s">
+        <v>735</v>
+      </c>
+      <c r="N196" t="s">
+        <v>739</v>
+      </c>
+      <c r="R196" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>255</v>
+      </c>
+      <c r="C197" t="s">
+        <v>255</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="K197" t="s">
+        <v>734</v>
+      </c>
+      <c r="M197" t="s">
+        <v>735</v>
+      </c>
+      <c r="N197" t="s">
+        <v>741</v>
+      </c>
+      <c r="R197" t="s">
+        <v>742</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>743</v>
+      </c>
+      <c r="C198" t="s">
+        <v>743</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s">
+        <v>628</v>
+      </c>
+      <c r="M198" t="s">
+        <v>744</v>
+      </c>
+      <c r="N198" t="s">
+        <v>745</v>
+      </c>
+      <c r="R198" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>743</v>
+      </c>
+      <c r="C199" t="s">
+        <v>743</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="K199" t="s">
+        <v>747</v>
+      </c>
+      <c r="M199" t="s">
+        <v>744</v>
+      </c>
+      <c r="N199" t="s">
+        <v>748</v>
+      </c>
+      <c r="R199" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>743</v>
+      </c>
+      <c r="C200" t="s">
+        <v>743</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="K200" t="s">
+        <v>628</v>
+      </c>
+      <c r="M200" t="s">
+        <v>744</v>
+      </c>
+      <c r="N200" t="s">
+        <v>750</v>
+      </c>
+      <c r="R200" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -12031,22 +15099,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F7331-8E89-4662-A8A5-46AD4C836D77}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
@@ -12069,45 +15137,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B4" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>586</v>
+      <c r="F4" t="s">
+        <v>658</v>
+      </c>
+      <c r="G4" t="s">
+        <v>764</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="I4"/>
     </row>
@@ -12115,19 +15183,21 @@
       <c r="A5" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <v>18</v>
       </c>
       <c r="I5"/>
@@ -12136,17 +15206,17 @@
       <c r="A6" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7">
         <v>12</v>
       </c>
       <c r="I6"/>
@@ -12155,15 +15225,17 @@
       <c r="A7" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7"/>
@@ -12172,15 +15244,15 @@
       <c r="A8" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8"/>
@@ -12189,17 +15261,17 @@
       <c r="A9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9"/>
@@ -12208,17 +15280,17 @@
       <c r="A10" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10"/>
@@ -12227,22 +15299,18 @@
       <c r="A11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="7">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>22</v>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7">
+        <v>26</v>
       </c>
       <c r="I11"/>
     </row>
@@ -12250,21 +15318,17 @@
       <c r="A12" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="7">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
       <c r="I12"/>
@@ -12273,702 +15337,1036 @@
       <c r="A13" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7">
         <v>11</v>
-      </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <v>9</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="E18" s="7"/>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
         <v>4</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="6">
+      <c r="E19" s="7"/>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="7">
         <v>6</v>
       </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
         <v>8</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>8</v>
-      </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>8</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>8</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
+      <c r="B22" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="6">
+      <c r="C22" s="7">
         <v>12</v>
       </c>
-      <c r="E21" s="6">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7">
         <v>25</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>3</v>
       </c>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
       </c>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="7">
+        <v>12</v>
       </c>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
+      <c r="B26" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7">
         <v>9</v>
       </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>8</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6">
+      <c r="B27" s="7">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7">
         <v>19</v>
-      </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6">
-        <v>4</v>
       </c>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
+      <c r="B29" s="7">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7">
+        <v>15</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7">
         <v>5</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>15</v>
-      </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>5</v>
-      </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>2</v>
       </c>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
+      <c r="B32" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6">
+      <c r="B33" s="7">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35" s="7">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="7">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="7">
         <v>6</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
-        <v>15</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B44" s="7">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <v>22</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6">
+      <c r="H45" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="7">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="7">
         <v>3</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B61" s="7">
         <v>5</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6">
-        <v>8</v>
-      </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B62" s="7">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="7">
         <v>3</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6">
-        <v>11</v>
-      </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" s="7">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="7">
+        <v>3</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B70" s="7">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B71" s="7">
+        <v>137</v>
+      </c>
+      <c r="C71" s="7">
+        <v>13</v>
+      </c>
+      <c r="D71" s="7">
+        <v>38</v>
+      </c>
+      <c r="E71" s="7">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5">
         <v>2</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
-        <v>2</v>
-      </c>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6">
-        <v>2</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <v>5</v>
-      </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>2</v>
-      </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <v>3</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6">
-        <v>3</v>
-      </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
-        <v>3</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6">
-        <v>3</v>
-      </c>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
+      <c r="G71" s="5">
         <v>6</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6">
-        <v>7</v>
-      </c>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6">
-        <v>6</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6">
-        <v>6</v>
-      </c>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <v>1</v>
-      </c>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <v>3</v>
-      </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
-        <v>2</v>
-      </c>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B50" s="6">
-        <v>4</v>
-      </c>
-      <c r="C50" s="6">
-        <v>56</v>
-      </c>
-      <c r="D50" s="6">
-        <v>12</v>
-      </c>
-      <c r="E50" s="6">
-        <v>83</v>
-      </c>
-      <c r="F50" s="6">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6">
-        <v>2</v>
-      </c>
-      <c r="H50" s="6">
-        <v>161</v>
-      </c>
-      <c r="I50"/>
-    </row>
+      <c r="H71" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12976,10 +16374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A8:G169"/>
+  <dimension ref="A8:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13011,7 +16409,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -13115,6 +16513,9 @@
       <c r="F14" t="s">
         <v>43</v>
       </c>
+      <c r="G14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -13132,6 +16533,9 @@
       <c r="F15" t="s">
         <v>43</v>
       </c>
+      <c r="G15" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -13150,7 +16554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -13167,7 +16571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -13183,8 +16587,11 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>11</v>
       </c>
@@ -13197,11 +16604,17 @@
       <c r="D19" t="s">
         <v>3</v>
       </c>
+      <c r="E19" t="s">
+        <v>753</v>
+      </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -13214,11 +16627,17 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
+      <c r="E20" t="s">
+        <v>753</v>
+      </c>
       <c r="F20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
@@ -13231,11 +16650,17 @@
       <c r="D21" t="s">
         <v>564</v>
       </c>
+      <c r="E21" t="s">
+        <v>754</v>
+      </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -13248,11 +16673,17 @@
       <c r="D22" t="s">
         <v>564</v>
       </c>
+      <c r="E22" t="s">
+        <v>755</v>
+      </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -13265,11 +16696,17 @@
       <c r="D23" t="s">
         <v>564</v>
       </c>
+      <c r="E23" t="s">
+        <v>756</v>
+      </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -13280,13 +16717,16 @@
         <v>276</v>
       </c>
       <c r="D24" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -13303,7 +16743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>18</v>
       </c>
@@ -13320,7 +16760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -13337,7 +16777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -13354,7 +16794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>21</v>
       </c>
@@ -13371,7 +16811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -13388,7 +16828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>23</v>
       </c>
@@ -13405,7 +16845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -13535,7 +16975,10 @@
         <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>658</v>
+      </c>
+      <c r="E39" t="s">
+        <v>767</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -13569,10 +17012,13 @@
         <v>299</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -13586,7 +17032,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -13609,10 +17055,13 @@
         <v>299</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -13677,10 +17126,16 @@
         <v>495</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>571</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -13694,10 +17149,16 @@
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>764</v>
+      </c>
+      <c r="E48" t="s">
+        <v>757</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -13711,10 +17172,16 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>764</v>
+      </c>
+      <c r="E49" t="s">
+        <v>757</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
+      </c>
+      <c r="G49" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -13728,10 +17195,16 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>764</v>
+      </c>
+      <c r="E50" t="s">
+        <v>757</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -13745,10 +17218,13 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -13799,7 +17275,7 @@
         <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>565</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -13821,6 +17297,9 @@
       <c r="D55" t="s">
         <v>564</v>
       </c>
+      <c r="E55" t="s">
+        <v>758</v>
+      </c>
       <c r="F55" t="s">
         <v>14</v>
       </c>
@@ -13859,7 +17338,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>764</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -13964,7 +17443,7 @@
         <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
         <v>571</v>
@@ -14460,7 +17939,7 @@
         <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
         <v>571</v>
@@ -14486,7 +17965,7 @@
         <v>564</v>
       </c>
       <c r="E87" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="F87" t="s">
         <v>43</v>
@@ -14509,7 +17988,7 @@
         <v>564</v>
       </c>
       <c r="E88" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="F88" t="s">
         <v>43</v>
@@ -14529,7 +18008,7 @@
         <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="E89" t="s">
         <v>577</v>
@@ -14552,7 +18031,10 @@
         <v>495</v>
       </c>
       <c r="D90" t="s">
-        <v>565</v>
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -14646,7 +18128,7 @@
         <v>564</v>
       </c>
       <c r="E95" t="s">
-        <v>571</v>
+        <v>761</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -14683,7 +18165,7 @@
         <v>380</v>
       </c>
       <c r="D97" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>43</v>
@@ -14720,7 +18202,7 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>564</v>
+        <v>764</v>
       </c>
       <c r="E99" t="s">
         <v>581</v>
@@ -14858,7 +18340,7 @@
         <v>220</v>
       </c>
       <c r="D105" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
         <v>576</v>
@@ -14881,7 +18363,7 @@
         <v>220</v>
       </c>
       <c r="D106" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E106" t="s">
         <v>576</v>
@@ -14947,7 +18429,7 @@
         <v>495</v>
       </c>
       <c r="D109" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
         <v>571</v>
@@ -14970,7 +18452,7 @@
         <v>276</v>
       </c>
       <c r="D110" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E110" t="s">
         <v>571</v>
@@ -14993,7 +18475,7 @@
         <v>276</v>
       </c>
       <c r="D111" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>571</v>
@@ -15016,7 +18498,7 @@
         <v>276</v>
       </c>
       <c r="D112" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
         <v>571</v>
@@ -15042,7 +18524,7 @@
         <v>564</v>
       </c>
       <c r="E113" t="s">
-        <v>571</v>
+        <v>762</v>
       </c>
       <c r="F113" t="s">
         <v>43</v>
@@ -15062,7 +18544,7 @@
         <v>276</v>
       </c>
       <c r="D114" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
         <v>571</v>
@@ -15185,7 +18667,7 @@
         <v>380</v>
       </c>
       <c r="D120" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
         <v>571</v>
@@ -15208,7 +18690,7 @@
         <v>380</v>
       </c>
       <c r="D121" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
         <v>571</v>
@@ -15291,7 +18773,7 @@
         <v>122</v>
       </c>
       <c r="D125" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E125" t="s">
         <v>571</v>
@@ -15314,7 +18796,7 @@
         <v>122</v>
       </c>
       <c r="D126" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
         <v>571</v>
@@ -15400,7 +18882,7 @@
         <v>495</v>
       </c>
       <c r="D130" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
         <v>571</v>
@@ -15423,7 +18905,7 @@
         <v>495</v>
       </c>
       <c r="D131" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
         <v>571</v>
@@ -15446,7 +18928,7 @@
         <v>495</v>
       </c>
       <c r="D132" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
         <v>571</v>
@@ -15469,7 +18951,7 @@
         <v>547</v>
       </c>
       <c r="D133" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
         <v>571</v>
@@ -15509,7 +18991,7 @@
         <v>186</v>
       </c>
       <c r="D135" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
         <v>571</v>
@@ -15532,7 +19014,7 @@
         <v>186</v>
       </c>
       <c r="D136" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>576</v>
@@ -15555,13 +19037,16 @@
         <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>583</v>
+        <v>564</v>
+      </c>
+      <c r="E137" t="s">
+        <v>763</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -15575,13 +19060,16 @@
         <v>186</v>
       </c>
       <c r="D138" t="s">
-        <v>583</v>
+        <v>564</v>
+      </c>
+      <c r="E138" t="s">
+        <v>571</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -15595,7 +19083,7 @@
         <v>122</v>
       </c>
       <c r="D139" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
         <v>571</v>
@@ -15618,7 +19106,7 @@
         <v>122</v>
       </c>
       <c r="D140" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
         <v>571</v>
@@ -15641,10 +19129,10 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>564</v>
+        <v>764</v>
       </c>
       <c r="E141" t="s">
-        <v>571</v>
+        <v>765</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -15664,7 +19152,7 @@
         <v>122</v>
       </c>
       <c r="D142" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
         <v>571</v>
@@ -15687,7 +19175,7 @@
         <v>122</v>
       </c>
       <c r="D143" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>571</v>
@@ -15747,7 +19235,7 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -15770,7 +19258,7 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -15790,13 +19278,16 @@
         <v>186</v>
       </c>
       <c r="D148" t="s">
-        <v>583</v>
+        <v>564</v>
+      </c>
+      <c r="E148" t="s">
+        <v>766</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -15810,10 +19301,10 @@
         <v>530</v>
       </c>
       <c r="D149" t="s">
-        <v>564</v>
-      </c>
-      <c r="E149" t="s">
-        <v>571</v>
+        <v>3</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="F149" t="s">
         <v>43</v>
@@ -15833,7 +19324,7 @@
         <v>530</v>
       </c>
       <c r="D150" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
         <v>571</v>
@@ -15856,7 +19347,7 @@
         <v>530</v>
       </c>
       <c r="D151" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
         <v>571</v>
@@ -15879,7 +19370,7 @@
         <v>395</v>
       </c>
       <c r="D152" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
         <v>571</v>
@@ -15902,10 +19393,10 @@
         <v>530</v>
       </c>
       <c r="D153" t="s">
-        <v>564</v>
-      </c>
-      <c r="E153" t="s">
-        <v>571</v>
+        <v>3</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -15925,7 +19416,7 @@
         <v>153</v>
       </c>
       <c r="D154" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
         <v>573</v>
@@ -15948,7 +19439,7 @@
         <v>153</v>
       </c>
       <c r="D155" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
         <v>573</v>
@@ -15971,10 +19462,10 @@
         <v>153</v>
       </c>
       <c r="D156" t="s">
-        <v>564</v>
-      </c>
-      <c r="E156" t="s">
-        <v>571</v>
+        <v>3</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>769</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -15994,10 +19485,10 @@
         <v>153</v>
       </c>
       <c r="D157" t="s">
-        <v>564</v>
-      </c>
-      <c r="E157" t="s">
-        <v>571</v>
+        <v>3</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>769</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -16017,7 +19508,7 @@
         <v>153</v>
       </c>
       <c r="D158" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
         <v>573</v>
@@ -16040,10 +19531,10 @@
         <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>594</v>
+        <v>770</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -16063,10 +19554,10 @@
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>593</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -16085,7 +19576,9 @@
       <c r="C161" t="s">
         <v>13</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="8" t="s">
+        <v>658</v>
+      </c>
       <c r="F161" t="s">
         <v>14</v>
       </c>
@@ -16107,7 +19600,7 @@
         <v>564</v>
       </c>
       <c r="E162" t="s">
-        <v>594</v>
+        <v>771</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -16153,7 +19646,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -16190,7 +19683,7 @@
         <v>530</v>
       </c>
       <c r="D166" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E166" t="s">
         <v>571</v>
@@ -16230,13 +19723,16 @@
         <v>186</v>
       </c>
       <c r="D168" t="s">
-        <v>583</v>
+        <v>564</v>
+      </c>
+      <c r="E168" t="s">
+        <v>766</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -16250,361 +19746,1268 @@
         <v>186</v>
       </c>
       <c r="D169" t="s">
-        <v>583</v>
+        <v>564</v>
+      </c>
+      <c r="E169" t="s">
+        <v>766</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>584</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>162</v>
+      </c>
+      <c r="B170" t="s">
+        <v>592</v>
+      </c>
+      <c r="C170" t="s">
+        <v>592</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>163</v>
+      </c>
+      <c r="B171" t="s">
+        <v>592</v>
+      </c>
+      <c r="C171" t="s">
+        <v>592</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>164</v>
+      </c>
+      <c r="B172" t="s">
+        <v>591</v>
+      </c>
+      <c r="C172" t="s">
+        <v>591</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>165</v>
+      </c>
+      <c r="B173" t="s">
+        <v>591</v>
+      </c>
+      <c r="C173" t="s">
+        <v>591</v>
+      </c>
+      <c r="D173" t="s">
+        <v>564</v>
+      </c>
+      <c r="E173" t="s">
+        <v>772</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>166</v>
+      </c>
+      <c r="B174" t="s">
+        <v>258</v>
+      </c>
+      <c r="C174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>571</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>167</v>
+      </c>
+      <c r="B175" t="s">
+        <v>258</v>
+      </c>
+      <c r="C175" t="s">
+        <v>272</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>571</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>168</v>
+      </c>
+      <c r="B176" t="s">
+        <v>258</v>
+      </c>
+      <c r="C176" t="s">
+        <v>272</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>169</v>
+      </c>
+      <c r="B177" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" t="s">
+        <v>272</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>571</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>170</v>
+      </c>
+      <c r="B178" t="s">
+        <v>258</v>
+      </c>
+      <c r="C178" t="s">
+        <v>272</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>571</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>171</v>
+      </c>
+      <c r="B179" t="s">
+        <v>659</v>
+      </c>
+      <c r="C179" t="s">
+        <v>659</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>752</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>172</v>
+      </c>
+      <c r="B180" t="s">
+        <v>659</v>
+      </c>
+      <c r="C180" t="s">
+        <v>659</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>752</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>173</v>
+      </c>
+      <c r="B181" t="s">
+        <v>659</v>
+      </c>
+      <c r="C181" t="s">
+        <v>659</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" t="s">
+        <v>752</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>174</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>189</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>752</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>175</v>
+      </c>
+      <c r="B183" t="s">
+        <v>189</v>
+      </c>
+      <c r="C183" t="s">
+        <v>189</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>752</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>176</v>
+      </c>
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" t="s">
+        <v>189</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>752</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>177</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" t="s">
+        <v>189</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>752</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>178</v>
+      </c>
+      <c r="B186" t="s">
+        <v>679</v>
+      </c>
+      <c r="C186" t="s">
+        <v>679</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>752</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>179</v>
+      </c>
+      <c r="B187" t="s">
+        <v>679</v>
+      </c>
+      <c r="C187" t="s">
+        <v>679</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>752</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>180</v>
+      </c>
+      <c r="B188" t="s">
+        <v>357</v>
+      </c>
+      <c r="C188" t="s">
+        <v>686</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>752</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>181</v>
+      </c>
+      <c r="B189" t="s">
+        <v>357</v>
+      </c>
+      <c r="C189" t="s">
+        <v>686</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>752</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>182</v>
+      </c>
+      <c r="B190" t="s">
+        <v>357</v>
+      </c>
+      <c r="C190" t="s">
+        <v>686</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>752</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>183</v>
+      </c>
+      <c r="B191" t="s">
+        <v>696</v>
+      </c>
+      <c r="C191" t="s">
+        <v>696</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>752</v>
+      </c>
+      <c r="F191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>184</v>
+      </c>
+      <c r="B192" t="s">
+        <v>696</v>
+      </c>
+      <c r="C192" t="s">
+        <v>696</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>752</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>185</v>
+      </c>
+      <c r="B193" t="s">
+        <v>696</v>
+      </c>
+      <c r="C193" t="s">
+        <v>696</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" t="s">
+        <v>752</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>186</v>
+      </c>
+      <c r="B194" t="s">
+        <v>696</v>
+      </c>
+      <c r="C194" t="s">
+        <v>696</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>752</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>187</v>
+      </c>
+      <c r="B195" t="s">
+        <v>696</v>
+      </c>
+      <c r="C195" t="s">
+        <v>696</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" t="s">
+        <v>752</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>147</v>
+      </c>
+      <c r="C196" t="s">
+        <v>147</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>752</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>189</v>
+      </c>
+      <c r="B197" t="s">
+        <v>147</v>
+      </c>
+      <c r="C197" t="s">
+        <v>147</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>752</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>190</v>
+      </c>
+      <c r="B198" t="s">
+        <v>147</v>
+      </c>
+      <c r="C198" t="s">
+        <v>147</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>752</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>191</v>
+      </c>
+      <c r="B199" t="s">
+        <v>175</v>
+      </c>
+      <c r="C199" t="s">
+        <v>175</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>752</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>192</v>
+      </c>
+      <c r="B200" t="s">
+        <v>175</v>
+      </c>
+      <c r="C200" t="s">
+        <v>175</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>752</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>193</v>
+      </c>
+      <c r="B201" t="s">
+        <v>175</v>
+      </c>
+      <c r="C201" t="s">
+        <v>175</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>752</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>194</v>
+      </c>
+      <c r="B202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C202" t="s">
+        <v>255</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>752</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>195</v>
+      </c>
+      <c r="B203" t="s">
+        <v>255</v>
+      </c>
+      <c r="C203" t="s">
+        <v>255</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>752</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>196</v>
+      </c>
+      <c r="B204" t="s">
+        <v>255</v>
+      </c>
+      <c r="C204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>752</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>197</v>
+      </c>
+      <c r="B205" t="s">
+        <v>743</v>
+      </c>
+      <c r="C205" t="s">
+        <v>743</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>752</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>198</v>
+      </c>
+      <c r="B206" t="s">
+        <v>743</v>
+      </c>
+      <c r="C206" t="s">
+        <v>743</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>752</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>199</v>
+      </c>
+      <c r="B207" t="s">
+        <v>743</v>
+      </c>
+      <c r="C207" t="s">
+        <v>743</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>752</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:D101 D107 D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167:D169">
-    <cfRule type="cellIs" dxfId="125" priority="94" operator="equal">
+  <conditionalFormatting sqref="D9:D101 D107 D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167">
+    <cfRule type="cellIs" dxfId="209" priority="141" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="142" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="143" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="144" operator="equal">
       <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="93" operator="equal">
-      <formula>"Pendiente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="121" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="137" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="138" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="139" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="140" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="117" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="133" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="134" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="135" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="136" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="129" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="130" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="131" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="132" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="cellIs" dxfId="109" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="125" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="126" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="127" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="128" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="121" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="122" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="123" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="124" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="101" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="117" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="118" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="119" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="120" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D114">
-    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="113" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="114" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="115" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="116" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="cellIs" dxfId="93" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="109" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="110" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="111" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="112" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="105" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="106" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="107" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="108" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="101" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="102" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="103" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="104" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D133">
-    <cfRule type="cellIs" dxfId="81" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="97" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="98" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="99" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="100" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135">
-    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="93" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="94" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="95" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="96" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="cellIs" dxfId="73" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="89" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="91" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="92" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="85" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="86" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="87" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="88" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="81" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="82" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="83" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="84" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139">
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="77" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="78" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="79" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="80" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140:D143">
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="73" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="74" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="75" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="76" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="69" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="70" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="71" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="72" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D157">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="67" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="68" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="61" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="62" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="63" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="64" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="57" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="58" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="59" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="60" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="49" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="50" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="51" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="52" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170:D171 D176">
+    <cfRule type="cellIs" dxfId="113" priority="45" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="46" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="47" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="48" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168:D169">
+    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="42" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="43" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="44" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D172">
+    <cfRule type="cellIs" dxfId="101" priority="33" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="34" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="35" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="36" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D173:D175">
+    <cfRule type="cellIs" dxfId="97" priority="29" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="30" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="31" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="32" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D178">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="27" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="28" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177">
+    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="22" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="23" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179:D180">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D181">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="16" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D182:D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+      <formula>"Por hacer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+      <formula>"Por ajustar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC3962-5F38-4D9E-820F-DA37B0E3118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6978CF-A1E7-41A4-92AB-833DE69CCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="34" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="773">
   <si>
     <t>id</t>
   </si>
@@ -1810,9 +1810,6 @@
     <t>Total general</t>
   </si>
   <si>
-    <t>(Todas)</t>
-  </si>
-  <si>
     <t>Etiquetas de columna</t>
   </si>
   <si>
@@ -2372,6 +2369,9 @@
   </si>
   <si>
     <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Tecnología, Internet y Telecomunicaciones</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2706,6 +2706,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2867,7 +2873,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2877,7 +2883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2886,6 +2891,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2931,252 +2940,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="215">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="142">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4382,6 +4146,9 @@
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4713,16 +4480,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44407.038656597222" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="199" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44407.435136689812" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="199"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="202"/>
     </cacheField>
     <cacheField name="Sector" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
+      <sharedItems containsBlank="1" count="27">
         <s v="Socioeconómico"/>
         <s v="Educación"/>
         <s v="Mujeres"/>
@@ -4737,18 +4504,19 @@
         <s v="Medio Ambiente"/>
         <s v="Transporte y Tránsito"/>
         <s v="Gobiernos locales"/>
-        <s v="Internet"/>
-        <s v="Telecomunicaciones"/>
-        <s v="Trabajo"/>
+        <s v="Tecnología, Internet y Telecomunicaciones"/>
         <s v="Turismo"/>
-        <s v="Pesca y Acuicultura"/>
-        <s v="Macroeconomía"/>
-        <s v="Transporte"/>
-        <s v="Construcción"/>
-        <s v="Delito"/>
-        <s v="Pobreza"/>
         <m u="1"/>
+        <s v="Delito" u="1"/>
+        <s v="Internet" u="1"/>
+        <s v="Transporte" u="1"/>
+        <s v="Construcción" u="1"/>
+        <s v="Trabajo" u="1"/>
+        <s v="Macroeconomía" u="1"/>
+        <s v="Pesca y Acuicultura" u="1"/>
+        <s v="Pobreza" u="1"/>
         <s v="Pueblos Indígenas" u="1"/>
+        <s v="Telecomunicaciones" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Colección" numFmtId="0">
@@ -4789,10 +4557,10 @@
         <s v="Trabajo"/>
         <s v="Economía"/>
         <s v="Turismo"/>
-        <s v="Pesca"/>
         <s v="Macroeconomía"/>
         <s v="Pobreza"/>
         <m u="1"/>
+        <s v="Pesca" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
@@ -4838,7 +4606,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="199">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -6308,7 +6076,7 @@
   </r>
   <r>
     <n v="164"/>
-    <x v="15"/>
+    <x v="14"/>
     <x v="32"/>
     <x v="0"/>
     <m/>
@@ -6317,7 +6085,7 @@
   </r>
   <r>
     <n v="165"/>
-    <x v="15"/>
+    <x v="14"/>
     <x v="32"/>
     <x v="1"/>
     <s v="Leyenda"/>
@@ -6371,30 +6139,30 @@
   </r>
   <r>
     <n v="171"/>
-    <x v="16"/>
+    <x v="7"/>
     <x v="33"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="172"/>
-    <x v="16"/>
+    <x v="7"/>
     <x v="33"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="173"/>
-    <x v="16"/>
+    <x v="7"/>
     <x v="33"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="174"/>
@@ -6403,7 +6171,7 @@
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="175"/>
@@ -6412,7 +6180,7 @@
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="176"/>
@@ -6421,7 +6189,7 @@
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="177"/>
@@ -6430,216 +6198,243 @@
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="178"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="35"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="179"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="35"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="4"/>
+    <x v="16"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <x v="18"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="9"/>
     <x v="36"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="9"/>
     <x v="36"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="9"/>
     <x v="36"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <x v="9"/>
+    <x v="36"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <x v="19"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <x v="9"/>
+    <x v="36"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <x v="12"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="12"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <x v="12"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Texto"/>
+    <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <x v="0"/>
     <x v="37"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="198"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <x v="19"/>
     <x v="37"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="199"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <x v="19"/>
     <x v="37"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <x v="19"/>
-    <x v="37"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <x v="7"/>
+    <x v="25"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <x v="19"/>
-    <x v="37"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <x v="7"/>
+    <x v="25"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <x v="20"/>
-    <x v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <x v="7"/>
+    <x v="25"/>
     <x v="0"/>
     <s v="Texto"/>
     <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <x v="20"/>
-    <x v="22"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="190"/>
-    <x v="20"/>
-    <x v="22"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <x v="21"/>
-    <x v="23"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <x v="21"/>
-    <x v="23"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <x v="21"/>
-    <x v="23"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <x v="22"/>
-    <x v="8"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <x v="22"/>
-    <x v="8"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <x v="22"/>
-    <x v="8"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <x v="23"/>
-    <x v="38"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <x v="23"/>
-    <x v="38"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="199"/>
-    <x v="23"/>
-    <x v="38"/>
-    <x v="0"/>
-    <s v="Texto"/>
-    <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="27">
+      <items count="28">
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
@@ -6654,18 +6449,19 @@
         <item x="0"/>
         <item x="12"/>
         <item x="8"/>
+        <item m="1" x="18"/>
+        <item m="1" x="26"/>
+        <item m="1" x="25"/>
+        <item m="1" x="21"/>
+        <item m="1" x="16"/>
+        <item x="15"/>
+        <item m="1" x="23"/>
+        <item m="1" x="22"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="17"/>
+        <item m="1" x="24"/>
         <item x="14"/>
-        <item x="15"/>
-        <item m="1" x="25"/>
-        <item x="16"/>
-        <item m="1" x="24"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6706,11 +6502,11 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item m="1" x="38"/>
+        <item x="35"/>
         <item m="1" x="39"/>
-        <item x="35"/>
         <item x="36"/>
         <item x="37"/>
-        <item x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6750,72 +6546,12 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="67">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
     </i>
     <i>
       <x v="7"/>
@@ -6827,15 +6563,6 @@
       <x v="30"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i>
       <x v="9"/>
     </i>
     <i r="1">
@@ -6845,109 +6572,7 @@
       <x v="12"/>
     </i>
     <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
       <x v="22"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
     </i>
     <i t="grand">
       <x/>
@@ -6956,37 +6581,25 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="7">
+  <colItems count="3">
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
+    <pageField fld="6" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Cuenta de id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="214">
+  <formats count="6">
+    <format dxfId="141">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="6" selected="0">
@@ -7000,13 +6613,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="212">
+    <format dxfId="140">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="6">
@@ -7020,11 +6630,24 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="137">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="2" selected="0">
+            <x v="5"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="136">
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7081,13 +6704,13 @@
   <slicer name="Sector" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="12" columnCount="2" rowHeight="241300"/>
   <slicer name="Colección" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="SegmentaciónDeDatos_Colección" caption="Colección" columnCount="3" style="SlicerStyleLight2" rowHeight="241300"/>
   <slicer name="ESTADO" xr10:uid="{6C99D46E-C006-4ADA-8155-D097114D7C5C}" cache="SegmentaciónDeDatos_ESTADO" caption="ESTADO" columnCount="2" style="SlicerStyleLight4" rowHeight="241300"/>
-  <slicer name="RESPONDABLE" xr10:uid="{2C69E7BF-7D6B-4D4B-A9E6-D4DD7219CFA8}" cache="SegmentaciónDeDatos_RESPONDABLE" caption="RESPONSABLE" startItem="2" columnCount="2" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="RESPONDABLE" xr10:uid="{2C69E7BF-7D6B-4D4B-A9E6-D4DD7219CFA8}" cache="SegmentaciónDeDatos_RESPONDABLE" caption="RESPONSABLE" columnCount="2" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:G207" totalsRowShown="0">
-  <autoFilter ref="A8:G207" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:G210" totalsRowShown="0">
+  <autoFilter ref="A8:G210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G169">
     <sortCondition ref="A9:A169"/>
   </sortState>
@@ -7403,8 +7026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179:C200"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13533,22 +13156,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C163" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163" t="s">
+        <v>592</v>
+      </c>
+      <c r="F163" t="s">
         <v>593</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>594</v>
-      </c>
-      <c r="G163" t="s">
-        <v>595</v>
       </c>
       <c r="H163" t="s">
         <v>16</v>
@@ -13560,43 +13183,43 @@
         <v>16</v>
       </c>
       <c r="K163" t="s">
+        <v>595</v>
+      </c>
+      <c r="L163" t="s">
         <v>596</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>597</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>598</v>
       </c>
-      <c r="N163" t="s">
+      <c r="O163" t="s">
         <v>599</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>600</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>601</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>602</v>
       </c>
-      <c r="R163" t="s">
+      <c r="S163" t="s">
         <v>603</v>
-      </c>
-      <c r="S163" t="s">
-        <v>604</v>
       </c>
       <c r="T163" t="s">
         <v>158</v>
       </c>
       <c r="U163" t="s">
+        <v>604</v>
+      </c>
+      <c r="V163" t="s">
         <v>605</v>
       </c>
-      <c r="V163" t="s">
+      <c r="Z163" t="s">
         <v>606</v>
-      </c>
-      <c r="Z163" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.35">
@@ -13604,22 +13227,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C164" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
       <c r="E164" t="s">
+        <v>592</v>
+      </c>
+      <c r="F164" t="s">
         <v>593</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>594</v>
-      </c>
-      <c r="G164" t="s">
-        <v>595</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -13628,46 +13251,46 @@
         <v>17</v>
       </c>
       <c r="J164" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K164">
         <v>2019</v>
       </c>
       <c r="L164" t="s">
+        <v>596</v>
+      </c>
+      <c r="M164" t="s">
         <v>597</v>
       </c>
-      <c r="M164" t="s">
-        <v>598</v>
-      </c>
       <c r="N164" t="s">
+        <v>608</v>
+      </c>
+      <c r="O164" t="s">
         <v>609</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>610</v>
       </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>611</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="R164" t="s">
         <v>612</v>
       </c>
-      <c r="R164" t="s">
-        <v>613</v>
-      </c>
       <c r="S164" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T164" t="s">
         <v>158</v>
       </c>
       <c r="U164" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V164" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z164" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.35">
@@ -13675,22 +13298,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C165" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
       <c r="E165" t="s">
+        <v>614</v>
+      </c>
+      <c r="F165" t="s">
+        <v>593</v>
+      </c>
+      <c r="G165" t="s">
         <v>615</v>
-      </c>
-      <c r="F165" t="s">
-        <v>594</v>
-      </c>
-      <c r="G165" t="s">
-        <v>616</v>
       </c>
       <c r="H165" t="s">
         <v>16</v>
@@ -13702,43 +13325,43 @@
         <v>244</v>
       </c>
       <c r="K165" t="s">
+        <v>595</v>
+      </c>
+      <c r="L165" t="s">
         <v>596</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>597</v>
       </c>
-      <c r="M165" t="s">
-        <v>598</v>
-      </c>
       <c r="N165" t="s">
+        <v>616</v>
+      </c>
+      <c r="O165" t="s">
         <v>617</v>
       </c>
-      <c r="O165" t="s">
+      <c r="P165" t="s">
         <v>618</v>
       </c>
-      <c r="P165" t="s">
+      <c r="Q165" t="s">
         <v>619</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>620</v>
       </c>
-      <c r="R165" t="s">
-        <v>621</v>
-      </c>
       <c r="S165" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T165" t="s">
         <v>158</v>
       </c>
       <c r="U165" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V165" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z165" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.35">
@@ -13746,22 +13369,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C166" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
+        <v>614</v>
+      </c>
+      <c r="F166" t="s">
+        <v>593</v>
+      </c>
+      <c r="G166" t="s">
         <v>615</v>
-      </c>
-      <c r="F166" t="s">
-        <v>594</v>
-      </c>
-      <c r="G166" t="s">
-        <v>616</v>
       </c>
       <c r="H166" t="s">
         <v>16</v>
@@ -13776,40 +13399,40 @@
         <v>2019</v>
       </c>
       <c r="L166" t="s">
+        <v>596</v>
+      </c>
+      <c r="M166" t="s">
         <v>597</v>
       </c>
-      <c r="M166" t="s">
-        <v>598</v>
-      </c>
       <c r="N166" t="s">
+        <v>621</v>
+      </c>
+      <c r="O166" t="s">
         <v>622</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q166" t="s">
         <v>623</v>
       </c>
-      <c r="P166" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q166" t="s">
+      <c r="R166" t="s">
         <v>624</v>
       </c>
-      <c r="R166" t="s">
-        <v>625</v>
-      </c>
       <c r="S166" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T166" t="s">
         <v>158</v>
       </c>
       <c r="U166" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V166" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z166" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.35">
@@ -13826,13 +13449,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F167" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H167" t="s">
         <v>16</v>
@@ -13844,43 +13467,43 @@
         <v>16</v>
       </c>
       <c r="K167" t="s">
+        <v>627</v>
+      </c>
+      <c r="L167" t="s">
         <v>628</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>629</v>
       </c>
-      <c r="M167" t="s">
+      <c r="N167" t="s">
         <v>630</v>
       </c>
-      <c r="N167" t="s">
+      <c r="O167" t="s">
         <v>631</v>
       </c>
-      <c r="O167" t="s">
+      <c r="P167" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q167" t="s">
         <v>632</v>
       </c>
-      <c r="P167" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>633</v>
       </c>
-      <c r="R167" t="s">
+      <c r="S167" t="s">
         <v>634</v>
-      </c>
-      <c r="S167" t="s">
-        <v>635</v>
       </c>
       <c r="T167" t="s">
         <v>24</v>
       </c>
       <c r="U167" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V167" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z167" t="s">
         <v>636</v>
-      </c>
-      <c r="Z167" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.35">
@@ -13897,13 +13520,13 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F168" t="s">
         <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
@@ -13915,43 +13538,43 @@
         <v>16</v>
       </c>
       <c r="K168" t="s">
+        <v>627</v>
+      </c>
+      <c r="L168" t="s">
         <v>628</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>629</v>
       </c>
-      <c r="M168" t="s">
-        <v>630</v>
-      </c>
       <c r="N168" t="s">
+        <v>638</v>
+      </c>
+      <c r="O168" t="s">
         <v>639</v>
       </c>
-      <c r="O168" t="s">
+      <c r="P168" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q168" t="s">
         <v>640</v>
       </c>
-      <c r="P168" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q168" t="s">
+      <c r="R168" t="s">
         <v>641</v>
       </c>
-      <c r="R168" t="s">
-        <v>642</v>
-      </c>
       <c r="S168" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T168" t="s">
         <v>24</v>
       </c>
       <c r="U168" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V168" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z168" t="s">
         <v>636</v>
-      </c>
-      <c r="Z168" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.35">
@@ -13968,13 +13591,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F169" t="s">
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H169" t="s">
         <v>16</v>
@@ -13986,40 +13609,40 @@
         <v>16</v>
       </c>
       <c r="K169" t="s">
+        <v>627</v>
+      </c>
+      <c r="L169" t="s">
         <v>628</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>629</v>
       </c>
-      <c r="M169" t="s">
-        <v>630</v>
-      </c>
       <c r="N169" t="s">
+        <v>643</v>
+      </c>
+      <c r="O169" t="s">
         <v>644</v>
       </c>
-      <c r="O169" t="s">
+      <c r="P169" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q169" t="s">
         <v>645</v>
       </c>
-      <c r="P169" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q169" t="s">
+      <c r="R169" t="s">
         <v>646</v>
       </c>
-      <c r="R169" t="s">
-        <v>647</v>
-      </c>
       <c r="S169" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T169" t="s">
         <v>24</v>
       </c>
       <c r="U169" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Z169" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.35">
@@ -14036,13 +13659,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F170" t="s">
         <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H170" t="s">
         <v>16</v>
@@ -14054,40 +13677,40 @@
         <v>16</v>
       </c>
       <c r="K170" t="s">
+        <v>627</v>
+      </c>
+      <c r="L170" t="s">
         <v>628</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>629</v>
       </c>
-      <c r="M170" t="s">
-        <v>630</v>
-      </c>
       <c r="N170" t="s">
+        <v>648</v>
+      </c>
+      <c r="O170" t="s">
         <v>649</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q170" t="s">
         <v>650</v>
       </c>
-      <c r="P170" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q170" t="s">
+      <c r="R170" t="s">
         <v>651</v>
       </c>
-      <c r="R170" t="s">
-        <v>652</v>
-      </c>
       <c r="S170" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T170" t="s">
         <v>24</v>
       </c>
       <c r="U170" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Z170" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.35">
@@ -14104,13 +13727,13 @@
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F171" t="s">
         <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H171" t="s">
         <v>16</v>
@@ -14122,40 +13745,40 @@
         <v>16</v>
       </c>
       <c r="K171" t="s">
+        <v>627</v>
+      </c>
+      <c r="L171" t="s">
         <v>628</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>629</v>
       </c>
-      <c r="M171" t="s">
-        <v>630</v>
-      </c>
       <c r="N171" t="s">
+        <v>653</v>
+      </c>
+      <c r="O171" t="s">
         <v>654</v>
       </c>
-      <c r="O171" t="s">
+      <c r="P171" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q171" t="s">
         <v>655</v>
       </c>
-      <c r="P171" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q171" t="s">
+      <c r="R171" t="s">
         <v>656</v>
       </c>
-      <c r="R171" t="s">
-        <v>657</v>
-      </c>
       <c r="S171" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T171" t="s">
         <v>24</v>
       </c>
       <c r="U171" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Z171" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.35">
@@ -14163,10 +13786,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C172" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -14175,16 +13798,16 @@
         <v>258</v>
       </c>
       <c r="K172" t="s">
+        <v>659</v>
+      </c>
+      <c r="M172" t="s">
         <v>660</v>
       </c>
-      <c r="M172" t="s">
+      <c r="N172" t="s">
         <v>661</v>
       </c>
-      <c r="N172" t="s">
+      <c r="R172" t="s">
         <v>662</v>
-      </c>
-      <c r="R172" t="s">
-        <v>663</v>
       </c>
       <c r="T172" t="s">
         <v>110</v>
@@ -14195,10 +13818,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C173" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -14207,16 +13830,16 @@
         <v>258</v>
       </c>
       <c r="K173" t="s">
+        <v>659</v>
+      </c>
+      <c r="M173" t="s">
         <v>660</v>
       </c>
-      <c r="M173" t="s">
-        <v>661</v>
-      </c>
       <c r="N173" t="s">
+        <v>663</v>
+      </c>
+      <c r="R173" t="s">
         <v>664</v>
-      </c>
-      <c r="R173" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.35">
@@ -14224,25 +13847,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>658</v>
+      </c>
+      <c r="C174" t="s">
+        <v>658</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
         <v>659</v>
       </c>
-      <c r="C174" t="s">
-        <v>659</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="K174" t="s">
+      <c r="M174" t="s">
         <v>660</v>
       </c>
-      <c r="M174" t="s">
-        <v>661</v>
-      </c>
       <c r="N174" t="s">
+        <v>665</v>
+      </c>
+      <c r="R174" t="s">
         <v>666</v>
-      </c>
-      <c r="R174" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.35">
@@ -14259,16 +13882,16 @@
         <v>14</v>
       </c>
       <c r="K175" t="s">
+        <v>667</v>
+      </c>
+      <c r="M175" t="s">
+        <v>629</v>
+      </c>
+      <c r="N175" t="s">
         <v>668</v>
       </c>
-      <c r="M175" t="s">
-        <v>630</v>
-      </c>
-      <c r="N175" t="s">
+      <c r="R175" t="s">
         <v>669</v>
-      </c>
-      <c r="R175" t="s">
-        <v>670</v>
       </c>
       <c r="T175" t="s">
         <v>110</v>
@@ -14288,13 +13911,13 @@
         <v>14</v>
       </c>
       <c r="K176" t="s">
+        <v>670</v>
+      </c>
+      <c r="N176" t="s">
         <v>671</v>
       </c>
-      <c r="N176" t="s">
+      <c r="R176" t="s">
         <v>672</v>
-      </c>
-      <c r="R176" t="s">
-        <v>673</v>
       </c>
       <c r="T176" t="s">
         <v>110</v>
@@ -14317,19 +13940,19 @@
         <v>189</v>
       </c>
       <c r="G177" t="s">
+        <v>673</v>
+      </c>
+      <c r="K177" t="s">
+        <v>670</v>
+      </c>
+      <c r="M177" t="s">
+        <v>629</v>
+      </c>
+      <c r="N177" t="s">
         <v>674</v>
       </c>
-      <c r="K177" t="s">
-        <v>671</v>
-      </c>
-      <c r="M177" t="s">
-        <v>630</v>
-      </c>
-      <c r="N177" t="s">
+      <c r="R177" t="s">
         <v>675</v>
-      </c>
-      <c r="R177" t="s">
-        <v>676</v>
       </c>
       <c r="T177" t="s">
         <v>110</v>
@@ -14349,19 +13972,19 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K178" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M178" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N178" t="s">
+        <v>676</v>
+      </c>
+      <c r="R178" t="s">
         <v>677</v>
-      </c>
-      <c r="R178" t="s">
-        <v>678</v>
       </c>
       <c r="T178" t="s">
         <v>110</v>
@@ -14372,10 +13995,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C179" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -14384,19 +14007,19 @@
         <v>189</v>
       </c>
       <c r="G179" t="s">
+        <v>679</v>
+      </c>
+      <c r="K179" t="s">
+        <v>670</v>
+      </c>
+      <c r="M179" t="s">
+        <v>629</v>
+      </c>
+      <c r="N179" t="s">
         <v>680</v>
       </c>
-      <c r="K179" t="s">
-        <v>671</v>
-      </c>
-      <c r="M179" t="s">
-        <v>630</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="R179" t="s">
         <v>681</v>
-      </c>
-      <c r="R179" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.35">
@@ -14404,10 +14027,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C180" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -14416,22 +14039,22 @@
         <v>189</v>
       </c>
       <c r="K180" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M180" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N180" t="s">
+        <v>682</v>
+      </c>
+      <c r="R180" t="s">
         <v>683</v>
-      </c>
-      <c r="R180" t="s">
-        <v>684</v>
       </c>
       <c r="T180" t="s">
         <v>110</v>
       </c>
       <c r="Z180" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.35">
@@ -14442,25 +14065,25 @@
         <v>357</v>
       </c>
       <c r="C181" t="s">
+        <v>685</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
         <v>686</v>
       </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="K181" t="s">
+        <v>670</v>
+      </c>
+      <c r="M181" t="s">
         <v>687</v>
       </c>
-      <c r="K181" t="s">
-        <v>671</v>
-      </c>
-      <c r="M181" t="s">
+      <c r="N181" t="s">
         <v>688</v>
       </c>
-      <c r="N181" t="s">
+      <c r="R181" t="s">
         <v>689</v>
-      </c>
-      <c r="R181" t="s">
-        <v>690</v>
       </c>
       <c r="T181" t="s">
         <v>110</v>
@@ -14474,28 +14097,28 @@
         <v>357</v>
       </c>
       <c r="C182" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="K182" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M182" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N182" t="s">
+        <v>690</v>
+      </c>
+      <c r="R182" t="s">
         <v>691</v>
-      </c>
-      <c r="R182" t="s">
-        <v>692</v>
       </c>
       <c r="T182" t="s">
         <v>110</v>
       </c>
       <c r="Z182" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.35">
@@ -14506,31 +14129,31 @@
         <v>357</v>
       </c>
       <c r="C183" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="G183" t="s">
+        <v>692</v>
+      </c>
+      <c r="K183" t="s">
+        <v>670</v>
+      </c>
+      <c r="M183" t="s">
+        <v>687</v>
+      </c>
+      <c r="N183" t="s">
         <v>693</v>
       </c>
-      <c r="K183" t="s">
-        <v>671</v>
-      </c>
-      <c r="M183" t="s">
-        <v>688</v>
-      </c>
-      <c r="N183" t="s">
+      <c r="R183" t="s">
         <v>694</v>
-      </c>
-      <c r="R183" t="s">
-        <v>695</v>
       </c>
       <c r="T183" t="s">
         <v>110</v>
       </c>
       <c r="Z183" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.35">
@@ -14538,34 +14161,34 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>695</v>
+      </c>
+      <c r="C184" t="s">
+        <v>695</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
         <v>696</v>
-      </c>
-      <c r="C184" t="s">
-        <v>696</v>
-      </c>
-      <c r="D184" t="s">
-        <v>14</v>
-      </c>
-      <c r="E184" t="s">
-        <v>697</v>
       </c>
       <c r="F184" t="s">
         <v>189</v>
       </c>
       <c r="G184" t="s">
+        <v>697</v>
+      </c>
+      <c r="K184" t="s">
+        <v>670</v>
+      </c>
+      <c r="M184" t="s">
+        <v>629</v>
+      </c>
+      <c r="N184" t="s">
         <v>698</v>
       </c>
-      <c r="K184" t="s">
-        <v>671</v>
-      </c>
-      <c r="M184" t="s">
-        <v>630</v>
-      </c>
-      <c r="N184" t="s">
+      <c r="R184" t="s">
         <v>699</v>
-      </c>
-      <c r="R184" t="s">
-        <v>700</v>
       </c>
       <c r="T184" t="s">
         <v>110</v>
@@ -14576,10 +14199,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C185" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -14588,22 +14211,22 @@
         <v>189</v>
       </c>
       <c r="K185" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M185" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N185" t="s">
+        <v>700</v>
+      </c>
+      <c r="R185" t="s">
         <v>701</v>
-      </c>
-      <c r="R185" t="s">
-        <v>702</v>
       </c>
       <c r="T185" t="s">
         <v>110</v>
       </c>
       <c r="Z185" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.35">
@@ -14611,28 +14234,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>695</v>
+      </c>
+      <c r="C186" t="s">
+        <v>695</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
         <v>696</v>
       </c>
-      <c r="C186" t="s">
-        <v>696</v>
-      </c>
-      <c r="D186" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="G186" t="s">
         <v>697</v>
       </c>
-      <c r="G186" t="s">
-        <v>698</v>
-      </c>
       <c r="M186" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N186" t="s">
+        <v>702</v>
+      </c>
+      <c r="R186" t="s">
         <v>703</v>
-      </c>
-      <c r="R186" t="s">
-        <v>704</v>
       </c>
       <c r="T186" t="s">
         <v>110</v>
@@ -14643,40 +14266,40 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>695</v>
+      </c>
+      <c r="C187" t="s">
+        <v>695</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
         <v>696</v>
-      </c>
-      <c r="C187" t="s">
-        <v>696</v>
-      </c>
-      <c r="D187" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" t="s">
-        <v>697</v>
       </c>
       <c r="F187" t="s">
         <v>189</v>
       </c>
       <c r="G187" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K187" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M187" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N187" t="s">
+        <v>704</v>
+      </c>
+      <c r="R187" t="s">
         <v>705</v>
-      </c>
-      <c r="R187" t="s">
-        <v>706</v>
       </c>
       <c r="T187" t="s">
         <v>110</v>
       </c>
       <c r="Z187" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.35">
@@ -14684,37 +14307,37 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>695</v>
+      </c>
+      <c r="C188" t="s">
+        <v>695</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
         <v>696</v>
       </c>
-      <c r="C188" t="s">
-        <v>696</v>
-      </c>
-      <c r="D188" t="s">
-        <v>14</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="G188" t="s">
         <v>697</v>
       </c>
-      <c r="G188" t="s">
-        <v>698</v>
-      </c>
       <c r="K188" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M188" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N188" t="s">
+        <v>706</v>
+      </c>
+      <c r="R188" t="s">
         <v>707</v>
-      </c>
-      <c r="R188" t="s">
-        <v>708</v>
       </c>
       <c r="T188" t="s">
         <v>110</v>
       </c>
       <c r="Z188" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.35">
@@ -14731,25 +14354,25 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
+        <v>708</v>
+      </c>
+      <c r="G189" t="s">
         <v>709</v>
       </c>
-      <c r="G189" t="s">
+      <c r="K189" t="s">
+        <v>670</v>
+      </c>
+      <c r="M189" t="s">
         <v>710</v>
       </c>
-      <c r="K189" t="s">
-        <v>671</v>
-      </c>
-      <c r="M189" t="s">
+      <c r="N189" t="s">
         <v>711</v>
       </c>
-      <c r="N189" t="s">
+      <c r="R189" t="s">
         <v>712</v>
       </c>
-      <c r="R189" t="s">
-        <v>713</v>
-      </c>
       <c r="Z189" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.35">
@@ -14766,25 +14389,25 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
+        <v>713</v>
+      </c>
+      <c r="G190" t="s">
         <v>714</v>
       </c>
-      <c r="G190" t="s">
+      <c r="K190" t="s">
+        <v>670</v>
+      </c>
+      <c r="M190" t="s">
+        <v>710</v>
+      </c>
+      <c r="N190" t="s">
         <v>715</v>
       </c>
-      <c r="K190" t="s">
-        <v>671</v>
-      </c>
-      <c r="M190" t="s">
-        <v>711</v>
-      </c>
-      <c r="N190" t="s">
+      <c r="R190" t="s">
         <v>716</v>
       </c>
-      <c r="R190" t="s">
-        <v>717</v>
-      </c>
       <c r="Z190" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.35">
@@ -14801,25 +14424,25 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
+        <v>717</v>
+      </c>
+      <c r="G191" t="s">
         <v>718</v>
       </c>
-      <c r="G191" t="s">
+      <c r="K191" t="s">
+        <v>670</v>
+      </c>
+      <c r="M191" t="s">
+        <v>710</v>
+      </c>
+      <c r="N191" t="s">
         <v>719</v>
       </c>
-      <c r="K191" t="s">
-        <v>671</v>
-      </c>
-      <c r="M191" t="s">
-        <v>711</v>
-      </c>
-      <c r="N191" t="s">
+      <c r="R191" t="s">
         <v>720</v>
       </c>
-      <c r="R191" t="s">
-        <v>721</v>
-      </c>
       <c r="Z191" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.35">
@@ -14836,25 +14459,25 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G192" t="s">
         <v>722</v>
       </c>
-      <c r="G192" t="s">
+      <c r="K192" t="s">
+        <v>670</v>
+      </c>
+      <c r="M192" t="s">
+        <v>629</v>
+      </c>
+      <c r="N192" t="s">
         <v>723</v>
       </c>
-      <c r="K192" t="s">
-        <v>671</v>
-      </c>
-      <c r="M192" t="s">
-        <v>630</v>
-      </c>
-      <c r="N192" t="s">
+      <c r="R192" t="s">
         <v>724</v>
       </c>
-      <c r="R192" t="s">
-        <v>725</v>
-      </c>
       <c r="Z192" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.35">
@@ -14871,25 +14494,25 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
+        <v>725</v>
+      </c>
+      <c r="G193" t="s">
         <v>726</v>
       </c>
-      <c r="G193" t="s">
+      <c r="K193" t="s">
+        <v>670</v>
+      </c>
+      <c r="M193" t="s">
+        <v>629</v>
+      </c>
+      <c r="N193" t="s">
         <v>727</v>
       </c>
-      <c r="K193" t="s">
-        <v>671</v>
-      </c>
-      <c r="M193" t="s">
-        <v>630</v>
-      </c>
-      <c r="N193" t="s">
+      <c r="R193" t="s">
         <v>728</v>
       </c>
-      <c r="R193" t="s">
-        <v>729</v>
-      </c>
       <c r="Z193" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.35">
@@ -14906,25 +14529,25 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
+        <v>729</v>
+      </c>
+      <c r="G194" t="s">
         <v>730</v>
       </c>
-      <c r="G194" t="s">
+      <c r="K194" t="s">
+        <v>670</v>
+      </c>
+      <c r="M194" t="s">
+        <v>629</v>
+      </c>
+      <c r="N194" t="s">
         <v>731</v>
       </c>
-      <c r="K194" t="s">
-        <v>671</v>
-      </c>
-      <c r="M194" t="s">
-        <v>630</v>
-      </c>
-      <c r="N194" t="s">
+      <c r="R194" t="s">
         <v>732</v>
       </c>
-      <c r="R194" t="s">
-        <v>733</v>
-      </c>
       <c r="Z194" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.35">
@@ -14941,19 +14564,19 @@
         <v>14</v>
       </c>
       <c r="K195" t="s">
+        <v>733</v>
+      </c>
+      <c r="M195" t="s">
         <v>734</v>
       </c>
-      <c r="M195" t="s">
+      <c r="N195" t="s">
         <v>735</v>
       </c>
-      <c r="N195" t="s">
+      <c r="R195" t="s">
         <v>736</v>
       </c>
-      <c r="R195" t="s">
+      <c r="Z195" t="s">
         <v>737</v>
-      </c>
-      <c r="Z195" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.35">
@@ -14970,19 +14593,19 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
+        <v>733</v>
+      </c>
+      <c r="M196" t="s">
         <v>734</v>
       </c>
-      <c r="M196" t="s">
-        <v>735</v>
-      </c>
       <c r="N196" t="s">
+        <v>738</v>
+      </c>
+      <c r="R196" t="s">
         <v>739</v>
       </c>
-      <c r="R196" t="s">
-        <v>740</v>
-      </c>
       <c r="Z196" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.35">
@@ -14999,19 +14622,19 @@
         <v>14</v>
       </c>
       <c r="K197" t="s">
+        <v>733</v>
+      </c>
+      <c r="M197" t="s">
         <v>734</v>
       </c>
-      <c r="M197" t="s">
-        <v>735</v>
-      </c>
       <c r="N197" t="s">
+        <v>740</v>
+      </c>
+      <c r="R197" t="s">
         <v>741</v>
       </c>
-      <c r="R197" t="s">
-        <v>742</v>
-      </c>
       <c r="Z197" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.35">
@@ -15019,25 +14642,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>742</v>
+      </c>
+      <c r="C198" t="s">
+        <v>742</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s">
+        <v>627</v>
+      </c>
+      <c r="M198" t="s">
         <v>743</v>
       </c>
-      <c r="C198" t="s">
-        <v>743</v>
-      </c>
-      <c r="D198" t="s">
-        <v>14</v>
-      </c>
-      <c r="K198" t="s">
-        <v>628</v>
-      </c>
-      <c r="M198" t="s">
+      <c r="N198" t="s">
         <v>744</v>
       </c>
-      <c r="N198" t="s">
+      <c r="R198" t="s">
         <v>745</v>
-      </c>
-      <c r="R198" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.35">
@@ -15045,25 +14668,25 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>742</v>
+      </c>
+      <c r="C199" t="s">
+        <v>742</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="K199" t="s">
+        <v>746</v>
+      </c>
+      <c r="M199" t="s">
         <v>743</v>
       </c>
-      <c r="C199" t="s">
-        <v>743</v>
-      </c>
-      <c r="D199" t="s">
-        <v>14</v>
-      </c>
-      <c r="K199" t="s">
+      <c r="N199" t="s">
         <v>747</v>
       </c>
-      <c r="M199" t="s">
-        <v>744</v>
-      </c>
-      <c r="N199" t="s">
+      <c r="R199" t="s">
         <v>748</v>
-      </c>
-      <c r="R199" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.35">
@@ -15071,25 +14694,25 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>742</v>
+      </c>
+      <c r="C200" t="s">
+        <v>742</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="K200" t="s">
+        <v>627</v>
+      </c>
+      <c r="M200" t="s">
         <v>743</v>
       </c>
-      <c r="C200" t="s">
-        <v>743</v>
-      </c>
-      <c r="D200" t="s">
-        <v>14</v>
-      </c>
-      <c r="K200" t="s">
-        <v>628</v>
-      </c>
-      <c r="M200" t="s">
-        <v>744</v>
-      </c>
       <c r="N200" t="s">
+        <v>749</v>
+      </c>
+      <c r="R200" t="s">
         <v>750</v>
-      </c>
-      <c r="R200" t="s">
-        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -15101,20 +14724,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F7331-8E89-4662-A8A5-46AD4C836D77}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
@@ -15137,1236 +14761,456 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>586</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F4" t="s">
-        <v>658</v>
-      </c>
-      <c r="G4" t="s">
-        <v>764</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>584</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="7">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="7">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="A7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+        <v>380</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7">
-        <v>7</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="7">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="7">
+        <v>495</v>
+      </c>
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="7">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+        <v>547</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" s="6">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>21</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7">
-        <v>11</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="7">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="7">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>8</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="7">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5">
-        <v>3</v>
-      </c>
-      <c r="H22" s="7">
-        <v>25</v>
-      </c>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <v>3</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7">
-        <v>12</v>
-      </c>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="7">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" s="7">
-        <v>15</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7">
-        <v>19</v>
-      </c>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B29" s="7">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <v>3</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7">
-        <v>15</v>
-      </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="7">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B33" s="7">
-        <v>18</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B34" s="7">
-        <v>8</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B35" s="7">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7">
-        <v>2</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="7">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" s="7">
-        <v>6</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B43" s="7">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B44" s="7">
-        <v>3</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="7">
-        <v>6</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="7">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="7">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="7">
-        <v>2</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B51" s="7">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B52" s="7">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B54" s="7">
-        <v>1</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B55" s="7">
-        <v>3</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B56" s="7">
-        <v>3</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="B57" s="7">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="B58" s="7">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B59" s="7">
-        <v>3</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B60" s="7">
-        <v>3</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B61" s="7">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="B62" s="7">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="7">
-        <v>3</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="7">
-        <v>3</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="7">
-        <v>3</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="7">
-        <v>3</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B67" s="7">
-        <v>3</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B68" s="7">
-        <v>3</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B69" s="7">
-        <v>3</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B70" s="7">
-        <v>3</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+      <c r="C60" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B71" s="7">
-        <v>137</v>
-      </c>
-      <c r="C71" s="7">
-        <v>13</v>
-      </c>
-      <c r="D71" s="7">
-        <v>38</v>
-      </c>
-      <c r="E71" s="7">
-        <v>3</v>
-      </c>
-      <c r="F71" s="5">
-        <v>2</v>
-      </c>
-      <c r="G71" s="5">
-        <v>6</v>
-      </c>
-      <c r="H71" s="7">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="61" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="3:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="3:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16374,10 +15218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A8:G207"/>
+  <dimension ref="A8:G210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16409,7 +15253,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -16605,7 +15449,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -16628,7 +15472,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -16651,7 +15495,7 @@
         <v>564</v>
       </c>
       <c r="E21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -16674,7 +15518,7 @@
         <v>564</v>
       </c>
       <c r="E22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -16697,7 +15541,7 @@
         <v>564</v>
       </c>
       <c r="E23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -16975,10 +15819,10 @@
         <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -17149,10 +15993,10 @@
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E48" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
@@ -17172,10 +16016,10 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E49" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
@@ -17195,10 +16039,10 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E50" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
@@ -17298,7 +16142,7 @@
         <v>564</v>
       </c>
       <c r="E55" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -17338,7 +16182,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -17627,10 +16471,10 @@
         <v>395</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>564</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>765</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
@@ -17965,7 +16809,7 @@
         <v>564</v>
       </c>
       <c r="E87" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F87" t="s">
         <v>43</v>
@@ -17988,7 +16832,7 @@
         <v>564</v>
       </c>
       <c r="E88" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F88" t="s">
         <v>43</v>
@@ -18128,7 +16972,7 @@
         <v>564</v>
       </c>
       <c r="E95" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -18202,7 +17046,7 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E99" t="s">
         <v>581</v>
@@ -18524,7 +17368,7 @@
         <v>564</v>
       </c>
       <c r="E113" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F113" t="s">
         <v>43</v>
@@ -19040,7 +17884,7 @@
         <v>564</v>
       </c>
       <c r="E137" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -19129,10 +17973,10 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
+        <v>763</v>
+      </c>
+      <c r="E141" t="s">
         <v>764</v>
-      </c>
-      <c r="E141" t="s">
-        <v>765</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -19235,7 +18079,7 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -19258,7 +18102,7 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -19281,7 +18125,7 @@
         <v>564</v>
       </c>
       <c r="E148" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -19303,8 +18147,8 @@
       <c r="D149" t="s">
         <v>3</v>
       </c>
-      <c r="E149" s="9" t="s">
-        <v>768</v>
+      <c r="E149" s="8" t="s">
+        <v>767</v>
       </c>
       <c r="F149" t="s">
         <v>43</v>
@@ -19395,8 +18239,8 @@
       <c r="D153" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>768</v>
+      <c r="E153" s="8" t="s">
+        <v>767</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -19464,8 +18308,8 @@
       <c r="D156" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="9" t="s">
-        <v>769</v>
+      <c r="E156" s="8" t="s">
+        <v>768</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -19487,8 +18331,8 @@
       <c r="D157" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="9" t="s">
-        <v>769</v>
+      <c r="E157" s="8" t="s">
+        <v>768</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -19534,7 +18378,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -19576,8 +18420,8 @@
       <c r="C161" t="s">
         <v>13</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>658</v>
+      <c r="D161" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -19600,7 +18444,7 @@
         <v>564</v>
       </c>
       <c r="E162" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -19646,7 +18490,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -19726,7 +18570,7 @@
         <v>564</v>
       </c>
       <c r="E168" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -19749,7 +18593,7 @@
         <v>564</v>
       </c>
       <c r="E169" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -19763,10 +18607,10 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>592</v>
+        <v>772</v>
       </c>
       <c r="C170" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -19780,10 +18624,10 @@
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>592</v>
+        <v>772</v>
       </c>
       <c r="C171" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -19797,10 +18641,10 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>591</v>
+        <v>772</v>
       </c>
       <c r="C172" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -19814,16 +18658,16 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>591</v>
+        <v>772</v>
       </c>
       <c r="C173" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D173" t="s">
         <v>564</v>
       </c>
       <c r="E173" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -19946,19 +18790,22 @@
         <v>171</v>
       </c>
       <c r="B179" t="s">
-        <v>659</v>
+        <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -19966,19 +18813,22 @@
         <v>172</v>
       </c>
       <c r="B180" t="s">
-        <v>659</v>
+        <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -19986,19 +18836,22 @@
         <v>173</v>
       </c>
       <c r="B181" t="s">
-        <v>659</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -20015,10 +18868,13 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -20035,10 +18891,13 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -20055,10 +18914,13 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -20075,10 +18937,13 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -20086,19 +18951,22 @@
         <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C186" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -20106,19 +18974,22 @@
         <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C187" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -20126,19 +18997,22 @@
         <v>180</v>
       </c>
       <c r="B188" t="s">
+        <v>301</v>
+      </c>
+      <c r="C188" t="s">
         <v>357</v>
-      </c>
-      <c r="C188" t="s">
-        <v>686</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -20146,19 +19020,22 @@
         <v>181</v>
       </c>
       <c r="B189" t="s">
+        <v>301</v>
+      </c>
+      <c r="C189" t="s">
         <v>357</v>
-      </c>
-      <c r="C189" t="s">
-        <v>686</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -20166,19 +19043,22 @@
         <v>182</v>
       </c>
       <c r="B190" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" t="s">
         <v>357</v>
-      </c>
-      <c r="C190" t="s">
-        <v>686</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -20186,19 +19066,22 @@
         <v>183</v>
       </c>
       <c r="B191" t="s">
-        <v>696</v>
+        <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -20206,87 +19089,99 @@
         <v>184</v>
       </c>
       <c r="B192" t="s">
-        <v>696</v>
+        <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>185</v>
       </c>
       <c r="B193" t="s">
-        <v>696</v>
+        <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>186</v>
       </c>
       <c r="B194" t="s">
-        <v>696</v>
+        <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>187</v>
       </c>
       <c r="B195" t="s">
-        <v>696</v>
+        <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F195" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>188</v>
       </c>
       <c r="B196" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C196" t="s">
         <v>147</v>
@@ -20295,18 +19190,21 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>189</v>
       </c>
       <c r="B197" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C197" t="s">
         <v>147</v>
@@ -20315,18 +19213,21 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>190</v>
       </c>
       <c r="B198" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C198" t="s">
         <v>147</v>
@@ -20335,18 +19236,21 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>191</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C199" t="s">
         <v>175</v>
@@ -20355,18 +19259,21 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>192</v>
       </c>
       <c r="B200" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C200" t="s">
         <v>175</v>
@@ -20375,18 +19282,21 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>193</v>
       </c>
       <c r="B201" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C201" t="s">
         <v>175</v>
@@ -20395,18 +19305,21 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>194</v>
       </c>
       <c r="B202" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C202" t="s">
         <v>255</v>
@@ -20415,18 +19328,21 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>195</v>
       </c>
       <c r="B203" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C203" t="s">
         <v>255</v>
@@ -20435,18 +19351,21 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>196</v>
       </c>
       <c r="B204" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C204" t="s">
         <v>255</v>
@@ -20455,546 +19374,627 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>197</v>
       </c>
       <c r="B205" t="s">
-        <v>743</v>
+        <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>198</v>
       </c>
       <c r="B206" t="s">
-        <v>743</v>
+        <v>477</v>
       </c>
       <c r="C206" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>199</v>
       </c>
       <c r="B207" t="s">
-        <v>743</v>
+        <v>477</v>
       </c>
       <c r="C207" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
       </c>
+      <c r="G207" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>200</v>
+      </c>
+      <c r="B208" t="s">
+        <v>258</v>
+      </c>
+      <c r="C208" t="s">
+        <v>268</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>751</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>201</v>
+      </c>
+      <c r="B209" t="s">
+        <v>258</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>751</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>202</v>
+      </c>
+      <c r="B210" t="s">
+        <v>258</v>
+      </c>
+      <c r="C210" t="s">
+        <v>268</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>751</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:D101 D107 D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167">
-    <cfRule type="cellIs" dxfId="209" priority="141" operator="equal">
+  <conditionalFormatting sqref="D107 D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167 D9:D101">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="205" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="137" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="138" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="140" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="201" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="cellIs" dxfId="197" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="cellIs" dxfId="193" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="125" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="189" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="121" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="122" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="123" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="185" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D114">
-    <cfRule type="cellIs" dxfId="181" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="116" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="cellIs" dxfId="177" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="cellIs" dxfId="173" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="cellIs" dxfId="169" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="103" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D133">
-    <cfRule type="cellIs" dxfId="165" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="99" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135">
-    <cfRule type="cellIs" dxfId="161" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="cellIs" dxfId="157" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="92" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="153" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="88" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="cellIs" dxfId="149" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139">
-    <cfRule type="cellIs" dxfId="145" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140:D143">
-    <cfRule type="cellIs" dxfId="141" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="cellIs" dxfId="137" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D157">
-    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="cellIs" dxfId="129" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="125" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166">
-    <cfRule type="cellIs" dxfId="117" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170:D171 D176">
-    <cfRule type="cellIs" dxfId="113" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168:D169">
-    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D172">
-    <cfRule type="cellIs" dxfId="101" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173:D175">
-    <cfRule type="cellIs" dxfId="97" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178">
-    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:D180">
-    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D181">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D182:D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207">
-    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+  <conditionalFormatting sqref="D182:D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+  <conditionalFormatting sqref="D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6978CF-A1E7-41A4-92AB-833DE69CCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC0E23-6B4B-4987-B461-D9449AA65558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="774">
   <si>
     <t>id</t>
   </si>
@@ -2372,6 +2372,9 @@
   </si>
   <si>
     <t>Tecnología, Internet y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Link regionañ</t>
   </si>
 </sst>
 </file>
@@ -6429,7 +6432,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -14993,150 +14996,22 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -15220,8 +15095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16532,6 +16407,9 @@
       </c>
       <c r="D74" t="s">
         <v>564</v>
+      </c>
+      <c r="E74" t="s">
+        <v>773</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC0E23-6B4B-4987-B461-D9449AA65558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C7679-710E-418E-A6CA-55D19FF9CC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15095,8 +15095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16684,7 +16684,7 @@
         <v>220</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E87" t="s">
         <v>758</v>
@@ -16707,7 +16707,7 @@
         <v>220</v>
       </c>
       <c r="D88" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
         <v>759</v>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C7679-710E-418E-A6CA-55D19FF9CC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372F3DA-2E13-4FB7-AB10-DDB1BE513881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="35" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="772">
   <si>
     <t>id</t>
   </si>
@@ -2329,15 +2329,6 @@
     <t>Links regionales</t>
   </si>
   <si>
-    <t>Valor acumulado</t>
-  </si>
-  <si>
-    <t>Color números</t>
-  </si>
-  <si>
-    <t>Link regional, mariposa</t>
-  </si>
-  <si>
     <t>Colores</t>
   </si>
   <si>
@@ -2375,6 +2366,9 @@
   </si>
   <si>
     <t>Link regionañ</t>
+  </si>
+  <si>
+    <t>(Todas)</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2870,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2898,6 +2892,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4483,7 +4479,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44407.435136689812" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44412.672722685187" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
@@ -5172,8 +5168,8 @@
     <n v="63"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="0"/>
-    <s v="Título"/>
+    <x v="1"/>
+    <s v="Cambiar gráfico"/>
     <s v="Yes"/>
     <x v="1"/>
   </r>
@@ -5200,7 +5196,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <m/>
+    <s v="Link regionañ"/>
     <s v="Yes"/>
     <x v="1"/>
   </r>
@@ -5316,8 +5312,8 @@
     <n v="79"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
-    <s v="Valor acumulado"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="6"/>
   </r>
@@ -5325,8 +5321,8 @@
     <n v="80"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
-    <s v="Color números"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="6"/>
   </r>
@@ -5388,8 +5384,8 @@
     <n v="87"/>
     <x v="9"/>
     <x v="10"/>
-    <x v="1"/>
-    <s v="Link regional, mariposa"/>
+    <x v="0"/>
+    <m/>
     <s v="No"/>
     <x v="6"/>
   </r>
@@ -5479,7 +5475,7 @@
     <x v="9"/>
     <x v="10"/>
     <x v="0"/>
-    <s v="Links N y R"/>
+    <m/>
     <s v="Yes"/>
     <x v="6"/>
   </r>
@@ -5488,7 +5484,7 @@
     <x v="9"/>
     <x v="10"/>
     <x v="0"/>
-    <s v="Links N y R"/>
+    <m/>
     <s v="Yes"/>
     <x v="6"/>
   </r>
@@ -6432,8 +6428,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -6549,12 +6545,75 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="55">
     <i>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
     </i>
     <i>
       <x v="7"/>
@@ -6566,6 +6625,15 @@
       <x v="30"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i r="1">
@@ -6575,7 +6643,70 @@
       <x v="12"/>
     </i>
     <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
       <x v="22"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -6584,19 +6715,31 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="7">
     <i>
       <x v="2"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="3" hier="-1"/>
+    <pageField fld="6" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Cuenta de id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
@@ -14727,21 +14870,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F7331-8E89-4662-A8A5-46AD4C836D77}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
@@ -14767,7 +14909,7 @@
         <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>579</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -14777,10 +14919,6 @@
       <c r="B3" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -14791,15 +14929,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G4" t="s">
+        <v>760</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -14807,16 +14953,22 @@
         <v>301</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>21</v>
+      </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -14824,222 +14976,959 @@
         <v>299</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>12</v>
+      </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>395</v>
+      <c r="A9" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>7</v>
+      </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>380</v>
+      <c r="A10" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="B10" s="6">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6">
-        <v>16</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>530</v>
+      <c r="A11" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B11" s="6">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
-        <v>6</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>31</v>
+      </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="6">
-        <v>9</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>12</v>
+      </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>10</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>11</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="6">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="6">
+        <v>3</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" s="6">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="6">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="6">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" s="6">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B38" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
         <v>1</v>
       </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" s="6">
+        <v>16</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B44" s="6">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B45" s="6">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="6">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="6">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="6">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B14" s="6">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B59" s="6">
+        <v>142</v>
+      </c>
+      <c r="C59" s="6">
+        <v>13</v>
+      </c>
+      <c r="D59" s="6">
+        <v>36</v>
+      </c>
+      <c r="E59" s="6">
+        <v>3</v>
+      </c>
+      <c r="F59" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
-        <v>21</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="6">
+        <v>6</v>
+      </c>
+      <c r="H59" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9" t="s">
         <v>3</v>
       </c>
@@ -15056,16 +15945,16 @@
         <v>657</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="61" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="2:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="3:8" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -15095,8 +15984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15697,7 +16586,7 @@
         <v>657</v>
       </c>
       <c r="E39" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -15868,7 +16757,7 @@
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E48" t="s">
         <v>756</v>
@@ -15891,7 +16780,7 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E49" t="s">
         <v>756</v>
@@ -15914,7 +16803,7 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E50" t="s">
         <v>756</v>
@@ -16057,7 +16946,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -16152,7 +17041,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63" s="12">
         <v>55</v>
       </c>
       <c r="B63" t="s">
@@ -16349,7 +17238,7 @@
         <v>564</v>
       </c>
       <c r="E71" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
@@ -16409,7 +17298,7 @@
         <v>564</v>
       </c>
       <c r="E74" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -16686,9 +17575,6 @@
       <c r="D87" t="s">
         <v>3</v>
       </c>
-      <c r="E87" t="s">
-        <v>758</v>
-      </c>
       <c r="F87" t="s">
         <v>43</v>
       </c>
@@ -16709,9 +17595,6 @@
       <c r="D88" t="s">
         <v>3</v>
       </c>
-      <c r="E88" t="s">
-        <v>759</v>
-      </c>
       <c r="F88" t="s">
         <v>43</v>
       </c>
@@ -16847,10 +17730,7 @@
         <v>220</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
-      </c>
-      <c r="E95" t="s">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -16897,7 +17777,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="A98" s="12">
         <v>90</v>
       </c>
       <c r="B98" t="s">
@@ -16924,7 +17804,7 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E99" t="s">
         <v>581</v>
@@ -17064,9 +17944,6 @@
       <c r="D105" t="s">
         <v>3</v>
       </c>
-      <c r="E105" t="s">
-        <v>576</v>
-      </c>
       <c r="F105" t="s">
         <v>43</v>
       </c>
@@ -17087,9 +17964,6 @@
       <c r="D106" t="s">
         <v>3</v>
       </c>
-      <c r="E106" t="s">
-        <v>576</v>
-      </c>
       <c r="F106" t="s">
         <v>43</v>
       </c>
@@ -17098,7 +17972,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="A107" s="12">
         <v>99</v>
       </c>
       <c r="B107" t="s">
@@ -17128,7 +18002,7 @@
         <v>495</v>
       </c>
       <c r="D108" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
         <v>571</v>
@@ -17187,7 +18061,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>103</v>
       </c>
       <c r="B111" t="s">
@@ -17246,7 +18120,7 @@
         <v>564</v>
       </c>
       <c r="E113" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F113" t="s">
         <v>43</v>
@@ -17762,7 +18636,7 @@
         <v>564</v>
       </c>
       <c r="E137" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -17851,10 +18725,10 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E141" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -18003,7 +18877,7 @@
         <v>564</v>
       </c>
       <c r="E148" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -18026,7 +18900,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F149" t="s">
         <v>43</v>
@@ -18118,7 +18992,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -18187,7 +19061,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -18210,7 +19084,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -18256,7 +19130,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -18322,7 +19196,7 @@
         <v>564</v>
       </c>
       <c r="E162" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -18448,7 +19322,7 @@
         <v>564</v>
       </c>
       <c r="E168" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -18471,7 +19345,7 @@
         <v>564</v>
       </c>
       <c r="E169" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -18485,7 +19359,7 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C170" t="s">
         <v>591</v>
@@ -18502,7 +19376,7 @@
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C171" t="s">
         <v>591</v>
@@ -18519,7 +19393,7 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C172" t="s">
         <v>590</v>
@@ -18536,7 +19410,7 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C173" t="s">
         <v>590</v>
@@ -18545,7 +19419,7 @@
         <v>564</v>
       </c>
       <c r="E173" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -19400,7 +20274,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D107 D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167 D9:D101">
+  <conditionalFormatting sqref="D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167 D9:D101 D107:D109">
     <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
@@ -19484,21 +20358,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
-      <formula>"Pendiente"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
-      <formula>"Por hacer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
-      <formula>"Por ajustar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D114">
+  <conditionalFormatting sqref="D110:D114">
     <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372F3DA-2E13-4FB7-AB10-DDB1BE513881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0102A47-0E07-4D9C-BE53-741C64757DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="770">
   <si>
     <t>id</t>
   </si>
@@ -2314,21 +2314,9 @@
     <t xml:space="preserve">Logo DI </t>
   </si>
   <si>
-    <t>En blanco / autor PE</t>
-  </si>
-  <si>
-    <t>Filtro hortalizas</t>
-  </si>
-  <si>
-    <t>Filtro frutas</t>
-  </si>
-  <si>
     <t>Recalcular?</t>
   </si>
   <si>
-    <t>Links regionales</t>
-  </si>
-  <si>
     <t>Colores</t>
   </si>
   <si>
@@ -2369,6 +2357,12 @@
   </si>
   <si>
     <t>(Todas)</t>
+  </si>
+  <si>
+    <t>link regional</t>
+  </si>
+  <si>
+    <t>Fijar una región</t>
   </si>
 </sst>
 </file>
@@ -2939,42 +2933,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="142">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="138">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6428,7 +6387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -6745,7 +6704,7 @@
     <dataField name="Cuenta de id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="141">
+    <format dxfId="137">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="6" selected="0">
@@ -6759,10 +6718,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="136">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="6">
@@ -6776,10 +6735,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="133">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2" selected="0">
@@ -6789,7 +6748,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="132">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14909,7 +14868,7 @@
         <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -14941,7 +14900,7 @@
         <v>657</v>
       </c>
       <c r="G4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>584</v>
@@ -15852,7 +15811,7 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B56" s="6">
         <v>3</v>
@@ -15945,7 +15904,7 @@
         <v>657</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>584</v>
@@ -15984,8 +15943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16033,6 +15992,9 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>769</v>
+      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -16116,7 +16078,7 @@
         <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
@@ -16136,7 +16098,7 @@
         <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -16190,7 +16152,7 @@
         <v>395</v>
       </c>
       <c r="D18" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -16256,10 +16218,7 @@
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
-      </c>
-      <c r="E21" t="s">
-        <v>753</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -16279,10 +16238,7 @@
         <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>564</v>
-      </c>
-      <c r="E22" t="s">
-        <v>754</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -16302,10 +16258,7 @@
         <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E23" t="s">
-        <v>755</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -16586,7 +16539,7 @@
         <v>657</v>
       </c>
       <c r="E39" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -16757,10 +16710,10 @@
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E48" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
@@ -16780,10 +16733,10 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E49" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
@@ -16803,10 +16756,10 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E50" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
@@ -16903,10 +16856,7 @@
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>564</v>
-      </c>
-      <c r="E55" t="s">
-        <v>757</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -16926,7 +16876,10 @@
         <v>261</v>
       </c>
       <c r="D56" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="E56" t="s">
+        <v>768</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -16946,7 +16899,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -17238,7 +17191,7 @@
         <v>564</v>
       </c>
       <c r="E71" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
@@ -17298,7 +17251,7 @@
         <v>564</v>
       </c>
       <c r="E74" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -17804,7 +17757,7 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E99" t="s">
         <v>581</v>
@@ -18120,7 +18073,7 @@
         <v>564</v>
       </c>
       <c r="E113" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F113" t="s">
         <v>43</v>
@@ -18636,7 +18589,7 @@
         <v>564</v>
       </c>
       <c r="E137" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -18725,10 +18678,10 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E141" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -18877,7 +18830,7 @@
         <v>564</v>
       </c>
       <c r="E148" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -18900,7 +18853,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F149" t="s">
         <v>43</v>
@@ -18992,7 +18945,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -19061,7 +19014,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -19084,7 +19037,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -19130,7 +19083,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -19196,7 +19149,7 @@
         <v>564</v>
       </c>
       <c r="E162" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -19322,7 +19275,7 @@
         <v>564</v>
       </c>
       <c r="E168" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -19345,7 +19298,7 @@
         <v>564</v>
       </c>
       <c r="E169" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -19359,7 +19312,7 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C170" t="s">
         <v>591</v>
@@ -19376,7 +19329,7 @@
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C171" t="s">
         <v>591</v>
@@ -19393,7 +19346,7 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C172" t="s">
         <v>590</v>
@@ -19410,7 +19363,7 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C173" t="s">
         <v>590</v>
@@ -19419,7 +19372,7 @@
         <v>564</v>
       </c>
       <c r="E173" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -20275,86 +20228,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167 D9:D101 D107:D109">
-    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="141" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="143" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="131" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="133" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="129" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="cellIs" dxfId="119" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="115" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
       <formula>"Por hacer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
       <formula>"Por ajustar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0102A47-0E07-4D9C-BE53-741C64757DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C9873-A8D4-4C19-90B9-DF0E9117D8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="774">
   <si>
     <t>id</t>
   </si>
@@ -1822,9 +1822,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>colores</t>
-  </si>
-  <si>
     <t>Telecomunicaciones</t>
   </si>
   <si>
@@ -2314,12 +2311,6 @@
     <t xml:space="preserve">Logo DI </t>
   </si>
   <si>
-    <t>Recalcular?</t>
-  </si>
-  <si>
-    <t>Colores</t>
-  </si>
-  <si>
     <t>ajustar y crear otro</t>
   </si>
   <si>
@@ -2353,9 +2344,6 @@
     <t>Tecnología, Internet y Telecomunicaciones</t>
   </si>
   <si>
-    <t>Link regionañ</t>
-  </si>
-  <si>
     <t>(Todas)</t>
   </si>
   <si>
@@ -2363,13 +2351,37 @@
   </si>
   <si>
     <t>Fijar una región</t>
+  </si>
+  <si>
+    <t>filtro región en N</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Revisando datos</t>
+  </si>
+  <si>
+    <t>Revisando datos y Link regional</t>
+  </si>
+  <si>
+    <t>Link para agencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2504,8 +2516,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2703,6 +2721,30 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2864,7 +2906,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2888,6 +2930,10 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4208,8 +4254,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -4281,13 +4327,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -4358,14 +4404,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -4438,7 +4484,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44412.672722685187" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44415.347210185188" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
@@ -4524,14 +4570,14 @@
     <cacheField name="ESTADO" numFmtId="0">
       <sharedItems containsBlank="1" count="9">
         <s v="Listo"/>
-        <s v="Por ajustar"/>
         <s v="Eliminar"/>
         <s v="Revisar"/>
         <s v="Por hacer"/>
+        <s v="Por ajustar"/>
         <s v="Pendiente"/>
         <m u="1"/>
+        <s v="EVALUAR" u="1"/>
         <s v="DUDA" u="1"/>
-        <s v="EVALUAR" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Observación" numFmtId="0">
@@ -4550,8 +4596,8 @@
         <s v="No asignado"/>
         <s v="Fernanda"/>
         <s v="Silvia"/>
+        <s v="Astrid-Nati" u="1"/>
         <s v="Astrid-Fernanda" u="1"/>
-        <s v="Astrid-Nati" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -4570,7 +4616,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
+    <s v="Fijar una región"/>
     <s v="No"/>
     <x v="0"/>
   </r>
@@ -4614,7 +4660,7 @@
     <n v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Yes"/>
     <x v="1"/>
@@ -4623,7 +4669,7 @@
     <n v="7"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Yes"/>
     <x v="1"/>
@@ -4650,7 +4696,7 @@
     <n v="10"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="No"/>
     <x v="1"/>
@@ -4677,8 +4723,8 @@
     <n v="13"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
-    <s v="En blanco / autor PE"/>
+    <x v="0"/>
+    <m/>
     <s v="No"/>
     <x v="1"/>
   </r>
@@ -4686,8 +4732,8 @@
     <n v="14"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="1"/>
-    <s v="Filtro hortalizas"/>
+    <x v="0"/>
+    <m/>
     <s v="No"/>
     <x v="1"/>
   </r>
@@ -4695,8 +4741,8 @@
     <n v="15"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="1"/>
-    <s v="Filtro frutas"/>
+    <x v="0"/>
+    <m/>
     <s v="No"/>
     <x v="1"/>
   </r>
@@ -4839,7 +4885,7 @@
     <n v="31"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Igual a ID 144"/>
     <s v="No"/>
     <x v="0"/>
@@ -4920,7 +4966,7 @@
     <n v="40"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Recalcular?"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -4929,7 +4975,7 @@
     <n v="41"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Recalcular?"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -4938,7 +4984,7 @@
     <n v="42"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Recalcular?"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -4947,7 +4993,7 @@
     <n v="43"/>
     <x v="11"/>
     <x v="15"/>
-    <x v="4"/>
+    <x v="3"/>
     <m/>
     <s v="No"/>
     <x v="4"/>
@@ -4965,7 +5011,7 @@
     <n v="45"/>
     <x v="4"/>
     <x v="16"/>
-    <x v="4"/>
+    <x v="3"/>
     <m/>
     <s v="No"/>
     <x v="5"/>
@@ -4983,8 +5029,8 @@
     <n v="47"/>
     <x v="7"/>
     <x v="18"/>
-    <x v="1"/>
-    <s v="Links regionales"/>
+    <x v="0"/>
+    <m/>
     <s v="No"/>
     <x v="1"/>
   </r>
@@ -4993,7 +5039,7 @@
     <x v="7"/>
     <x v="18"/>
     <x v="4"/>
-    <m/>
+    <s v="Link regional"/>
     <s v="No"/>
     <x v="1"/>
   </r>
@@ -5001,7 +5047,7 @@
     <n v="49"/>
     <x v="12"/>
     <x v="19"/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <s v="No"/>
     <x v="1"/>
@@ -5064,7 +5110,7 @@
     <n v="56"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5073,7 +5119,7 @@
     <n v="57"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5082,7 +5128,7 @@
     <n v="58"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5091,7 +5137,7 @@
     <n v="59"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5100,7 +5146,7 @@
     <n v="60"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5109,7 +5155,7 @@
     <n v="61"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5127,7 +5173,7 @@
     <n v="63"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Cambiar gráfico"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5154,7 +5200,7 @@
     <n v="66"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regionañ"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5163,7 +5209,7 @@
     <n v="67"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5172,7 +5218,7 @@
     <n v="68"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5181,7 +5227,7 @@
     <n v="69"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link nacional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5190,7 +5236,7 @@
     <n v="70"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5199,7 +5245,7 @@
     <n v="71"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5263,7 +5309,7 @@
     <x v="9"/>
     <x v="10"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <m/>
     <s v="Yes"/>
     <x v="6"/>
   </r>
@@ -5379,7 +5425,7 @@
     <n v="91"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Revisar datos"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5388,7 +5434,7 @@
     <n v="92"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5397,7 +5443,7 @@
     <n v="93"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5406,7 +5452,7 @@
     <n v="94"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5415,7 +5461,7 @@
     <n v="95"/>
     <x v="5"/>
     <x v="26"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5424,7 +5470,7 @@
     <n v="96"/>
     <x v="5"/>
     <x v="26"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -5460,8 +5506,8 @@
     <n v="100"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="No"/>
     <x v="3"/>
   </r>
@@ -5470,7 +5516,7 @@
     <x v="3"/>
     <x v="13"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <m/>
     <s v="No"/>
     <x v="3"/>
   </r>
@@ -5479,7 +5525,7 @@
     <x v="6"/>
     <x v="7"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
   </r>
@@ -5488,7 +5534,7 @@
     <x v="6"/>
     <x v="7"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
   </r>
@@ -5497,7 +5543,7 @@
     <x v="6"/>
     <x v="7"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
   </r>
@@ -5505,8 +5551,8 @@
     <n v="105"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="1"/>
-    <s v="Colores"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
   </r>
@@ -5515,7 +5561,7 @@
     <x v="6"/>
     <x v="7"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
   </r>
@@ -5569,7 +5615,7 @@
     <x v="2"/>
     <x v="12"/>
     <x v="0"/>
-    <s v="Link regional"/>
+    <s v="Título"/>
     <s v="No"/>
     <x v="3"/>
   </r>
@@ -5631,7 +5677,7 @@
     <n v="119"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="No"/>
     <x v="2"/>
@@ -5649,7 +5695,7 @@
     <n v="121"/>
     <x v="3"/>
     <x v="13"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="No"/>
     <x v="3"/>
@@ -5721,7 +5767,7 @@
     <n v="129"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="ajustar y crear otro"/>
     <s v="No"/>
     <x v="6"/>
@@ -5730,7 +5776,7 @@
     <n v="130"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Link regional"/>
     <s v="No"/>
     <x v="6"/>
@@ -5757,7 +5803,7 @@
     <n v="133"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Valores"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -5820,7 +5866,7 @@
     <n v="140"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Cambiar gráfico"/>
     <s v="No"/>
     <x v="6"/>
@@ -5937,7 +5983,7 @@
     <n v="153"/>
     <x v="10"/>
     <x v="11"/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <s v="No"/>
     <x v="2"/>
@@ -5946,7 +5992,7 @@
     <n v="154"/>
     <x v="10"/>
     <x v="11"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Buscar cap. Instalada"/>
     <s v="No"/>
     <x v="2"/>
@@ -5965,7 +6011,7 @@
     <x v="3"/>
     <x v="30"/>
     <x v="0"/>
-    <s v="Colores"/>
+    <s v="colores"/>
     <s v="No"/>
     <x v="3"/>
   </r>
@@ -6000,7 +6046,7 @@
     <n v="160"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Cambiar gráfico"/>
     <s v="No"/>
     <x v="6"/>
@@ -6009,7 +6055,7 @@
     <n v="161"/>
     <x v="9"/>
     <x v="29"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Cambiar gráfico"/>
     <s v="No"/>
     <x v="6"/>
@@ -6045,7 +6091,7 @@
     <n v="165"/>
     <x v="14"/>
     <x v="32"/>
-    <x v="1"/>
+    <x v="4"/>
     <s v="Leyenda"/>
     <s v="No"/>
     <x v="6"/>
@@ -6387,7 +6433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -6470,15 +6516,15 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="10">
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
-        <item m="1" x="8"/>
         <item x="0"/>
         <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item m="1" x="6"/>
         <item x="1"/>
-        <item x="4"/>
-        <item m="1" x="6"/>
         <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6487,8 +6533,8 @@
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
         <item x="4"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="3"/>
         <item x="6"/>
         <item x="2"/>
@@ -6814,12 +6860,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:G210" totalsRowShown="0">
-  <autoFilter ref="A8:G210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:I210" totalsRowShown="0">
+  <autoFilter ref="A8:I210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G169">
     <sortCondition ref="A9:A169"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sector"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Colección"/>
@@ -6827,6 +6873,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observación"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Listo"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="RESPONSABLE"/>
+    <tableColumn id="6" xr3:uid="{2656F34C-CB25-435D-AF90-036602480B17}" name="Columna1"/>
+    <tableColumn id="8" xr3:uid="{7681458B-699D-4371-994B-86C28687FB19}" name="Columna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7131,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13261,22 +13309,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C163" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163" t="s">
+        <v>591</v>
+      </c>
+      <c r="F163" t="s">
         <v>592</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>593</v>
-      </c>
-      <c r="G163" t="s">
-        <v>594</v>
       </c>
       <c r="H163" t="s">
         <v>16</v>
@@ -13288,43 +13336,43 @@
         <v>16</v>
       </c>
       <c r="K163" t="s">
+        <v>594</v>
+      </c>
+      <c r="L163" t="s">
         <v>595</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>596</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>597</v>
       </c>
-      <c r="N163" t="s">
+      <c r="O163" t="s">
         <v>598</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>599</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>600</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>601</v>
       </c>
-      <c r="R163" t="s">
+      <c r="S163" t="s">
         <v>602</v>
-      </c>
-      <c r="S163" t="s">
-        <v>603</v>
       </c>
       <c r="T163" t="s">
         <v>158</v>
       </c>
       <c r="U163" t="s">
+        <v>603</v>
+      </c>
+      <c r="V163" t="s">
         <v>604</v>
       </c>
-      <c r="V163" t="s">
+      <c r="Z163" t="s">
         <v>605</v>
-      </c>
-      <c r="Z163" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.35">
@@ -13332,22 +13380,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C164" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
       <c r="E164" t="s">
+        <v>591</v>
+      </c>
+      <c r="F164" t="s">
         <v>592</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>593</v>
-      </c>
-      <c r="G164" t="s">
-        <v>594</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -13356,46 +13404,46 @@
         <v>17</v>
       </c>
       <c r="J164" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K164">
         <v>2019</v>
       </c>
       <c r="L164" t="s">
+        <v>595</v>
+      </c>
+      <c r="M164" t="s">
         <v>596</v>
       </c>
-      <c r="M164" t="s">
-        <v>597</v>
-      </c>
       <c r="N164" t="s">
+        <v>607</v>
+      </c>
+      <c r="O164" t="s">
         <v>608</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>609</v>
       </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>610</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="R164" t="s">
         <v>611</v>
       </c>
-      <c r="R164" t="s">
-        <v>612</v>
-      </c>
       <c r="S164" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T164" t="s">
         <v>158</v>
       </c>
       <c r="U164" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V164" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z164" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.35">
@@ -13403,22 +13451,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C165" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
       <c r="E165" t="s">
+        <v>613</v>
+      </c>
+      <c r="F165" t="s">
+        <v>592</v>
+      </c>
+      <c r="G165" t="s">
         <v>614</v>
-      </c>
-      <c r="F165" t="s">
-        <v>593</v>
-      </c>
-      <c r="G165" t="s">
-        <v>615</v>
       </c>
       <c r="H165" t="s">
         <v>16</v>
@@ -13430,43 +13478,43 @@
         <v>244</v>
       </c>
       <c r="K165" t="s">
+        <v>594</v>
+      </c>
+      <c r="L165" t="s">
         <v>595</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>596</v>
       </c>
-      <c r="M165" t="s">
-        <v>597</v>
-      </c>
       <c r="N165" t="s">
+        <v>615</v>
+      </c>
+      <c r="O165" t="s">
         <v>616</v>
       </c>
-      <c r="O165" t="s">
+      <c r="P165" t="s">
         <v>617</v>
       </c>
-      <c r="P165" t="s">
+      <c r="Q165" t="s">
         <v>618</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>619</v>
       </c>
-      <c r="R165" t="s">
-        <v>620</v>
-      </c>
       <c r="S165" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T165" t="s">
         <v>158</v>
       </c>
       <c r="U165" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V165" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z165" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.35">
@@ -13474,22 +13522,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
+        <v>613</v>
+      </c>
+      <c r="F166" t="s">
+        <v>592</v>
+      </c>
+      <c r="G166" t="s">
         <v>614</v>
-      </c>
-      <c r="F166" t="s">
-        <v>593</v>
-      </c>
-      <c r="G166" t="s">
-        <v>615</v>
       </c>
       <c r="H166" t="s">
         <v>16</v>
@@ -13504,40 +13552,40 @@
         <v>2019</v>
       </c>
       <c r="L166" t="s">
+        <v>595</v>
+      </c>
+      <c r="M166" t="s">
         <v>596</v>
       </c>
-      <c r="M166" t="s">
-        <v>597</v>
-      </c>
       <c r="N166" t="s">
+        <v>620</v>
+      </c>
+      <c r="O166" t="s">
         <v>621</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q166" t="s">
         <v>622</v>
       </c>
-      <c r="P166" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q166" t="s">
+      <c r="R166" t="s">
         <v>623</v>
       </c>
-      <c r="R166" t="s">
-        <v>624</v>
-      </c>
       <c r="S166" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T166" t="s">
         <v>158</v>
       </c>
       <c r="U166" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V166" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z166" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.35">
@@ -13554,13 +13602,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F167" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H167" t="s">
         <v>16</v>
@@ -13572,43 +13620,43 @@
         <v>16</v>
       </c>
       <c r="K167" t="s">
+        <v>626</v>
+      </c>
+      <c r="L167" t="s">
         <v>627</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>628</v>
       </c>
-      <c r="M167" t="s">
+      <c r="N167" t="s">
         <v>629</v>
       </c>
-      <c r="N167" t="s">
+      <c r="O167" t="s">
         <v>630</v>
       </c>
-      <c r="O167" t="s">
+      <c r="P167" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q167" t="s">
         <v>631</v>
       </c>
-      <c r="P167" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>632</v>
       </c>
-      <c r="R167" t="s">
+      <c r="S167" t="s">
         <v>633</v>
-      </c>
-      <c r="S167" t="s">
-        <v>634</v>
       </c>
       <c r="T167" t="s">
         <v>24</v>
       </c>
       <c r="U167" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V167" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z167" t="s">
         <v>635</v>
-      </c>
-      <c r="Z167" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.35">
@@ -13625,13 +13673,13 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F168" t="s">
         <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
@@ -13643,43 +13691,43 @@
         <v>16</v>
       </c>
       <c r="K168" t="s">
+        <v>626</v>
+      </c>
+      <c r="L168" t="s">
         <v>627</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>628</v>
       </c>
-      <c r="M168" t="s">
-        <v>629</v>
-      </c>
       <c r="N168" t="s">
+        <v>637</v>
+      </c>
+      <c r="O168" t="s">
         <v>638</v>
       </c>
-      <c r="O168" t="s">
+      <c r="P168" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q168" t="s">
         <v>639</v>
       </c>
-      <c r="P168" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q168" t="s">
+      <c r="R168" t="s">
         <v>640</v>
       </c>
-      <c r="R168" t="s">
-        <v>641</v>
-      </c>
       <c r="S168" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T168" t="s">
         <v>24</v>
       </c>
       <c r="U168" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V168" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z168" t="s">
         <v>635</v>
-      </c>
-      <c r="Z168" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.35">
@@ -13696,13 +13744,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F169" t="s">
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H169" t="s">
         <v>16</v>
@@ -13714,40 +13762,40 @@
         <v>16</v>
       </c>
       <c r="K169" t="s">
+        <v>626</v>
+      </c>
+      <c r="L169" t="s">
         <v>627</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>628</v>
       </c>
-      <c r="M169" t="s">
-        <v>629</v>
-      </c>
       <c r="N169" t="s">
+        <v>642</v>
+      </c>
+      <c r="O169" t="s">
         <v>643</v>
       </c>
-      <c r="O169" t="s">
+      <c r="P169" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q169" t="s">
         <v>644</v>
       </c>
-      <c r="P169" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q169" t="s">
+      <c r="R169" t="s">
         <v>645</v>
       </c>
-      <c r="R169" t="s">
-        <v>646</v>
-      </c>
       <c r="S169" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T169" t="s">
         <v>24</v>
       </c>
       <c r="U169" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Z169" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.35">
@@ -13764,13 +13812,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F170" t="s">
         <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H170" t="s">
         <v>16</v>
@@ -13782,40 +13830,40 @@
         <v>16</v>
       </c>
       <c r="K170" t="s">
+        <v>626</v>
+      </c>
+      <c r="L170" t="s">
         <v>627</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>628</v>
       </c>
-      <c r="M170" t="s">
-        <v>629</v>
-      </c>
       <c r="N170" t="s">
+        <v>647</v>
+      </c>
+      <c r="O170" t="s">
         <v>648</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q170" t="s">
         <v>649</v>
       </c>
-      <c r="P170" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q170" t="s">
+      <c r="R170" t="s">
         <v>650</v>
       </c>
-      <c r="R170" t="s">
-        <v>651</v>
-      </c>
       <c r="S170" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T170" t="s">
         <v>24</v>
       </c>
       <c r="U170" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Z170" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.35">
@@ -13832,13 +13880,13 @@
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F171" t="s">
         <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H171" t="s">
         <v>16</v>
@@ -13850,40 +13898,40 @@
         <v>16</v>
       </c>
       <c r="K171" t="s">
+        <v>626</v>
+      </c>
+      <c r="L171" t="s">
         <v>627</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>628</v>
       </c>
-      <c r="M171" t="s">
-        <v>629</v>
-      </c>
       <c r="N171" t="s">
+        <v>652</v>
+      </c>
+      <c r="O171" t="s">
         <v>653</v>
       </c>
-      <c r="O171" t="s">
+      <c r="P171" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q171" t="s">
         <v>654</v>
       </c>
-      <c r="P171" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q171" t="s">
+      <c r="R171" t="s">
         <v>655</v>
       </c>
-      <c r="R171" t="s">
-        <v>656</v>
-      </c>
       <c r="S171" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T171" t="s">
         <v>24</v>
       </c>
       <c r="U171" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Z171" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.35">
@@ -13891,10 +13939,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C172" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -13903,16 +13951,16 @@
         <v>258</v>
       </c>
       <c r="K172" t="s">
+        <v>658</v>
+      </c>
+      <c r="M172" t="s">
         <v>659</v>
       </c>
-      <c r="M172" t="s">
+      <c r="N172" t="s">
         <v>660</v>
       </c>
-      <c r="N172" t="s">
+      <c r="R172" t="s">
         <v>661</v>
-      </c>
-      <c r="R172" t="s">
-        <v>662</v>
       </c>
       <c r="T172" t="s">
         <v>110</v>
@@ -13923,10 +13971,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C173" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -13935,16 +13983,16 @@
         <v>258</v>
       </c>
       <c r="K173" t="s">
+        <v>658</v>
+      </c>
+      <c r="M173" t="s">
         <v>659</v>
       </c>
-      <c r="M173" t="s">
-        <v>660</v>
-      </c>
       <c r="N173" t="s">
+        <v>662</v>
+      </c>
+      <c r="R173" t="s">
         <v>663</v>
-      </c>
-      <c r="R173" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.35">
@@ -13952,25 +14000,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" t="s">
+        <v>657</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
         <v>658</v>
       </c>
-      <c r="C174" t="s">
-        <v>658</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="K174" t="s">
+      <c r="M174" t="s">
         <v>659</v>
       </c>
-      <c r="M174" t="s">
-        <v>660</v>
-      </c>
       <c r="N174" t="s">
+        <v>664</v>
+      </c>
+      <c r="R174" t="s">
         <v>665</v>
-      </c>
-      <c r="R174" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.35">
@@ -13987,16 +14035,16 @@
         <v>14</v>
       </c>
       <c r="K175" t="s">
+        <v>666</v>
+      </c>
+      <c r="M175" t="s">
+        <v>628</v>
+      </c>
+      <c r="N175" t="s">
         <v>667</v>
       </c>
-      <c r="M175" t="s">
-        <v>629</v>
-      </c>
-      <c r="N175" t="s">
+      <c r="R175" t="s">
         <v>668</v>
-      </c>
-      <c r="R175" t="s">
-        <v>669</v>
       </c>
       <c r="T175" t="s">
         <v>110</v>
@@ -14016,13 +14064,13 @@
         <v>14</v>
       </c>
       <c r="K176" t="s">
+        <v>669</v>
+      </c>
+      <c r="N176" t="s">
         <v>670</v>
       </c>
-      <c r="N176" t="s">
+      <c r="R176" t="s">
         <v>671</v>
-      </c>
-      <c r="R176" t="s">
-        <v>672</v>
       </c>
       <c r="T176" t="s">
         <v>110</v>
@@ -14045,19 +14093,19 @@
         <v>189</v>
       </c>
       <c r="G177" t="s">
+        <v>672</v>
+      </c>
+      <c r="K177" t="s">
+        <v>669</v>
+      </c>
+      <c r="M177" t="s">
+        <v>628</v>
+      </c>
+      <c r="N177" t="s">
         <v>673</v>
       </c>
-      <c r="K177" t="s">
-        <v>670</v>
-      </c>
-      <c r="M177" t="s">
-        <v>629</v>
-      </c>
-      <c r="N177" t="s">
+      <c r="R177" t="s">
         <v>674</v>
-      </c>
-      <c r="R177" t="s">
-        <v>675</v>
       </c>
       <c r="T177" t="s">
         <v>110</v>
@@ -14077,19 +14125,19 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K178" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M178" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N178" t="s">
+        <v>675</v>
+      </c>
+      <c r="R178" t="s">
         <v>676</v>
-      </c>
-      <c r="R178" t="s">
-        <v>677</v>
       </c>
       <c r="T178" t="s">
         <v>110</v>
@@ -14100,10 +14148,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C179" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -14112,19 +14160,19 @@
         <v>189</v>
       </c>
       <c r="G179" t="s">
+        <v>678</v>
+      </c>
+      <c r="K179" t="s">
+        <v>669</v>
+      </c>
+      <c r="M179" t="s">
+        <v>628</v>
+      </c>
+      <c r="N179" t="s">
         <v>679</v>
       </c>
-      <c r="K179" t="s">
-        <v>670</v>
-      </c>
-      <c r="M179" t="s">
-        <v>629</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="R179" t="s">
         <v>680</v>
-      </c>
-      <c r="R179" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.35">
@@ -14132,10 +14180,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C180" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -14144,22 +14192,22 @@
         <v>189</v>
       </c>
       <c r="K180" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M180" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N180" t="s">
+        <v>681</v>
+      </c>
+      <c r="R180" t="s">
         <v>682</v>
-      </c>
-      <c r="R180" t="s">
-        <v>683</v>
       </c>
       <c r="T180" t="s">
         <v>110</v>
       </c>
       <c r="Z180" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.35">
@@ -14170,25 +14218,25 @@
         <v>357</v>
       </c>
       <c r="C181" t="s">
+        <v>684</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
         <v>685</v>
       </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="K181" t="s">
+        <v>669</v>
+      </c>
+      <c r="M181" t="s">
         <v>686</v>
       </c>
-      <c r="K181" t="s">
-        <v>670</v>
-      </c>
-      <c r="M181" t="s">
+      <c r="N181" t="s">
         <v>687</v>
       </c>
-      <c r="N181" t="s">
+      <c r="R181" t="s">
         <v>688</v>
-      </c>
-      <c r="R181" t="s">
-        <v>689</v>
       </c>
       <c r="T181" t="s">
         <v>110</v>
@@ -14202,28 +14250,28 @@
         <v>357</v>
       </c>
       <c r="C182" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="K182" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M182" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N182" t="s">
+        <v>689</v>
+      </c>
+      <c r="R182" t="s">
         <v>690</v>
-      </c>
-      <c r="R182" t="s">
-        <v>691</v>
       </c>
       <c r="T182" t="s">
         <v>110</v>
       </c>
       <c r="Z182" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.35">
@@ -14234,31 +14282,31 @@
         <v>357</v>
       </c>
       <c r="C183" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="G183" t="s">
+        <v>691</v>
+      </c>
+      <c r="K183" t="s">
+        <v>669</v>
+      </c>
+      <c r="M183" t="s">
+        <v>686</v>
+      </c>
+      <c r="N183" t="s">
         <v>692</v>
       </c>
-      <c r="K183" t="s">
-        <v>670</v>
-      </c>
-      <c r="M183" t="s">
-        <v>687</v>
-      </c>
-      <c r="N183" t="s">
+      <c r="R183" t="s">
         <v>693</v>
-      </c>
-      <c r="R183" t="s">
-        <v>694</v>
       </c>
       <c r="T183" t="s">
         <v>110</v>
       </c>
       <c r="Z183" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.35">
@@ -14266,34 +14314,34 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>694</v>
+      </c>
+      <c r="C184" t="s">
+        <v>694</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
         <v>695</v>
-      </c>
-      <c r="C184" t="s">
-        <v>695</v>
-      </c>
-      <c r="D184" t="s">
-        <v>14</v>
-      </c>
-      <c r="E184" t="s">
-        <v>696</v>
       </c>
       <c r="F184" t="s">
         <v>189</v>
       </c>
       <c r="G184" t="s">
+        <v>696</v>
+      </c>
+      <c r="K184" t="s">
+        <v>669</v>
+      </c>
+      <c r="M184" t="s">
+        <v>628</v>
+      </c>
+      <c r="N184" t="s">
         <v>697</v>
       </c>
-      <c r="K184" t="s">
-        <v>670</v>
-      </c>
-      <c r="M184" t="s">
-        <v>629</v>
-      </c>
-      <c r="N184" t="s">
+      <c r="R184" t="s">
         <v>698</v>
-      </c>
-      <c r="R184" t="s">
-        <v>699</v>
       </c>
       <c r="T184" t="s">
         <v>110</v>
@@ -14304,10 +14352,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C185" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -14316,22 +14364,22 @@
         <v>189</v>
       </c>
       <c r="K185" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M185" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N185" t="s">
+        <v>699</v>
+      </c>
+      <c r="R185" t="s">
         <v>700</v>
-      </c>
-      <c r="R185" t="s">
-        <v>701</v>
       </c>
       <c r="T185" t="s">
         <v>110</v>
       </c>
       <c r="Z185" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.35">
@@ -14339,28 +14387,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>694</v>
+      </c>
+      <c r="C186" t="s">
+        <v>694</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
         <v>695</v>
       </c>
-      <c r="C186" t="s">
-        <v>695</v>
-      </c>
-      <c r="D186" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="G186" t="s">
         <v>696</v>
       </c>
-      <c r="G186" t="s">
-        <v>697</v>
-      </c>
       <c r="M186" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N186" t="s">
+        <v>701</v>
+      </c>
+      <c r="R186" t="s">
         <v>702</v>
-      </c>
-      <c r="R186" t="s">
-        <v>703</v>
       </c>
       <c r="T186" t="s">
         <v>110</v>
@@ -14371,40 +14419,40 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>694</v>
+      </c>
+      <c r="C187" t="s">
+        <v>694</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
         <v>695</v>
-      </c>
-      <c r="C187" t="s">
-        <v>695</v>
-      </c>
-      <c r="D187" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" t="s">
-        <v>696</v>
       </c>
       <c r="F187" t="s">
         <v>189</v>
       </c>
       <c r="G187" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M187" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N187" t="s">
+        <v>703</v>
+      </c>
+      <c r="R187" t="s">
         <v>704</v>
-      </c>
-      <c r="R187" t="s">
-        <v>705</v>
       </c>
       <c r="T187" t="s">
         <v>110</v>
       </c>
       <c r="Z187" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.35">
@@ -14412,37 +14460,37 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>694</v>
+      </c>
+      <c r="C188" t="s">
+        <v>694</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
         <v>695</v>
       </c>
-      <c r="C188" t="s">
-        <v>695</v>
-      </c>
-      <c r="D188" t="s">
-        <v>14</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="G188" t="s">
         <v>696</v>
       </c>
-      <c r="G188" t="s">
-        <v>697</v>
-      </c>
       <c r="K188" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M188" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N188" t="s">
+        <v>705</v>
+      </c>
+      <c r="R188" t="s">
         <v>706</v>
-      </c>
-      <c r="R188" t="s">
-        <v>707</v>
       </c>
       <c r="T188" t="s">
         <v>110</v>
       </c>
       <c r="Z188" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.35">
@@ -14459,25 +14507,25 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
+        <v>707</v>
+      </c>
+      <c r="G189" t="s">
         <v>708</v>
       </c>
-      <c r="G189" t="s">
+      <c r="K189" t="s">
+        <v>669</v>
+      </c>
+      <c r="M189" t="s">
         <v>709</v>
       </c>
-      <c r="K189" t="s">
-        <v>670</v>
-      </c>
-      <c r="M189" t="s">
+      <c r="N189" t="s">
         <v>710</v>
       </c>
-      <c r="N189" t="s">
+      <c r="R189" t="s">
         <v>711</v>
       </c>
-      <c r="R189" t="s">
-        <v>712</v>
-      </c>
       <c r="Z189" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.35">
@@ -14494,25 +14542,25 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
+        <v>712</v>
+      </c>
+      <c r="G190" t="s">
         <v>713</v>
       </c>
-      <c r="G190" t="s">
+      <c r="K190" t="s">
+        <v>669</v>
+      </c>
+      <c r="M190" t="s">
+        <v>709</v>
+      </c>
+      <c r="N190" t="s">
         <v>714</v>
       </c>
-      <c r="K190" t="s">
-        <v>670</v>
-      </c>
-      <c r="M190" t="s">
-        <v>710</v>
-      </c>
-      <c r="N190" t="s">
+      <c r="R190" t="s">
         <v>715</v>
       </c>
-      <c r="R190" t="s">
-        <v>716</v>
-      </c>
       <c r="Z190" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.35">
@@ -14529,25 +14577,25 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
+        <v>716</v>
+      </c>
+      <c r="G191" t="s">
         <v>717</v>
       </c>
-      <c r="G191" t="s">
+      <c r="K191" t="s">
+        <v>669</v>
+      </c>
+      <c r="M191" t="s">
+        <v>709</v>
+      </c>
+      <c r="N191" t="s">
         <v>718</v>
       </c>
-      <c r="K191" t="s">
-        <v>670</v>
-      </c>
-      <c r="M191" t="s">
-        <v>710</v>
-      </c>
-      <c r="N191" t="s">
+      <c r="R191" t="s">
         <v>719</v>
       </c>
-      <c r="R191" t="s">
-        <v>720</v>
-      </c>
       <c r="Z191" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.35">
@@ -14564,25 +14612,25 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
+        <v>720</v>
+      </c>
+      <c r="G192" t="s">
         <v>721</v>
       </c>
-      <c r="G192" t="s">
+      <c r="K192" t="s">
+        <v>669</v>
+      </c>
+      <c r="M192" t="s">
+        <v>628</v>
+      </c>
+      <c r="N192" t="s">
         <v>722</v>
       </c>
-      <c r="K192" t="s">
-        <v>670</v>
-      </c>
-      <c r="M192" t="s">
-        <v>629</v>
-      </c>
-      <c r="N192" t="s">
+      <c r="R192" t="s">
         <v>723</v>
       </c>
-      <c r="R192" t="s">
-        <v>724</v>
-      </c>
       <c r="Z192" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.35">
@@ -14599,25 +14647,25 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
+        <v>724</v>
+      </c>
+      <c r="G193" t="s">
         <v>725</v>
       </c>
-      <c r="G193" t="s">
+      <c r="K193" t="s">
+        <v>669</v>
+      </c>
+      <c r="M193" t="s">
+        <v>628</v>
+      </c>
+      <c r="N193" t="s">
         <v>726</v>
       </c>
-      <c r="K193" t="s">
-        <v>670</v>
-      </c>
-      <c r="M193" t="s">
-        <v>629</v>
-      </c>
-      <c r="N193" t="s">
+      <c r="R193" t="s">
         <v>727</v>
       </c>
-      <c r="R193" t="s">
-        <v>728</v>
-      </c>
       <c r="Z193" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.35">
@@ -14634,25 +14682,25 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
+        <v>728</v>
+      </c>
+      <c r="G194" t="s">
         <v>729</v>
       </c>
-      <c r="G194" t="s">
+      <c r="K194" t="s">
+        <v>669</v>
+      </c>
+      <c r="M194" t="s">
+        <v>628</v>
+      </c>
+      <c r="N194" t="s">
         <v>730</v>
       </c>
-      <c r="K194" t="s">
-        <v>670</v>
-      </c>
-      <c r="M194" t="s">
-        <v>629</v>
-      </c>
-      <c r="N194" t="s">
+      <c r="R194" t="s">
         <v>731</v>
       </c>
-      <c r="R194" t="s">
-        <v>732</v>
-      </c>
       <c r="Z194" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.35">
@@ -14669,19 +14717,19 @@
         <v>14</v>
       </c>
       <c r="K195" t="s">
+        <v>732</v>
+      </c>
+      <c r="M195" t="s">
         <v>733</v>
       </c>
-      <c r="M195" t="s">
+      <c r="N195" t="s">
         <v>734</v>
       </c>
-      <c r="N195" t="s">
+      <c r="R195" t="s">
         <v>735</v>
       </c>
-      <c r="R195" t="s">
+      <c r="Z195" t="s">
         <v>736</v>
-      </c>
-      <c r="Z195" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.35">
@@ -14698,19 +14746,19 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
+        <v>732</v>
+      </c>
+      <c r="M196" t="s">
         <v>733</v>
       </c>
-      <c r="M196" t="s">
-        <v>734</v>
-      </c>
       <c r="N196" t="s">
+        <v>737</v>
+      </c>
+      <c r="R196" t="s">
         <v>738</v>
       </c>
-      <c r="R196" t="s">
-        <v>739</v>
-      </c>
       <c r="Z196" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.35">
@@ -14727,19 +14775,19 @@
         <v>14</v>
       </c>
       <c r="K197" t="s">
+        <v>732</v>
+      </c>
+      <c r="M197" t="s">
         <v>733</v>
       </c>
-      <c r="M197" t="s">
-        <v>734</v>
-      </c>
       <c r="N197" t="s">
+        <v>739</v>
+      </c>
+      <c r="R197" t="s">
         <v>740</v>
       </c>
-      <c r="R197" t="s">
-        <v>741</v>
-      </c>
       <c r="Z197" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.35">
@@ -14747,25 +14795,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>741</v>
+      </c>
+      <c r="C198" t="s">
+        <v>741</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s">
+        <v>626</v>
+      </c>
+      <c r="M198" t="s">
         <v>742</v>
       </c>
-      <c r="C198" t="s">
-        <v>742</v>
-      </c>
-      <c r="D198" t="s">
-        <v>14</v>
-      </c>
-      <c r="K198" t="s">
-        <v>627</v>
-      </c>
-      <c r="M198" t="s">
+      <c r="N198" t="s">
         <v>743</v>
       </c>
-      <c r="N198" t="s">
+      <c r="R198" t="s">
         <v>744</v>
-      </c>
-      <c r="R198" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.35">
@@ -14773,25 +14821,25 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>741</v>
+      </c>
+      <c r="C199" t="s">
+        <v>741</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="K199" t="s">
+        <v>745</v>
+      </c>
+      <c r="M199" t="s">
         <v>742</v>
       </c>
-      <c r="C199" t="s">
-        <v>742</v>
-      </c>
-      <c r="D199" t="s">
-        <v>14</v>
-      </c>
-      <c r="K199" t="s">
+      <c r="N199" t="s">
         <v>746</v>
       </c>
-      <c r="M199" t="s">
-        <v>743</v>
-      </c>
-      <c r="N199" t="s">
+      <c r="R199" t="s">
         <v>747</v>
-      </c>
-      <c r="R199" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.35">
@@ -14799,25 +14847,25 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>741</v>
+      </c>
+      <c r="C200" t="s">
+        <v>741</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="K200" t="s">
+        <v>626</v>
+      </c>
+      <c r="M200" t="s">
         <v>742</v>
       </c>
-      <c r="C200" t="s">
-        <v>742</v>
-      </c>
-      <c r="D200" t="s">
-        <v>14</v>
-      </c>
-      <c r="K200" t="s">
-        <v>627</v>
-      </c>
-      <c r="M200" t="s">
-        <v>743</v>
-      </c>
       <c r="N200" t="s">
+        <v>748</v>
+      </c>
+      <c r="R200" t="s">
         <v>749</v>
-      </c>
-      <c r="R200" t="s">
-        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -14829,20 +14877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F7331-8E89-4662-A8A5-46AD4C836D77}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
@@ -14868,7 +14917,7 @@
         <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -14897,10 +14946,10 @@
         <v>565</v>
       </c>
       <c r="F4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>584</v>
@@ -14912,11 +14961,11 @@
         <v>301</v>
       </c>
       <c r="B5" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -14935,12 +14984,10 @@
         <v>299</v>
       </c>
       <c r="B6" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
@@ -14953,10 +15000,12 @@
       <c r="A7" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="11"/>
@@ -14992,12 +15041,10 @@
         <v>278</v>
       </c>
       <c r="B9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="11"/>
       <c r="G9" s="6"/>
@@ -15011,12 +15058,10 @@
         <v>276</v>
       </c>
       <c r="B10" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="11"/>
       <c r="G10" s="6"/>
@@ -15099,7 +15144,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B15" s="6">
         <v>5</v>
@@ -15119,11 +15164,11 @@
         <v>443</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="11"/>
@@ -15154,12 +15199,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="11"/>
       <c r="G18" s="6"/>
@@ -15338,11 +15381,11 @@
         <v>383</v>
       </c>
       <c r="B28" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="11">
@@ -15374,11 +15417,11 @@
         <v>395</v>
       </c>
       <c r="B30" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="11">
@@ -15444,11 +15487,11 @@
         <v>380</v>
       </c>
       <c r="B34" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="11"/>
@@ -15478,11 +15521,11 @@
         <v>495</v>
       </c>
       <c r="B36" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="11"/>
@@ -15495,10 +15538,12 @@
       <c r="A37" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="11"/>
@@ -15528,7 +15573,7 @@
         <v>258</v>
       </c>
       <c r="B39" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -15536,9 +15581,7 @@
       <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="11"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
@@ -15565,14 +15608,14 @@
       <c r="A41" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="11"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
@@ -15615,7 +15658,7 @@
     </row>
     <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B44" s="6">
         <v>3</v>
@@ -15663,7 +15706,7 @@
     </row>
     <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
@@ -15779,7 +15822,7 @@
     </row>
     <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B54" s="6">
         <v>2</v>
@@ -15795,7 +15838,7 @@
     </row>
     <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
@@ -15811,7 +15854,7 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B56" s="6">
         <v>3</v>
@@ -15829,7 +15872,7 @@
     </row>
     <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B57" s="6">
         <v>2</v>
@@ -15845,7 +15888,7 @@
     </row>
     <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
@@ -15866,16 +15909,16 @@
         <v>584</v>
       </c>
       <c r="B59" s="6">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C59" s="6">
         <v>13</v>
       </c>
       <c r="D59" s="6">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="11">
         <v>2</v>
@@ -15901,10 +15944,10 @@
         <v>565</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>584</v>
@@ -15941,10 +15984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A8:G210"/>
+  <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15952,11 +15995,11 @@
     <col min="2" max="2" width="15.90625" customWidth="1"/>
     <col min="3" max="3" width="27.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -15978,8 +16021,14 @@
       <c r="G8" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15992,14 +16041,14 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>769</v>
+      <c r="E9" s="8" t="s">
+        <v>765</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -16016,7 +16065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16033,7 +16082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16050,7 +16099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -16067,7 +16116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -16087,7 +16136,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -16107,7 +16156,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -16174,8 +16223,8 @@
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>752</v>
+      <c r="E19" s="8" t="s">
+        <v>751</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -16197,8 +16246,8 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>752</v>
+      <c r="E20" s="8" t="s">
+        <v>751</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -16536,10 +16585,10 @@
         <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E39" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -16595,9 +16644,6 @@
       <c r="D42" t="s">
         <v>3</v>
       </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
@@ -16689,8 +16735,8 @@
       <c r="D47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" t="s">
-        <v>571</v>
+      <c r="E47" s="8" t="s">
+        <v>766</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -16710,16 +16756,16 @@
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>756</v>
-      </c>
-      <c r="E48" t="s">
-        <v>753</v>
+        <v>564</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>772</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>568</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -16733,16 +16779,16 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>756</v>
-      </c>
-      <c r="E49" t="s">
-        <v>753</v>
+        <v>3</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>771</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>568</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -16756,16 +16802,16 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>756</v>
-      </c>
-      <c r="E50" t="s">
-        <v>753</v>
+        <v>3</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>771</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>568</v>
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -16879,7 +16925,7 @@
         <v>564</v>
       </c>
       <c r="E56" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -16899,7 +16945,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -17006,9 +17052,6 @@
       <c r="D63" t="s">
         <v>3</v>
       </c>
-      <c r="E63" t="s">
-        <v>571</v>
-      </c>
       <c r="F63" t="s">
         <v>43</v>
       </c>
@@ -17167,9 +17210,6 @@
       <c r="D70" t="s">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
       <c r="F70" t="s">
         <v>43</v>
       </c>
@@ -17188,10 +17228,10 @@
         <v>395</v>
       </c>
       <c r="D71" t="s">
-        <v>564</v>
-      </c>
-      <c r="E71" t="s">
-        <v>758</v>
+        <v>3</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
@@ -17230,11 +17270,14 @@
       <c r="D73" t="s">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="8" t="s">
         <v>572</v>
       </c>
       <c r="F73" t="s">
         <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -17250,8 +17293,8 @@
       <c r="D74" t="s">
         <v>564</v>
       </c>
-      <c r="E74" t="s">
-        <v>766</v>
+      <c r="E74" s="8" t="s">
+        <v>773</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -17505,9 +17548,6 @@
       <c r="D86" t="s">
         <v>3</v>
       </c>
-      <c r="E86" t="s">
-        <v>571</v>
-      </c>
       <c r="F86" t="s">
         <v>43</v>
       </c>
@@ -17757,7 +17797,7 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E99" t="s">
         <v>581</v>
@@ -17957,9 +17997,6 @@
       <c r="D108" t="s">
         <v>3</v>
       </c>
-      <c r="E108" t="s">
-        <v>571</v>
-      </c>
       <c r="F108" t="s">
         <v>14</v>
       </c>
@@ -17980,9 +18017,6 @@
       <c r="D109" t="s">
         <v>3</v>
       </c>
-      <c r="E109" t="s">
-        <v>571</v>
-      </c>
       <c r="F109" t="s">
         <v>14</v>
       </c>
@@ -18003,9 +18037,6 @@
       <c r="D110" t="s">
         <v>3</v>
       </c>
-      <c r="E110" t="s">
-        <v>571</v>
-      </c>
       <c r="F110" t="s">
         <v>43</v>
       </c>
@@ -18026,9 +18057,6 @@
       <c r="D111" t="s">
         <v>3</v>
       </c>
-      <c r="E111" t="s">
-        <v>571</v>
-      </c>
       <c r="F111" t="s">
         <v>43</v>
       </c>
@@ -18049,9 +18077,6 @@
       <c r="D112" t="s">
         <v>3</v>
       </c>
-      <c r="E112" t="s">
-        <v>571</v>
-      </c>
       <c r="F112" t="s">
         <v>43</v>
       </c>
@@ -18059,7 +18084,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>105</v>
       </c>
@@ -18070,10 +18095,7 @@
         <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>564</v>
-      </c>
-      <c r="E113" t="s">
-        <v>754</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
         <v>43</v>
@@ -18082,7 +18104,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>106</v>
       </c>
@@ -18095,9 +18117,6 @@
       <c r="D114" t="s">
         <v>3</v>
       </c>
-      <c r="E114" t="s">
-        <v>571</v>
-      </c>
       <c r="F114" t="s">
         <v>43</v>
       </c>
@@ -18105,7 +18124,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>107</v>
       </c>
@@ -18125,7 +18144,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>108</v>
       </c>
@@ -18145,7 +18164,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>109</v>
       </c>
@@ -18165,7 +18184,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>110</v>
       </c>
@@ -18185,7 +18204,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>111</v>
       </c>
@@ -18205,7 +18224,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>112</v>
       </c>
@@ -18219,7 +18238,7 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -18228,7 +18247,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>113</v>
       </c>
@@ -18251,7 +18270,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>114</v>
       </c>
@@ -18271,7 +18290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>115</v>
       </c>
@@ -18291,7 +18310,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>116</v>
       </c>
@@ -18311,8 +18330,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="13">
         <v>117</v>
       </c>
       <c r="B125" t="s">
@@ -18333,9 +18352,12 @@
       <c r="G125" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="I125" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="13">
         <v>118</v>
       </c>
       <c r="B126" t="s">
@@ -18357,8 +18379,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="13">
         <v>119</v>
       </c>
       <c r="B127" t="s">
@@ -18368,7 +18390,7 @@
         <v>122</v>
       </c>
       <c r="D127" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E127" t="s">
         <v>571</v>
@@ -18380,8 +18402,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="13">
         <v>120</v>
       </c>
       <c r="B128" t="s">
@@ -18397,8 +18419,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="13">
         <v>121</v>
       </c>
       <c r="B129" t="s">
@@ -18420,8 +18442,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="13">
         <v>122</v>
       </c>
       <c r="B130" t="s">
@@ -18443,8 +18465,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="13">
         <v>123</v>
       </c>
       <c r="B131" t="s">
@@ -18466,8 +18488,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="13">
         <v>124</v>
       </c>
       <c r="B132" t="s">
@@ -18489,8 +18511,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="13">
         <v>125</v>
       </c>
       <c r="B133" t="s">
@@ -18512,8 +18534,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="16">
         <v>126</v>
       </c>
       <c r="B134" t="s">
@@ -18528,9 +18550,12 @@
       <c r="F134" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="I134" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="16">
         <v>127</v>
       </c>
       <c r="B135" t="s">
@@ -18552,8 +18577,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="16">
         <v>128</v>
       </c>
       <c r="B136" t="s">
@@ -18575,8 +18600,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="16">
         <v>129</v>
       </c>
       <c r="B137" t="s">
@@ -18589,7 +18614,7 @@
         <v>564</v>
       </c>
       <c r="E137" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -18598,8 +18623,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="16">
         <v>130</v>
       </c>
       <c r="B138" t="s">
@@ -18621,8 +18646,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="16">
         <v>131</v>
       </c>
       <c r="B139" t="s">
@@ -18644,8 +18669,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="16">
         <v>132</v>
       </c>
       <c r="B140" t="s">
@@ -18667,8 +18692,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="16">
         <v>133</v>
       </c>
       <c r="B141" t="s">
@@ -18678,10 +18703,10 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E141" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -18690,8 +18715,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="14">
         <v>134</v>
       </c>
       <c r="B142" t="s">
@@ -18712,9 +18737,12 @@
       <c r="G142" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143">
+      <c r="I142" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="14">
         <v>135</v>
       </c>
       <c r="B143" t="s">
@@ -18736,8 +18764,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="14">
         <v>136</v>
       </c>
       <c r="B144" t="s">
@@ -18753,8 +18781,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="14">
         <v>137</v>
       </c>
       <c r="B145" t="s">
@@ -18770,8 +18798,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="14">
         <v>138</v>
       </c>
       <c r="B146" t="s">
@@ -18793,8 +18821,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="14">
         <v>139</v>
       </c>
       <c r="B147" t="s">
@@ -18816,8 +18844,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="14">
         <v>140</v>
       </c>
       <c r="B148" t="s">
@@ -18827,10 +18855,10 @@
         <v>186</v>
       </c>
       <c r="D148" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -18839,8 +18867,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="15">
         <v>141</v>
       </c>
       <c r="B149" t="s">
@@ -18853,7 +18881,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F149" t="s">
         <v>43</v>
@@ -18861,9 +18889,12 @@
       <c r="G149" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="I149" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="15">
         <v>142</v>
       </c>
       <c r="B150" t="s">
@@ -18885,8 +18916,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="15">
         <v>143</v>
       </c>
       <c r="B151" t="s">
@@ -18908,8 +18939,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="15">
         <v>144</v>
       </c>
       <c r="B152" t="s">
@@ -18931,8 +18962,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="15">
         <v>145</v>
       </c>
       <c r="B153" t="s">
@@ -18945,7 +18976,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -18954,8 +18985,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="15">
         <v>146</v>
       </c>
       <c r="B154" t="s">
@@ -18977,8 +19008,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="15">
         <v>147</v>
       </c>
       <c r="B155" t="s">
@@ -19000,8 +19031,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="15">
         <v>148</v>
       </c>
       <c r="B156" t="s">
@@ -19014,7 +19045,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -19023,8 +19054,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="15">
         <v>149</v>
       </c>
       <c r="B157" t="s">
@@ -19037,7 +19068,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -19046,8 +19077,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="15">
         <v>150</v>
       </c>
       <c r="B158" t="s">
@@ -19069,8 +19100,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="15">
         <v>151</v>
       </c>
       <c r="B159" t="s">
@@ -19083,7 +19114,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -19092,8 +19123,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="15">
         <v>152</v>
       </c>
       <c r="B160" t="s">
@@ -19115,8 +19146,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="15">
         <v>153</v>
       </c>
       <c r="B161" t="s">
@@ -19126,7 +19157,7 @@
         <v>13</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>657</v>
+        <v>3</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -19135,8 +19166,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="15">
         <v>154</v>
       </c>
       <c r="B162" t="s">
@@ -19149,7 +19180,7 @@
         <v>564</v>
       </c>
       <c r="E162" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -19158,8 +19189,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="15">
         <v>155</v>
       </c>
       <c r="B163" t="s">
@@ -19181,8 +19212,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="15">
         <v>156</v>
       </c>
       <c r="B164" t="s">
@@ -19194,9 +19225,6 @@
       <c r="D164" t="s">
         <v>3</v>
       </c>
-      <c r="E164" t="s">
-        <v>589</v>
-      </c>
       <c r="F164" t="s">
         <v>14</v>
       </c>
@@ -19204,8 +19232,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="15">
         <v>157</v>
       </c>
       <c r="B165" t="s">
@@ -19221,8 +19249,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="15">
         <v>158</v>
       </c>
       <c r="B166" t="s">
@@ -19244,8 +19272,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="15">
         <v>159</v>
       </c>
       <c r="B167" t="s">
@@ -19261,8 +19289,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="15">
         <v>160</v>
       </c>
       <c r="B168" t="s">
@@ -19272,10 +19300,10 @@
         <v>186</v>
       </c>
       <c r="D168" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -19284,8 +19312,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="15">
         <v>161</v>
       </c>
       <c r="B169" t="s">
@@ -19295,10 +19323,10 @@
         <v>186</v>
       </c>
       <c r="D169" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -19307,15 +19335,15 @@
         <v>569</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="14">
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C170" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -19323,16 +19351,19 @@
       <c r="F170" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171">
+      <c r="I170" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="14">
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C171" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -19341,15 +19372,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="14">
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C172" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -19358,21 +19389,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="14">
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C173" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D173" t="s">
         <v>564</v>
       </c>
       <c r="E173" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -19381,8 +19412,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="14">
         <v>166</v>
       </c>
       <c r="B174" t="s">
@@ -19404,8 +19435,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="14">
         <v>167</v>
       </c>
       <c r="B175" t="s">
@@ -19427,8 +19458,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="14">
         <v>168</v>
       </c>
       <c r="B176" t="s">
@@ -19444,8 +19475,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="14">
         <v>169</v>
       </c>
       <c r="B177" t="s">
@@ -19467,8 +19498,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="14">
         <v>170</v>
       </c>
       <c r="B178" t="s">
@@ -19490,21 +19521,21 @@
         <v>567</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="14">
         <v>171</v>
       </c>
       <c r="B179" t="s">
         <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -19513,21 +19544,21 @@
         <v>568</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="14">
         <v>172</v>
       </c>
       <c r="B180" t="s">
         <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -19536,21 +19567,21 @@
         <v>568</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="14">
         <v>173</v>
       </c>
       <c r="B181" t="s">
         <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -19559,8 +19590,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="14">
         <v>174</v>
       </c>
       <c r="B182" t="s">
@@ -19573,7 +19604,7 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -19582,8 +19613,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="14">
         <v>175</v>
       </c>
       <c r="B183" t="s">
@@ -19596,7 +19627,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -19605,8 +19636,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="14">
         <v>176</v>
       </c>
       <c r="B184" t="s">
@@ -19619,7 +19650,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -19628,8 +19659,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="14">
         <v>177</v>
       </c>
       <c r="B185" t="s">
@@ -19642,7 +19673,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -19651,21 +19682,21 @@
         <v>568</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="14">
         <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C186" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -19674,21 +19705,21 @@
         <v>568</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="14">
         <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C187" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -19697,8 +19728,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="14">
         <v>180</v>
       </c>
       <c r="B188" t="s">
@@ -19711,7 +19742,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -19720,8 +19751,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="14">
         <v>181</v>
       </c>
       <c r="B189" t="s">
@@ -19734,7 +19765,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -19743,8 +19774,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="14">
         <v>182</v>
       </c>
       <c r="B190" t="s">
@@ -19757,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -19766,21 +19797,21 @@
         <v>568</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="13">
         <v>183</v>
       </c>
       <c r="B191" t="s">
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -19788,22 +19819,25 @@
       <c r="G191" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192">
+      <c r="H191" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="13">
         <v>184</v>
       </c>
       <c r="B192" t="s">
         <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
@@ -19813,20 +19847,20 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193">
+      <c r="A193" s="13">
         <v>185</v>
       </c>
       <c r="B193" t="s">
         <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -19836,20 +19870,20 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194">
+      <c r="A194" s="13">
         <v>186</v>
       </c>
       <c r="B194" t="s">
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -19859,20 +19893,20 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195">
+      <c r="A195" s="13">
         <v>187</v>
       </c>
       <c r="B195" t="s">
         <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F195" t="s">
         <v>14</v>
@@ -19882,7 +19916,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196">
+      <c r="A196" s="13">
         <v>188</v>
       </c>
       <c r="B196" t="s">
@@ -19895,7 +19929,7 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -19905,7 +19939,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197">
+      <c r="A197" s="13">
         <v>189</v>
       </c>
       <c r="B197" t="s">
@@ -19918,7 +19952,7 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
@@ -19928,7 +19962,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198">
+      <c r="A198" s="13">
         <v>190</v>
       </c>
       <c r="B198" t="s">
@@ -19941,7 +19975,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -19951,7 +19985,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199">
+      <c r="A199" s="13">
         <v>191</v>
       </c>
       <c r="B199" t="s">
@@ -19964,7 +19998,7 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -19974,7 +20008,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200">
+      <c r="A200" s="13">
         <v>192</v>
       </c>
       <c r="B200" t="s">
@@ -19987,7 +20021,7 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -19997,7 +20031,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201">
+      <c r="A201" s="13">
         <v>193</v>
       </c>
       <c r="B201" t="s">
@@ -20010,7 +20044,7 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -20020,7 +20054,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202">
+      <c r="A202" s="13">
         <v>194</v>
       </c>
       <c r="B202" t="s">
@@ -20033,7 +20067,7 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -20043,7 +20077,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203">
+      <c r="A203" s="13">
         <v>195</v>
       </c>
       <c r="B203" t="s">
@@ -20056,7 +20090,7 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
@@ -20066,7 +20100,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204">
+      <c r="A204" s="13">
         <v>196</v>
       </c>
       <c r="B204" t="s">
@@ -20079,7 +20113,7 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -20089,20 +20123,20 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205">
+      <c r="A205" s="13">
         <v>197</v>
       </c>
       <c r="B205" t="s">
         <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -20112,20 +20146,20 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206">
+      <c r="A206" s="13">
         <v>198</v>
       </c>
       <c r="B206" t="s">
         <v>477</v>
       </c>
       <c r="C206" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -20135,20 +20169,20 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207">
+      <c r="A207" s="13">
         <v>199</v>
       </c>
       <c r="B207" t="s">
         <v>477</v>
       </c>
       <c r="C207" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -20158,7 +20192,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208">
+      <c r="A208" s="13">
         <v>200</v>
       </c>
       <c r="B208" t="s">
@@ -20171,7 +20205,7 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -20181,7 +20215,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209">
+      <c r="A209" s="13">
         <v>201</v>
       </c>
       <c r="B209" t="s">
@@ -20194,7 +20228,7 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -20204,7 +20238,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210">
+      <c r="A210" s="13">
         <v>202</v>
       </c>
       <c r="B210" t="s">
@@ -20217,7 +20251,7 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -20227,6 +20261,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D115:D119 D122:D124 D128:D129 D134 D137:D138 D144:D148 D159:D161 D164:D165 D167 D9:D101 D107:D109">
     <cfRule type="cellIs" dxfId="131" priority="141" operator="equal">
       <formula>"Pendiente"</formula>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C9873-A8D4-4C19-90B9-DF0E9117D8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840DE883-83AC-4780-95C2-85EE52F068F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="772">
   <si>
     <t>id</t>
   </si>
@@ -1786,24 +1786,9 @@
     <t>Links N y R</t>
   </si>
   <si>
-    <t>Pidiendo datos 2021</t>
-  </si>
-  <si>
-    <t>Silvia</t>
-  </si>
-  <si>
     <t>Caro</t>
   </si>
   <si>
-    <t>Chile completo</t>
-  </si>
-  <si>
-    <t>Revisar datos</t>
-  </si>
-  <si>
-    <t>redacción</t>
-  </si>
-  <si>
     <t>Etiquetas de fila</t>
   </si>
   <si>
@@ -2375,13 +2360,22 @@
   </si>
   <si>
     <t>Link para agencia</t>
+  </si>
+  <si>
+    <t>Actualizar a datos 2021</t>
+  </si>
+  <si>
+    <t>Revisar datos y Links N y R</t>
+  </si>
+  <si>
+    <t>NO hay 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2518,6 +2512,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2906,7 +2907,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2934,6 +2935,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13309,22 +13311,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C163" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F163" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G163" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H163" t="s">
         <v>16</v>
@@ -13336,43 +13338,43 @@
         <v>16</v>
       </c>
       <c r="K163" t="s">
+        <v>589</v>
+      </c>
+      <c r="L163" t="s">
+        <v>590</v>
+      </c>
+      <c r="M163" t="s">
+        <v>591</v>
+      </c>
+      <c r="N163" t="s">
+        <v>592</v>
+      </c>
+      <c r="O163" t="s">
+        <v>593</v>
+      </c>
+      <c r="P163" t="s">
         <v>594</v>
       </c>
-      <c r="L163" t="s">
+      <c r="Q163" t="s">
         <v>595</v>
       </c>
-      <c r="M163" t="s">
+      <c r="R163" t="s">
         <v>596</v>
       </c>
-      <c r="N163" t="s">
+      <c r="S163" t="s">
         <v>597</v>
-      </c>
-      <c r="O163" t="s">
-        <v>598</v>
-      </c>
-      <c r="P163" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>600</v>
-      </c>
-      <c r="R163" t="s">
-        <v>601</v>
-      </c>
-      <c r="S163" t="s">
-        <v>602</v>
       </c>
       <c r="T163" t="s">
         <v>158</v>
       </c>
       <c r="U163" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="V163" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Z163" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.35">
@@ -13380,22 +13382,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C164" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F164" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G164" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -13404,46 +13406,46 @@
         <v>17</v>
       </c>
       <c r="J164" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K164">
         <v>2019</v>
       </c>
       <c r="L164" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M164" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="N164" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O164" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="P164" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="Q164" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="R164" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="S164" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="T164" t="s">
         <v>158</v>
       </c>
       <c r="U164" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="V164" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Z164" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.35">
@@ -13451,22 +13453,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C165" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F165" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G165" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H165" t="s">
         <v>16</v>
@@ -13478,43 +13480,43 @@
         <v>244</v>
       </c>
       <c r="K165" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L165" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M165" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="N165" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="O165" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="P165" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Q165" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="R165" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="S165" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="T165" t="s">
         <v>158</v>
       </c>
       <c r="U165" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="V165" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Z165" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.35">
@@ -13522,22 +13524,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C166" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F166" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G166" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H166" t="s">
         <v>16</v>
@@ -13552,40 +13554,40 @@
         <v>2019</v>
       </c>
       <c r="L166" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M166" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="N166" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="O166" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P166" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q166" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="R166" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="S166" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="T166" t="s">
         <v>158</v>
       </c>
       <c r="U166" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="V166" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Z166" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.35">
@@ -13602,13 +13604,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F167" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H167" t="s">
         <v>16</v>
@@ -13620,43 +13622,43 @@
         <v>16</v>
       </c>
       <c r="K167" t="s">
+        <v>621</v>
+      </c>
+      <c r="L167" t="s">
+        <v>622</v>
+      </c>
+      <c r="M167" t="s">
+        <v>623</v>
+      </c>
+      <c r="N167" t="s">
+        <v>624</v>
+      </c>
+      <c r="O167" t="s">
+        <v>625</v>
+      </c>
+      <c r="P167" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q167" t="s">
         <v>626</v>
       </c>
-      <c r="L167" t="s">
+      <c r="R167" t="s">
         <v>627</v>
       </c>
-      <c r="M167" t="s">
+      <c r="S167" t="s">
         <v>628</v>
-      </c>
-      <c r="N167" t="s">
-        <v>629</v>
-      </c>
-      <c r="O167" t="s">
-        <v>630</v>
-      </c>
-      <c r="P167" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>631</v>
-      </c>
-      <c r="R167" t="s">
-        <v>632</v>
-      </c>
-      <c r="S167" t="s">
-        <v>633</v>
       </c>
       <c r="T167" t="s">
         <v>24</v>
       </c>
       <c r="U167" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="V167" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="Z167" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.35">
@@ -13673,13 +13675,13 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F168" t="s">
         <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
@@ -13691,43 +13693,43 @@
         <v>16</v>
       </c>
       <c r="K168" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L168" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M168" t="s">
+        <v>623</v>
+      </c>
+      <c r="N168" t="s">
+        <v>632</v>
+      </c>
+      <c r="O168" t="s">
+        <v>633</v>
+      </c>
+      <c r="P168" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>634</v>
+      </c>
+      <c r="R168" t="s">
+        <v>635</v>
+      </c>
+      <c r="S168" t="s">
         <v>628</v>
-      </c>
-      <c r="N168" t="s">
-        <v>637</v>
-      </c>
-      <c r="O168" t="s">
-        <v>638</v>
-      </c>
-      <c r="P168" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>639</v>
-      </c>
-      <c r="R168" t="s">
-        <v>640</v>
-      </c>
-      <c r="S168" t="s">
-        <v>633</v>
       </c>
       <c r="T168" t="s">
         <v>24</v>
       </c>
       <c r="U168" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="V168" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="Z168" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.35">
@@ -13744,13 +13746,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F169" t="s">
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H169" t="s">
         <v>16</v>
@@ -13762,40 +13764,40 @@
         <v>16</v>
       </c>
       <c r="K169" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L169" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M169" t="s">
+        <v>623</v>
+      </c>
+      <c r="N169" t="s">
+        <v>637</v>
+      </c>
+      <c r="O169" t="s">
+        <v>638</v>
+      </c>
+      <c r="P169" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>639</v>
+      </c>
+      <c r="R169" t="s">
+        <v>640</v>
+      </c>
+      <c r="S169" t="s">
         <v>628</v>
-      </c>
-      <c r="N169" t="s">
-        <v>642</v>
-      </c>
-      <c r="O169" t="s">
-        <v>643</v>
-      </c>
-      <c r="P169" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>644</v>
-      </c>
-      <c r="R169" t="s">
-        <v>645</v>
-      </c>
-      <c r="S169" t="s">
-        <v>633</v>
       </c>
       <c r="T169" t="s">
         <v>24</v>
       </c>
       <c r="U169" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Z169" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.35">
@@ -13812,13 +13814,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F170" t="s">
         <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H170" t="s">
         <v>16</v>
@@ -13830,40 +13832,40 @@
         <v>16</v>
       </c>
       <c r="K170" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L170" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M170" t="s">
+        <v>623</v>
+      </c>
+      <c r="N170" t="s">
+        <v>642</v>
+      </c>
+      <c r="O170" t="s">
+        <v>643</v>
+      </c>
+      <c r="P170" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>644</v>
+      </c>
+      <c r="R170" t="s">
+        <v>645</v>
+      </c>
+      <c r="S170" t="s">
         <v>628</v>
-      </c>
-      <c r="N170" t="s">
-        <v>647</v>
-      </c>
-      <c r="O170" t="s">
-        <v>648</v>
-      </c>
-      <c r="P170" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>649</v>
-      </c>
-      <c r="R170" t="s">
-        <v>650</v>
-      </c>
-      <c r="S170" t="s">
-        <v>633</v>
       </c>
       <c r="T170" t="s">
         <v>24</v>
       </c>
       <c r="U170" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Z170" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.35">
@@ -13880,13 +13882,13 @@
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F171" t="s">
         <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H171" t="s">
         <v>16</v>
@@ -13898,40 +13900,40 @@
         <v>16</v>
       </c>
       <c r="K171" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L171" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M171" t="s">
+        <v>623</v>
+      </c>
+      <c r="N171" t="s">
+        <v>647</v>
+      </c>
+      <c r="O171" t="s">
+        <v>648</v>
+      </c>
+      <c r="P171" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>649</v>
+      </c>
+      <c r="R171" t="s">
+        <v>650</v>
+      </c>
+      <c r="S171" t="s">
         <v>628</v>
-      </c>
-      <c r="N171" t="s">
-        <v>652</v>
-      </c>
-      <c r="O171" t="s">
-        <v>653</v>
-      </c>
-      <c r="P171" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>654</v>
-      </c>
-      <c r="R171" t="s">
-        <v>655</v>
-      </c>
-      <c r="S171" t="s">
-        <v>633</v>
       </c>
       <c r="T171" t="s">
         <v>24</v>
       </c>
       <c r="U171" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Z171" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.35">
@@ -13939,10 +13941,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C172" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -13951,16 +13953,16 @@
         <v>258</v>
       </c>
       <c r="K172" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M172" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N172" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="R172" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="T172" t="s">
         <v>110</v>
@@ -13971,10 +13973,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C173" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -13983,16 +13985,16 @@
         <v>258</v>
       </c>
       <c r="K173" t="s">
+        <v>653</v>
+      </c>
+      <c r="M173" t="s">
+        <v>654</v>
+      </c>
+      <c r="N173" t="s">
+        <v>657</v>
+      </c>
+      <c r="R173" t="s">
         <v>658</v>
-      </c>
-      <c r="M173" t="s">
-        <v>659</v>
-      </c>
-      <c r="N173" t="s">
-        <v>662</v>
-      </c>
-      <c r="R173" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.35">
@@ -14000,25 +14002,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C174" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
       </c>
       <c r="K174" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M174" t="s">
+        <v>654</v>
+      </c>
+      <c r="N174" t="s">
         <v>659</v>
       </c>
-      <c r="N174" t="s">
-        <v>664</v>
-      </c>
       <c r="R174" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.35">
@@ -14035,16 +14037,16 @@
         <v>14</v>
       </c>
       <c r="K175" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M175" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N175" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="R175" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="T175" t="s">
         <v>110</v>
@@ -14064,13 +14066,13 @@
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="N176" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="R176" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="T176" t="s">
         <v>110</v>
@@ -14093,19 +14095,19 @@
         <v>189</v>
       </c>
       <c r="G177" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K177" t="s">
+        <v>664</v>
+      </c>
+      <c r="M177" t="s">
+        <v>623</v>
+      </c>
+      <c r="N177" t="s">
+        <v>668</v>
+      </c>
+      <c r="R177" t="s">
         <v>669</v>
-      </c>
-      <c r="M177" t="s">
-        <v>628</v>
-      </c>
-      <c r="N177" t="s">
-        <v>673</v>
-      </c>
-      <c r="R177" t="s">
-        <v>674</v>
       </c>
       <c r="T177" t="s">
         <v>110</v>
@@ -14125,19 +14127,19 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K178" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M178" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N178" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="R178" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="T178" t="s">
         <v>110</v>
@@ -14148,10 +14150,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C179" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -14160,19 +14162,19 @@
         <v>189</v>
       </c>
       <c r="G179" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="K179" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M179" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N179" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="R179" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.35">
@@ -14180,10 +14182,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C180" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -14192,22 +14194,22 @@
         <v>189</v>
       </c>
       <c r="K180" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M180" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N180" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="R180" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T180" t="s">
         <v>110</v>
       </c>
       <c r="Z180" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.35">
@@ -14218,25 +14220,25 @@
         <v>357</v>
       </c>
       <c r="C181" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
       </c>
       <c r="G181" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="K181" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M181" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="N181" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="R181" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="T181" t="s">
         <v>110</v>
@@ -14250,28 +14252,28 @@
         <v>357</v>
       </c>
       <c r="C182" t="s">
+        <v>679</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s">
+        <v>664</v>
+      </c>
+      <c r="M182" t="s">
+        <v>681</v>
+      </c>
+      <c r="N182" t="s">
         <v>684</v>
       </c>
-      <c r="D182" t="s">
-        <v>14</v>
-      </c>
-      <c r="K182" t="s">
-        <v>669</v>
-      </c>
-      <c r="M182" t="s">
-        <v>686</v>
-      </c>
-      <c r="N182" t="s">
-        <v>689</v>
-      </c>
       <c r="R182" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="T182" t="s">
         <v>110</v>
       </c>
       <c r="Z182" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.35">
@@ -14282,31 +14284,31 @@
         <v>357</v>
       </c>
       <c r="C183" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="G183" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="K183" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M183" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="N183" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="R183" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="T183" t="s">
         <v>110</v>
       </c>
       <c r="Z183" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.35">
@@ -14314,34 +14316,34 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C184" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F184" t="s">
         <v>189</v>
       </c>
       <c r="G184" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K184" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M184" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N184" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="R184" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="T184" t="s">
         <v>110</v>
@@ -14352,10 +14354,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C185" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -14364,22 +14366,22 @@
         <v>189</v>
       </c>
       <c r="K185" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M185" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N185" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="R185" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="T185" t="s">
         <v>110</v>
       </c>
       <c r="Z185" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.35">
@@ -14387,28 +14389,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C186" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G186" t="s">
+        <v>691</v>
+      </c>
+      <c r="M186" t="s">
+        <v>623</v>
+      </c>
+      <c r="N186" t="s">
         <v>696</v>
       </c>
-      <c r="M186" t="s">
-        <v>628</v>
-      </c>
-      <c r="N186" t="s">
-        <v>701</v>
-      </c>
       <c r="R186" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="T186" t="s">
         <v>110</v>
@@ -14419,40 +14421,40 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C187" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
       </c>
       <c r="E187" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F187" t="s">
         <v>189</v>
       </c>
       <c r="G187" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K187" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M187" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N187" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="R187" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="T187" t="s">
         <v>110</v>
       </c>
       <c r="Z187" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.35">
@@ -14460,37 +14462,37 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C188" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
       </c>
       <c r="E188" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G188" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K188" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M188" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N188" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="R188" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="T188" t="s">
         <v>110</v>
       </c>
       <c r="Z188" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.35">
@@ -14507,25 +14509,25 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G189" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K189" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M189" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="N189" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="R189" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="Z189" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.35">
@@ -14542,25 +14544,25 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G190" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="K190" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M190" t="s">
+        <v>704</v>
+      </c>
+      <c r="N190" t="s">
         <v>709</v>
       </c>
-      <c r="N190" t="s">
-        <v>714</v>
-      </c>
       <c r="R190" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Z190" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.35">
@@ -14577,25 +14579,25 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G191" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K191" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M191" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="N191" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="R191" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="Z191" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.35">
@@ -14612,25 +14614,25 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G192" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="K192" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M192" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N192" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="R192" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Z192" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.35">
@@ -14647,25 +14649,25 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G193" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="K193" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M193" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N193" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="R193" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="Z193" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.35">
@@ -14682,25 +14684,25 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G194" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="K194" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M194" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N194" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="R194" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="Z194" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.35">
@@ -14717,19 +14719,19 @@
         <v>14</v>
       </c>
       <c r="K195" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="M195" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="N195" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="R195" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="Z195" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.35">
@@ -14746,19 +14748,19 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
+        <v>727</v>
+      </c>
+      <c r="M196" t="s">
+        <v>728</v>
+      </c>
+      <c r="N196" t="s">
         <v>732</v>
       </c>
-      <c r="M196" t="s">
+      <c r="R196" t="s">
         <v>733</v>
       </c>
-      <c r="N196" t="s">
-        <v>737</v>
-      </c>
-      <c r="R196" t="s">
-        <v>738</v>
-      </c>
       <c r="Z196" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.35">
@@ -14775,19 +14777,19 @@
         <v>14</v>
       </c>
       <c r="K197" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="M197" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="N197" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="R197" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="Z197" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.35">
@@ -14795,25 +14797,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C198" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M198" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="N198" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="R198" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.35">
@@ -14821,25 +14823,25 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>736</v>
+      </c>
+      <c r="C199" t="s">
+        <v>736</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="K199" t="s">
+        <v>740</v>
+      </c>
+      <c r="M199" t="s">
+        <v>737</v>
+      </c>
+      <c r="N199" t="s">
         <v>741</v>
       </c>
-      <c r="C199" t="s">
-        <v>741</v>
-      </c>
-      <c r="D199" t="s">
-        <v>14</v>
-      </c>
-      <c r="K199" t="s">
-        <v>745</v>
-      </c>
-      <c r="M199" t="s">
+      <c r="R199" t="s">
         <v>742</v>
-      </c>
-      <c r="N199" t="s">
-        <v>746</v>
-      </c>
-      <c r="R199" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.35">
@@ -14847,25 +14849,25 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C200" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M200" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="N200" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="R200" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -14914,24 +14916,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -14946,13 +14948,13 @@
         <v>565</v>
       </c>
       <c r="F4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I4"/>
     </row>
@@ -15144,7 +15146,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B15" s="6">
         <v>5</v>
@@ -15658,7 +15660,7 @@
     </row>
     <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B44" s="6">
         <v>3</v>
@@ -15706,7 +15708,7 @@
     </row>
     <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
@@ -15822,7 +15824,7 @@
     </row>
     <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B54" s="6">
         <v>2</v>
@@ -15838,7 +15840,7 @@
     </row>
     <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
@@ -15854,7 +15856,7 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B56" s="6">
         <v>3</v>
@@ -15872,7 +15874,7 @@
     </row>
     <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B57" s="6">
         <v>2</v>
@@ -15888,7 +15890,7 @@
     </row>
     <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
@@ -15906,7 +15908,7 @@
     </row>
     <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B59" s="6">
         <v>151</v>
@@ -15944,13 +15946,13 @@
         <v>565</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -15986,8 +15988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16019,13 +16021,13 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="I8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -16042,7 +16044,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -16224,7 +16226,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -16247,7 +16249,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -16585,10 +16587,10 @@
         <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E39" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -16628,7 +16630,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -16736,13 +16738,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -16759,13 +16761,13 @@
         <v>564</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -16782,13 +16784,13 @@
         <v>3</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -16805,13 +16807,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -16925,7 +16927,7 @@
         <v>564</v>
       </c>
       <c r="E56" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -16945,7 +16947,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -17072,7 +17074,7 @@
       <c r="D64" t="s">
         <v>564</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F64" t="s">
@@ -17095,7 +17097,7 @@
       <c r="D65" t="s">
         <v>564</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F65" t="s">
@@ -17118,7 +17120,7 @@
       <c r="D66" t="s">
         <v>564</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F66" t="s">
@@ -17141,7 +17143,7 @@
       <c r="D67" t="s">
         <v>564</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F67" t="s">
@@ -17164,7 +17166,7 @@
       <c r="D68" t="s">
         <v>564</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F68" t="s">
@@ -17187,7 +17189,7 @@
       <c r="D69" t="s">
         <v>564</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F69" t="s">
@@ -17294,7 +17296,7 @@
         <v>564</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -17316,7 +17318,7 @@
       <c r="D75" t="s">
         <v>564</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F75" t="s">
@@ -17339,7 +17341,7 @@
       <c r="D76" t="s">
         <v>564</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F76" t="s">
@@ -17362,7 +17364,7 @@
       <c r="D77" t="s">
         <v>564</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="8" t="s">
         <v>573</v>
       </c>
       <c r="F77" t="s">
@@ -17385,7 +17387,7 @@
       <c r="D78" t="s">
         <v>564</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F78" t="s">
@@ -17408,7 +17410,7 @@
       <c r="D79" t="s">
         <v>564</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="8" t="s">
         <v>571</v>
       </c>
       <c r="F79" t="s">
@@ -17606,16 +17608,16 @@
         <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>574</v>
-      </c>
-      <c r="E89" t="s">
-        <v>577</v>
+        <v>564</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>769</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -17631,14 +17633,12 @@
       <c r="D90" t="s">
         <v>3</v>
       </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
+      <c r="E90" s="17"/>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -17654,9 +17654,6 @@
       <c r="D91" t="s">
         <v>3</v>
       </c>
-      <c r="E91" t="s">
-        <v>580</v>
-      </c>
       <c r="F91" t="s">
         <v>43</v>
       </c>
@@ -17766,7 +17763,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -17797,10 +17794,10 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>753</v>
-      </c>
-      <c r="E99" t="s">
-        <v>581</v>
+        <v>748</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>770</v>
       </c>
       <c r="F99" t="s">
         <v>43</v>
@@ -17981,7 +17978,7 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -18001,7 +17998,7 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -18021,7 +18018,7 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -18237,14 +18234,12 @@
       <c r="D120" t="s">
         <v>3</v>
       </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
+      <c r="E120" s="17"/>
       <c r="F120" t="s">
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -18260,14 +18255,11 @@
       <c r="D121" t="s">
         <v>3</v>
       </c>
-      <c r="E121" t="s">
-        <v>571</v>
-      </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -18283,9 +18275,6 @@
       <c r="D122" t="s">
         <v>3</v>
       </c>
-      <c r="E122" t="s">
-        <v>582</v>
-      </c>
       <c r="F122" t="s">
         <v>14</v>
       </c>
@@ -18343,9 +18332,6 @@
       <c r="D125" t="s">
         <v>3</v>
       </c>
-      <c r="E125" t="s">
-        <v>571</v>
-      </c>
       <c r="F125" t="s">
         <v>14</v>
       </c>
@@ -18369,9 +18355,6 @@
       <c r="D126" t="s">
         <v>3</v>
       </c>
-      <c r="E126" t="s">
-        <v>571</v>
-      </c>
       <c r="F126" t="s">
         <v>14</v>
       </c>
@@ -18392,9 +18375,6 @@
       <c r="D127" t="s">
         <v>3</v>
       </c>
-      <c r="E127" t="s">
-        <v>571</v>
-      </c>
       <c r="F127" t="s">
         <v>14</v>
       </c>
@@ -18430,16 +18410,13 @@
         <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>564</v>
-      </c>
-      <c r="E129" t="s">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -18455,14 +18432,11 @@
       <c r="D130" t="s">
         <v>3</v>
       </c>
-      <c r="E130" t="s">
-        <v>571</v>
-      </c>
       <c r="F130" t="s">
         <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -18478,14 +18452,11 @@
       <c r="D131" t="s">
         <v>3</v>
       </c>
-      <c r="E131" t="s">
-        <v>571</v>
-      </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -18501,14 +18472,11 @@
       <c r="D132" t="s">
         <v>3</v>
       </c>
-      <c r="E132" t="s">
-        <v>571</v>
-      </c>
       <c r="F132" t="s">
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
@@ -18524,14 +18492,11 @@
       <c r="D133" t="s">
         <v>3</v>
       </c>
-      <c r="E133" t="s">
-        <v>571</v>
-      </c>
       <c r="F133" t="s">
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -18567,9 +18532,6 @@
       <c r="D135" t="s">
         <v>3</v>
       </c>
-      <c r="E135" t="s">
-        <v>571</v>
-      </c>
       <c r="F135" t="s">
         <v>14</v>
       </c>
@@ -18590,9 +18552,6 @@
       <c r="D136" t="s">
         <v>3</v>
       </c>
-      <c r="E136" t="s">
-        <v>576</v>
-      </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
@@ -18611,10 +18570,10 @@
         <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>564</v>
-      </c>
-      <c r="E137" t="s">
-        <v>752</v>
+        <v>3</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>747</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -18634,10 +18593,10 @@
         <v>186</v>
       </c>
       <c r="D138" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>571</v>
+        <v>771</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -18659,9 +18618,6 @@
       <c r="D139" t="s">
         <v>3</v>
       </c>
-      <c r="E139" t="s">
-        <v>571</v>
-      </c>
       <c r="F139" t="s">
         <v>43</v>
       </c>
@@ -18703,10 +18659,10 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E141" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -18738,7 +18694,7 @@
         <v>567</v>
       </c>
       <c r="I142" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
@@ -18812,7 +18768,7 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -18835,7 +18791,7 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -18858,7 +18814,7 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -18881,13 +18837,13 @@
         <v>3</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F149" t="s">
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I149" t="s">
         <v>569</v>
@@ -18913,7 +18869,7 @@
         <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
@@ -18936,7 +18892,7 @@
         <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
@@ -18959,7 +18915,7 @@
         <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
@@ -18976,13 +18932,13 @@
         <v>3</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -19045,7 +19001,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -19068,7 +19024,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -19114,7 +19070,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -19180,7 +19136,7 @@
         <v>564</v>
       </c>
       <c r="E162" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -19229,7 +19185,7 @@
         <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
@@ -19269,7 +19225,7 @@
         <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
@@ -19303,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -19326,7 +19282,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -19340,10 +19296,10 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C170" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -19352,7 +19308,7 @@
         <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
@@ -19360,10 +19316,10 @@
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C171" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -19377,10 +19333,10 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C172" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -19394,16 +19350,16 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C173" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D173" t="s">
         <v>564</v>
       </c>
       <c r="E173" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -19529,13 +19485,13 @@
         <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -19552,13 +19508,13 @@
         <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -19575,13 +19531,13 @@
         <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -19604,7 +19560,7 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -19627,7 +19583,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -19650,7 +19606,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -19673,7 +19629,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -19687,16 +19643,16 @@
         <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C186" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -19710,16 +19666,16 @@
         <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C187" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -19742,7 +19698,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -19765,7 +19721,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -19788,7 +19744,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -19805,13 +19761,13 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -19831,13 +19787,13 @@
         <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
@@ -19854,13 +19810,13 @@
         <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -19877,13 +19833,13 @@
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -19900,13 +19856,13 @@
         <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F195" t="s">
         <v>14</v>
@@ -19929,7 +19885,7 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -19952,7 +19908,7 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
@@ -19975,7 +19931,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -19998,7 +19954,7 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -20021,7 +19977,7 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -20044,7 +20000,7 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -20067,7 +20023,7 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -20090,7 +20046,7 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
@@ -20113,7 +20069,7 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -20130,13 +20086,13 @@
         <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -20153,13 +20109,13 @@
         <v>477</v>
       </c>
       <c r="C206" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -20176,13 +20132,13 @@
         <v>477</v>
       </c>
       <c r="C207" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -20205,7 +20161,7 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -20228,7 +20184,7 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -20251,7 +20207,7 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D55225-68FA-4B69-9415-6B61E1807259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16987CC-A2D9-41BF-A6A3-F4A0242604FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="65" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -4172,13 +4172,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:colOff>1397000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4254,9 +4254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4326,15 +4326,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4404,15 +4404,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>260349</xdr:colOff>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:colOff>393699</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6845,7 +6845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -7281,7 +7281,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:I210" totalsRowShown="0">
-  <autoFilter ref="A8:I210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A8:I210" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G169">
     <sortCondition ref="A9:A169"/>
   </sortState>
@@ -16316,8 +16322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16378,7 +16384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -16395,7 +16401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16412,7 +16418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16429,7 +16435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -16446,7 +16452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -16466,7 +16472,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -16486,7 +16492,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -16503,7 +16509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -16520,7 +16526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -16559,7 +16565,7 @@
       <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -16582,11 +16588,11 @@
       <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
@@ -16606,7 +16612,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -16626,7 +16632,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -16646,7 +16652,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -16683,7 +16689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>18</v>
       </c>
@@ -16700,7 +16706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -16717,7 +16723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -16734,7 +16740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>21</v>
       </c>
@@ -16751,7 +16757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -16768,7 +16774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>23</v>
       </c>
@@ -16785,7 +16791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -16802,7 +16808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>25</v>
       </c>
@@ -16819,7 +16825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>26</v>
       </c>
@@ -16836,7 +16842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
@@ -16853,7 +16859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -16870,7 +16876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>29</v>
       </c>
@@ -16887,7 +16893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -16904,7 +16910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>31</v>
       </c>
@@ -16941,7 +16947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>33</v>
       </c>
@@ -16961,7 +16967,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>34</v>
       </c>
@@ -16981,7 +16987,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>35</v>
       </c>
@@ -17001,7 +17007,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>36</v>
       </c>
@@ -17018,7 +17024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>37</v>
       </c>
@@ -17035,7 +17041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>38</v>
       </c>
@@ -17144,7 +17150,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>43</v>
       </c>
@@ -17164,7 +17170,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>44</v>
       </c>
@@ -17181,7 +17187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>45</v>
       </c>
@@ -17201,7 +17207,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>46</v>
       </c>
@@ -17221,7 +17227,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>47</v>
       </c>
@@ -17241,7 +17247,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>48</v>
       </c>
@@ -17284,7 +17290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>50</v>
       </c>
@@ -17301,7 +17307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>51</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>52</v>
       </c>
@@ -17335,7 +17341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>53</v>
       </c>
@@ -17352,7 +17358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>54</v>
       </c>
@@ -17369,7 +17375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>55</v>
       </c>
@@ -17527,7 +17533,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>62</v>
       </c>
@@ -17570,7 +17576,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>64</v>
       </c>
@@ -17606,7 +17612,7 @@
       <c r="F73" t="s">
         <v>43</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -17748,7 +17754,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>72</v>
       </c>
@@ -17765,7 +17771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>73</v>
       </c>
@@ -17785,7 +17791,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>74</v>
       </c>
@@ -17805,7 +17811,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>75</v>
       </c>
@@ -17825,7 +17831,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>76</v>
       </c>
@@ -17845,7 +17851,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>77</v>
       </c>
@@ -17865,7 +17871,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>78</v>
       </c>
@@ -17885,7 +17891,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>79</v>
       </c>
@@ -17905,7 +17911,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>80</v>
       </c>
@@ -17948,7 +17954,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>82</v>
       </c>
@@ -17969,7 +17975,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>83</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>84</v>
       </c>
@@ -18003,7 +18009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>85</v>
       </c>
@@ -18020,7 +18026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>86</v>
       </c>
@@ -18060,7 +18066,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>88</v>
       </c>
@@ -18077,7 +18083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>89</v>
       </c>
@@ -18097,7 +18103,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>90</v>
       </c>
@@ -18156,7 +18162,7 @@
       <c r="F100" t="s">
         <v>43</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18179,7 +18185,7 @@
       <c r="F101" t="s">
         <v>43</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18202,7 +18208,7 @@
       <c r="F102" t="s">
         <v>43</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18225,7 +18231,7 @@
       <c r="F103" t="s">
         <v>43</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18252,7 +18258,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>97</v>
       </c>
@@ -18272,7 +18278,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>98</v>
       </c>
@@ -18292,7 +18298,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>99</v>
       </c>
@@ -18312,7 +18318,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>100</v>
       </c>
@@ -18332,7 +18338,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>101</v>
       </c>
@@ -18352,7 +18358,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>102</v>
       </c>
@@ -18372,7 +18378,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>103</v>
       </c>
@@ -18392,7 +18398,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>104</v>
       </c>
@@ -18412,7 +18418,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>105</v>
       </c>
@@ -18432,7 +18438,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>106</v>
       </c>
@@ -18452,7 +18458,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>107</v>
       </c>
@@ -18472,7 +18478,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>108</v>
       </c>
@@ -18492,7 +18498,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>109</v>
       </c>
@@ -18512,7 +18518,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>110</v>
       </c>
@@ -18532,7 +18538,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>111</v>
       </c>
@@ -18552,7 +18558,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>112</v>
       </c>
@@ -18573,7 +18579,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>113</v>
       </c>
@@ -18593,7 +18599,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>114</v>
       </c>
@@ -18610,7 +18616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>115</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>116</v>
       </c>
@@ -18650,7 +18656,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>117</v>
       </c>
@@ -18673,7 +18679,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>118</v>
       </c>
@@ -18693,7 +18699,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>119</v>
       </c>
@@ -18713,7 +18719,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>120</v>
       </c>
@@ -18730,7 +18736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>121</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>122</v>
       </c>
@@ -18770,7 +18776,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>123</v>
       </c>
@@ -18790,7 +18796,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>124</v>
       </c>
@@ -18810,7 +18816,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>125</v>
       </c>
@@ -18830,7 +18836,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="14">
         <v>126</v>
       </c>
@@ -18850,7 +18856,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="14">
         <v>127</v>
       </c>
@@ -18871,7 +18877,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="14">
         <v>128</v>
       </c>
@@ -18892,7 +18898,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="14">
         <v>129</v>
       </c>
@@ -18913,7 +18919,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="14">
         <v>130</v>
       </c>
@@ -18934,7 +18940,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="14">
         <v>131</v>
       </c>
@@ -18954,7 +18960,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="14">
         <v>132</v>
       </c>
@@ -18997,7 +19003,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>134</v>
       </c>
@@ -19020,7 +19026,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>135</v>
       </c>
@@ -19040,7 +19046,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>136</v>
       </c>
@@ -19057,7 +19063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>137</v>
       </c>
@@ -19120,7 +19126,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>140</v>
       </c>
@@ -19140,7 +19146,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13">
         <v>141</v>
       </c>
@@ -19164,7 +19170,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="13">
         <v>142</v>
       </c>
@@ -19184,7 +19190,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="13">
         <v>143</v>
       </c>
@@ -19204,7 +19210,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
         <v>144</v>
       </c>
@@ -19224,7 +19230,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="13">
         <v>145</v>
       </c>
@@ -19245,7 +19251,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="13">
         <v>146</v>
       </c>
@@ -19265,7 +19271,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13">
         <v>147</v>
       </c>
@@ -19285,7 +19291,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13">
         <v>148</v>
       </c>
@@ -19306,7 +19312,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13">
         <v>149</v>
       </c>
@@ -19327,7 +19333,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
         <v>150</v>
       </c>
@@ -19347,7 +19353,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="13">
         <v>151</v>
       </c>
@@ -19367,7 +19373,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="13">
         <v>152</v>
       </c>
@@ -19387,7 +19393,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13">
         <v>153</v>
       </c>
@@ -19407,7 +19413,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13">
         <v>154</v>
       </c>
@@ -19427,7 +19433,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13">
         <v>155</v>
       </c>
@@ -19447,7 +19453,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="13">
         <v>156</v>
       </c>
@@ -19467,7 +19473,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="13">
         <v>157</v>
       </c>
@@ -19507,7 +19513,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="13">
         <v>159</v>
       </c>
@@ -19524,7 +19530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="13">
         <v>160</v>
       </c>
@@ -19544,7 +19550,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="13">
         <v>161</v>
       </c>
@@ -19564,7 +19570,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>162</v>
       </c>
@@ -19584,7 +19590,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>163</v>
       </c>
@@ -19601,7 +19607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>164</v>
       </c>
@@ -19618,7 +19624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>165</v>
       </c>
@@ -19638,7 +19644,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>166</v>
       </c>
@@ -19658,7 +19664,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>167</v>
       </c>
@@ -19678,7 +19684,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>168</v>
       </c>
@@ -19695,7 +19701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>169</v>
       </c>
@@ -19715,7 +19721,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>170</v>
       </c>
@@ -19735,7 +19741,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>171</v>
       </c>
@@ -19755,7 +19761,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>172</v>
       </c>
@@ -19775,7 +19781,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>173</v>
       </c>
@@ -19795,7 +19801,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>174</v>
       </c>
@@ -19815,7 +19821,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>175</v>
       </c>
@@ -19835,7 +19841,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>176</v>
       </c>
@@ -19855,7 +19861,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>177</v>
       </c>
@@ -19875,7 +19881,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>178</v>
       </c>
@@ -19895,7 +19901,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>179</v>
       </c>
@@ -19915,7 +19921,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>180</v>
       </c>
@@ -19935,7 +19941,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>181</v>
       </c>
@@ -19955,7 +19961,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>182</v>
       </c>
@@ -19975,7 +19981,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>183</v>
       </c>
@@ -19998,7 +20004,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>184</v>
       </c>
@@ -20018,7 +20024,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>185</v>
       </c>
@@ -20038,7 +20044,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>186</v>
       </c>
@@ -20058,7 +20064,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>187</v>
       </c>
@@ -20078,7 +20084,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>188</v>
       </c>
@@ -20098,7 +20104,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>189</v>
       </c>
@@ -20118,7 +20124,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>190</v>
       </c>
@@ -20138,7 +20144,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>191</v>
       </c>
@@ -20158,7 +20164,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>192</v>
       </c>
@@ -20178,7 +20184,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>193</v>
       </c>
@@ -20198,7 +20204,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>194</v>
       </c>
@@ -20218,7 +20224,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>195</v>
       </c>
@@ -20238,7 +20244,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>196</v>
       </c>
@@ -20258,7 +20264,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>197</v>
       </c>
@@ -20278,7 +20284,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>198</v>
       </c>
@@ -20298,7 +20304,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>199</v>
       </c>
@@ -20318,7 +20324,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>200</v>
       </c>
@@ -20338,7 +20344,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>201</v>
       </c>
@@ -20358,7 +20364,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>202</v>
       </c>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16987CC-A2D9-41BF-A6A3-F4A0242604FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA18EE-B79E-4365-BF02-74EA7289A2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="762">
   <si>
     <t>id</t>
   </si>
@@ -1769,12 +1769,6 @@
     <t>Link regional</t>
   </si>
   <si>
-    <t>Título y logo</t>
-  </si>
-  <si>
-    <t>Link nacional</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -1802,9 +1796,6 @@
     <t>RESPONSABLE</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Telecomunicaciones</t>
   </si>
   <si>
@@ -2291,15 +2282,6 @@
     <t>Tecnología, Internet y Telecomunicaciones</t>
   </si>
   <si>
-    <t>(Todas)</t>
-  </si>
-  <si>
-    <t>Fijar una región</t>
-  </si>
-  <si>
-    <t>filtro región en N</t>
-  </si>
-  <si>
     <t>Columna1</t>
   </si>
   <si>
@@ -2309,18 +2291,12 @@
     <t>Columna2</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
     <t>Revisando datos</t>
   </si>
   <si>
     <t>Revisando datos y Link regional</t>
   </si>
   <si>
-    <t>Link para agencia</t>
-  </si>
-  <si>
     <t>Actualizar a datos 2021</t>
   </si>
   <si>
@@ -2333,19 +2309,37 @@
     <t>ELIMINADO</t>
   </si>
   <si>
-    <t>Cambiar a infogram</t>
-  </si>
-  <si>
     <t>Eliminado</t>
   </si>
   <si>
     <t>Astrid</t>
   </si>
   <si>
-    <t>Filtrar comunas sin datos</t>
-  </si>
-  <si>
-    <t>Ajustar texto eje X</t>
+    <t>Feña</t>
+  </si>
+  <si>
+    <t>Patricio-Karen</t>
+  </si>
+  <si>
+    <t>Título y datos MINMEG</t>
+  </si>
+  <si>
+    <t>Link regional y datos MINMEG</t>
+  </si>
+  <si>
+    <t>Feña (Caro)</t>
+  </si>
+  <si>
+    <t>Nati (Caro)</t>
+  </si>
+  <si>
+    <t>Mover título de arriba</t>
+  </si>
+  <si>
+    <t>Por definir</t>
+  </si>
+  <si>
+    <t>(Varios elementos)</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2737,6 +2731,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2899,7 +2899,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2929,6 +2929,9 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4172,13 +4175,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4254,9 +4257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4326,15 +4329,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>777875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4404,15 +4407,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>393699</xdr:colOff>
+      <xdr:colOff>250824</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4483,7 +4486,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44425.483701273151" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44432.507889814813" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
@@ -4569,8 +4572,8 @@
     <cacheField name="ESTADO" numFmtId="0">
       <sharedItems containsBlank="1" count="10">
         <s v="Listo"/>
+        <s v="Por ajustar"/>
         <s v="ELIMINADO"/>
-        <s v="Por ajustar"/>
         <s v="Pendiente"/>
         <m u="1"/>
         <s v="Revisar" u="1"/>
@@ -4587,19 +4590,25 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="RESPONSABLE" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="18">
+        <s v="Fernanda"/>
         <m/>
         <s v="Patricio"/>
         <s v="Nati"/>
         <s v="Caro"/>
-        <s v="Christian"/>
+        <s v="Patricio-Karen"/>
         <s v="Abner-Patricio"/>
         <s v="No asignado"/>
-        <s v="Fernanda"/>
+        <s v="Por definir"/>
         <s v="Astrid"/>
         <s v="Astrid-Fernanda" u="1"/>
         <s v="Astrid-Nati" u="1"/>
+        <s v="Feña" u="1"/>
         <s v="Silvia" u="1"/>
+        <s v="Nati (Caro)" u="1"/>
+        <s v="Feña (Caro)" u="1"/>
+        <s v="Fernanda (Caro)" u="1"/>
+        <s v="Christian" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Columna1" numFmtId="0">
@@ -4624,11 +4633,11 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Fijar una región"/>
+    <m/>
     <s v="No"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="2"/>
@@ -4637,7 +4646,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4648,7 +4657,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4659,7 +4668,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4670,7 +4679,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4681,7 +4690,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -4692,7 +4701,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -4703,7 +4712,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4714,7 +4723,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4725,7 +4734,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -4733,23 +4742,23 @@
     <n v="11"/>
     <x v="5"/>
     <x v="5"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Logo DI "/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="12"/>
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <s v="Logo DI "/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="13"/>
@@ -4758,7 +4767,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -4769,7 +4778,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -4780,7 +4789,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -4791,7 +4800,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -4802,7 +4811,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4813,7 +4822,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4824,7 +4833,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4835,7 +4844,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4846,7 +4855,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4857,7 +4866,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4868,7 +4877,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4879,7 +4888,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4890,7 +4899,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4901,7 +4910,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4912,7 +4921,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4923,7 +4932,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4934,7 +4943,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4945,7 +4954,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -4953,10 +4962,10 @@
     <n v="31"/>
     <x v="2"/>
     <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="No"/>
     <x v="1"/>
-    <m/>
-    <s v="No"/>
-    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -4967,7 +4976,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -4978,7 +4987,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -4989,7 +4998,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5000,7 +5009,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5011,7 +5020,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5022,7 +5031,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5033,7 +5042,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5042,44 +5051,44 @@
     <x v="3"/>
     <x v="13"/>
     <x v="0"/>
-    <s v="filtro región en N"/>
+    <m/>
     <s v="Yes"/>
-    <x v="3"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña (Caro)"/>
   </r>
   <r>
     <n v="40"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Revisando datos y Link regional"/>
     <s v="Yes"/>
-    <x v="4"/>
-    <m/>
-    <m/>
+    <x v="5"/>
+    <m/>
+    <s v="Patricio-Karen"/>
   </r>
   <r>
     <n v="41"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Revisando datos"/>
     <s v="Yes"/>
-    <x v="4"/>
-    <m/>
-    <m/>
+    <x v="5"/>
+    <m/>
+    <s v="Patricio-Karen"/>
   </r>
   <r>
     <n v="42"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Revisando datos"/>
     <s v="Yes"/>
-    <x v="4"/>
-    <m/>
-    <m/>
+    <x v="5"/>
+    <m/>
+    <s v="Patricio-Karen"/>
   </r>
   <r>
     <n v="43"/>
@@ -5088,7 +5097,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5099,7 +5108,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5110,7 +5119,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="6"/>
+    <x v="7"/>
     <m/>
     <m/>
   </r>
@@ -5121,7 +5130,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5132,7 +5141,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -5143,7 +5152,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -5151,12 +5160,12 @@
     <n v="49"/>
     <x v="12"/>
     <x v="19"/>
+    <x v="0"/>
+    <m/>
+    <s v="No"/>
     <x v="2"/>
-    <s v="Cambiar a infogram"/>
-    <s v="No"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="50"/>
@@ -5165,7 +5174,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5176,7 +5185,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5187,7 +5196,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5198,7 +5207,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5209,7 +5218,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5220,7 +5229,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -5228,67 +5237,67 @@
     <n v="56"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="57"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="58"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="59"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="60"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <s v="Link regional y datos MINMEG"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="8"/>
+    <m/>
+    <s v="Nati"/>
   </r>
   <r>
     <n v="61"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <s v="Link regional y datos MINMEG"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="8"/>
+    <m/>
+    <s v="Nati"/>
   </r>
   <r>
     <n v="62"/>
@@ -5297,7 +5306,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -5306,11 +5315,11 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="Título"/>
+    <s v="Título y datos MINMEG"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="8"/>
+    <m/>
+    <s v="Nati"/>
   </r>
   <r>
     <n v="64"/>
@@ -5319,7 +5328,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5328,77 +5337,77 @@
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <s v="Título y logo"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="66"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="2"/>
-    <s v="Link para agencia"/>
+    <x v="0"/>
+    <s v="Mover título de arriba"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="3"/>
+    <m/>
+    <s v="Nati"/>
   </r>
   <r>
     <n v="67"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="68"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="69"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link nacional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="70"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="71"/>
     <x v="1"/>
     <x v="21"/>
-    <x v="2"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="72"/>
@@ -5407,7 +5416,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5418,7 +5427,7 @@
     <x v="3"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5429,7 +5438,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5440,7 +5449,7 @@
     <x v="3"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5451,7 +5460,7 @@
     <x v="3"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5462,7 +5471,7 @@
     <x v="3"/>
     <m/>
     <s v="Yes"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5473,7 +5482,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -5484,7 +5493,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -5495,7 +5504,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -5503,12 +5512,12 @@
     <n v="81"/>
     <x v="7"/>
     <x v="25"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Actualizar a datos 2021"/>
     <s v="No"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="82"/>
@@ -5517,7 +5526,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5528,7 +5537,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5539,7 +5548,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5550,7 +5559,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5561,7 +5570,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5572,9 +5581,9 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Feña"/>
   </r>
   <r>
     <n v="88"/>
@@ -5583,7 +5592,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5594,7 +5603,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5605,7 +5614,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5613,67 +5622,67 @@
     <n v="91"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Revisar datos y Links N y R"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="92"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="93"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="94"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="95"/>
     <x v="5"/>
     <x v="26"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="96"/>
     <x v="5"/>
     <x v="26"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Link regional"/>
     <s v="Yes"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="97"/>
@@ -5682,7 +5691,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -5693,7 +5702,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -5704,7 +5713,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5715,7 +5724,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5726,7 +5735,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5737,7 +5746,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5748,7 +5757,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5759,7 +5768,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5770,7 +5779,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5781,7 +5790,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5792,7 +5801,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5803,7 +5812,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5814,7 +5823,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5825,7 +5834,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5836,7 +5845,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5847,7 +5856,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5858,7 +5867,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5869,7 +5878,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5880,7 +5889,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5891,7 +5900,7 @@
     <x v="3"/>
     <m/>
     <s v="No"/>
-    <x v="5"/>
+    <x v="6"/>
     <m/>
     <m/>
   </r>
@@ -5902,7 +5911,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <s v="Nati"/>
   </r>
@@ -5913,7 +5922,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5924,7 +5933,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -5935,7 +5944,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -5946,7 +5955,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5957,7 +5966,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5968,7 +5977,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5979,7 +5988,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -5990,7 +5999,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -6001,7 +6010,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <s v="Fernanda"/>
   </r>
@@ -6012,7 +6021,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6023,7 +6032,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6034,7 +6043,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6045,7 +6054,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6056,7 +6065,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6067,7 +6076,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6075,12 +6084,12 @@
     <n v="133"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Valores fuera de rango"/>
     <s v="Yes"/>
     <x v="2"/>
     <m/>
-    <m/>
+    <s v="Patricio"/>
   </r>
   <r>
     <n v="134"/>
@@ -6089,7 +6098,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <s v="Paula"/>
   </r>
@@ -6100,7 +6109,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6111,7 +6120,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6122,7 +6131,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6131,20 +6140,20 @@
     <x v="9"/>
     <x v="29"/>
     <x v="0"/>
-    <s v="Descripción"/>
+    <m/>
     <s v="No"/>
-    <x v="8"/>
-    <m/>
-    <m/>
+    <x v="9"/>
+    <m/>
+    <s v="Astrid"/>
   </r>
   <r>
     <n v="139"/>
     <x v="9"/>
     <x v="29"/>
     <x v="0"/>
-    <s v="Descripción"/>
+    <m/>
     <s v="No"/>
-    <x v="8"/>
+    <x v="9"/>
     <m/>
     <m/>
   </r>
@@ -6155,7 +6164,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6166,7 +6175,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <s v="Fernanda"/>
   </r>
@@ -6177,7 +6186,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -6188,7 +6197,7 @@
     <x v="0"/>
     <m/>
     <s v="Yes"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -6199,7 +6208,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -6210,7 +6219,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -6221,7 +6230,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6232,7 +6241,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6243,7 +6252,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6254,7 +6263,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6265,7 +6274,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6276,7 +6285,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6287,7 +6296,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6298,7 +6307,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6309,7 +6318,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6320,7 +6329,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6331,7 +6340,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
   </r>
@@ -6342,7 +6351,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6355,7 +6364,7 @@
     <s v="No"/>
     <x v="3"/>
     <m/>
-    <m/>
+    <s v="Nati (Caro)"/>
   </r>
   <r>
     <n v="159"/>
@@ -6364,7 +6373,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6375,7 +6384,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6386,7 +6395,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6397,7 +6406,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <s v="Paula"/>
   </r>
@@ -6408,7 +6417,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6419,7 +6428,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6430,7 +6439,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="7"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6441,7 +6450,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6452,7 +6461,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6463,7 +6472,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6474,7 +6483,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6485,7 +6494,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -6496,7 +6505,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6507,7 +6516,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6518,7 +6527,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6529,7 +6538,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6540,7 +6549,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6551,7 +6560,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6562,7 +6571,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6573,7 +6582,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6584,7 +6593,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6595,7 +6604,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6606,7 +6615,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6617,7 +6626,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6628,7 +6637,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Nati"/>
     <m/>
   </r>
@@ -6639,7 +6648,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6650,7 +6659,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6661,7 +6670,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6672,7 +6681,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6683,7 +6692,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6694,7 +6703,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6705,7 +6714,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6716,7 +6725,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6727,7 +6736,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6738,7 +6747,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6749,7 +6758,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6760,7 +6769,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6771,7 +6780,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6782,7 +6791,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6793,7 +6802,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6804,7 +6813,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6815,7 +6824,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6826,7 +6835,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6837,7 +6846,7 @@
     <x v="0"/>
     <m/>
     <s v="No"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -6845,7 +6854,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -6932,31 +6941,37 @@
         <item m="1" x="7"/>
         <item x="0"/>
         <item x="3"/>
-        <item x="2"/>
+        <item x="1"/>
         <item m="1" x="8"/>
         <item m="1" x="4"/>
         <item m="1" x="9"/>
         <item m="1" x="5"/>
-        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="5"/>
-        <item m="1" x="9"/>
+      <items count="19">
+        <item x="6"/>
         <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="0"/>
         <item x="3"/>
         <item x="7"/>
         <item x="2"/>
-        <item x="6"/>
+        <item m="1" x="13"/>
         <item x="1"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="8"/>
+        <item m="1" x="17"/>
+        <item x="9"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="15"/>
+        <item x="5"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7282,10 +7297,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:I210" totalsRowShown="0">
   <autoFilter ref="A8:I210" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Por ajustar"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G169">
@@ -13736,22 +13751,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>580</v>
+      </c>
+      <c r="C163" t="s">
+        <v>580</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>582</v>
+      </c>
+      <c r="F163" t="s">
         <v>583</v>
       </c>
-      <c r="C163" t="s">
-        <v>583</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
-        <v>585</v>
-      </c>
-      <c r="F163" t="s">
-        <v>586</v>
-      </c>
       <c r="G163" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H163" t="s">
         <v>16</v>
@@ -13763,43 +13778,43 @@
         <v>16</v>
       </c>
       <c r="K163" t="s">
+        <v>585</v>
+      </c>
+      <c r="L163" t="s">
+        <v>586</v>
+      </c>
+      <c r="M163" t="s">
+        <v>587</v>
+      </c>
+      <c r="N163" t="s">
         <v>588</v>
       </c>
-      <c r="L163" t="s">
+      <c r="O163" t="s">
         <v>589</v>
       </c>
-      <c r="M163" t="s">
+      <c r="P163" t="s">
         <v>590</v>
       </c>
-      <c r="N163" t="s">
+      <c r="Q163" t="s">
         <v>591</v>
       </c>
-      <c r="O163" t="s">
+      <c r="R163" t="s">
         <v>592</v>
       </c>
-      <c r="P163" t="s">
+      <c r="S163" t="s">
         <v>593</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>594</v>
-      </c>
-      <c r="R163" t="s">
-        <v>595</v>
-      </c>
-      <c r="S163" t="s">
-        <v>596</v>
       </c>
       <c r="T163" t="s">
         <v>158</v>
       </c>
       <c r="U163" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V163" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Z163" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -13807,22 +13822,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>580</v>
+      </c>
+      <c r="C164" t="s">
+        <v>580</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>582</v>
+      </c>
+      <c r="F164" t="s">
         <v>583</v>
       </c>
-      <c r="C164" t="s">
-        <v>583</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>585</v>
-      </c>
-      <c r="F164" t="s">
-        <v>586</v>
-      </c>
       <c r="G164" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -13831,46 +13846,46 @@
         <v>17</v>
       </c>
       <c r="J164" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K164">
         <v>2019</v>
       </c>
       <c r="L164" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M164" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N164" t="s">
+        <v>598</v>
+      </c>
+      <c r="O164" t="s">
+        <v>599</v>
+      </c>
+      <c r="P164" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q164" t="s">
         <v>601</v>
       </c>
-      <c r="O164" t="s">
+      <c r="R164" t="s">
         <v>602</v>
       </c>
-      <c r="P164" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>604</v>
-      </c>
-      <c r="R164" t="s">
-        <v>605</v>
-      </c>
       <c r="S164" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="T164" t="s">
         <v>158</v>
       </c>
       <c r="U164" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V164" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Z164" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -13878,22 +13893,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C165" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F165" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G165" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H165" t="s">
         <v>16</v>
@@ -13905,43 +13920,43 @@
         <v>244</v>
       </c>
       <c r="K165" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L165" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M165" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N165" t="s">
+        <v>606</v>
+      </c>
+      <c r="O165" t="s">
+        <v>607</v>
+      </c>
+      <c r="P165" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q165" t="s">
         <v>609</v>
       </c>
-      <c r="O165" t="s">
+      <c r="R165" t="s">
         <v>610</v>
       </c>
-      <c r="P165" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>612</v>
-      </c>
-      <c r="R165" t="s">
-        <v>613</v>
-      </c>
       <c r="S165" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="T165" t="s">
         <v>158</v>
       </c>
       <c r="U165" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V165" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Z165" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -13949,22 +13964,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C166" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F166" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G166" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H166" t="s">
         <v>16</v>
@@ -13979,40 +13994,40 @@
         <v>2019</v>
       </c>
       <c r="L166" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M166" t="s">
+        <v>587</v>
+      </c>
+      <c r="N166" t="s">
+        <v>611</v>
+      </c>
+      <c r="O166" t="s">
+        <v>612</v>
+      </c>
+      <c r="P166" t="s">
         <v>590</v>
       </c>
-      <c r="N166" t="s">
+      <c r="Q166" t="s">
+        <v>613</v>
+      </c>
+      <c r="R166" t="s">
         <v>614</v>
       </c>
-      <c r="O166" t="s">
-        <v>615</v>
-      </c>
-      <c r="P166" t="s">
+      <c r="S166" t="s">
         <v>593</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>616</v>
-      </c>
-      <c r="R166" t="s">
-        <v>617</v>
-      </c>
-      <c r="S166" t="s">
-        <v>596</v>
       </c>
       <c r="T166" t="s">
         <v>158</v>
       </c>
       <c r="U166" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V166" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Z166" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14029,13 +14044,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F167" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H167" t="s">
         <v>16</v>
@@ -14047,43 +14062,43 @@
         <v>16</v>
       </c>
       <c r="K167" t="s">
+        <v>617</v>
+      </c>
+      <c r="L167" t="s">
+        <v>618</v>
+      </c>
+      <c r="M167" t="s">
+        <v>619</v>
+      </c>
+      <c r="N167" t="s">
         <v>620</v>
       </c>
-      <c r="L167" t="s">
+      <c r="O167" t="s">
         <v>621</v>
       </c>
-      <c r="M167" t="s">
+      <c r="P167" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q167" t="s">
         <v>622</v>
       </c>
-      <c r="N167" t="s">
+      <c r="R167" t="s">
         <v>623</v>
       </c>
-      <c r="O167" t="s">
+      <c r="S167" t="s">
         <v>624</v>
-      </c>
-      <c r="P167" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>625</v>
-      </c>
-      <c r="R167" t="s">
-        <v>626</v>
-      </c>
-      <c r="S167" t="s">
-        <v>627</v>
       </c>
       <c r="T167" t="s">
         <v>24</v>
       </c>
       <c r="U167" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V167" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Z167" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14100,13 +14115,13 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F168" t="s">
         <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
@@ -14118,43 +14133,43 @@
         <v>16</v>
       </c>
       <c r="K168" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L168" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M168" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N168" t="s">
+        <v>628</v>
+      </c>
+      <c r="O168" t="s">
+        <v>629</v>
+      </c>
+      <c r="P168" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>630</v>
+      </c>
+      <c r="R168" t="s">
         <v>631</v>
       </c>
-      <c r="O168" t="s">
-        <v>632</v>
-      </c>
-      <c r="P168" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>633</v>
-      </c>
-      <c r="R168" t="s">
-        <v>634</v>
-      </c>
       <c r="S168" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="T168" t="s">
         <v>24</v>
       </c>
       <c r="U168" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V168" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Z168" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14171,13 +14186,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F169" t="s">
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H169" t="s">
         <v>16</v>
@@ -14189,40 +14204,40 @@
         <v>16</v>
       </c>
       <c r="K169" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L169" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M169" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N169" t="s">
+        <v>633</v>
+      </c>
+      <c r="O169" t="s">
+        <v>634</v>
+      </c>
+      <c r="P169" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>635</v>
+      </c>
+      <c r="R169" t="s">
         <v>636</v>
       </c>
-      <c r="O169" t="s">
-        <v>637</v>
-      </c>
-      <c r="P169" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>638</v>
-      </c>
-      <c r="R169" t="s">
-        <v>639</v>
-      </c>
       <c r="S169" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="T169" t="s">
         <v>24</v>
       </c>
       <c r="U169" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Z169" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14239,13 +14254,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F170" t="s">
         <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H170" t="s">
         <v>16</v>
@@ -14257,40 +14272,40 @@
         <v>16</v>
       </c>
       <c r="K170" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L170" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M170" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N170" t="s">
+        <v>638</v>
+      </c>
+      <c r="O170" t="s">
+        <v>639</v>
+      </c>
+      <c r="P170" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>640</v>
+      </c>
+      <c r="R170" t="s">
         <v>641</v>
       </c>
-      <c r="O170" t="s">
-        <v>642</v>
-      </c>
-      <c r="P170" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>643</v>
-      </c>
-      <c r="R170" t="s">
-        <v>644</v>
-      </c>
       <c r="S170" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="T170" t="s">
         <v>24</v>
       </c>
       <c r="U170" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Z170" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14307,13 +14322,13 @@
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F171" t="s">
         <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H171" t="s">
         <v>16</v>
@@ -14325,40 +14340,40 @@
         <v>16</v>
       </c>
       <c r="K171" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L171" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M171" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N171" t="s">
+        <v>643</v>
+      </c>
+      <c r="O171" t="s">
+        <v>644</v>
+      </c>
+      <c r="P171" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>645</v>
+      </c>
+      <c r="R171" t="s">
         <v>646</v>
       </c>
-      <c r="O171" t="s">
-        <v>647</v>
-      </c>
-      <c r="P171" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>648</v>
-      </c>
-      <c r="R171" t="s">
-        <v>649</v>
-      </c>
       <c r="S171" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="T171" t="s">
         <v>24</v>
       </c>
       <c r="U171" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Z171" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14366,10 +14381,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C172" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -14378,16 +14393,16 @@
         <v>258</v>
       </c>
       <c r="K172" t="s">
+        <v>648</v>
+      </c>
+      <c r="M172" t="s">
+        <v>649</v>
+      </c>
+      <c r="N172" t="s">
+        <v>650</v>
+      </c>
+      <c r="R172" t="s">
         <v>651</v>
-      </c>
-      <c r="M172" t="s">
-        <v>652</v>
-      </c>
-      <c r="N172" t="s">
-        <v>653</v>
-      </c>
-      <c r="R172" t="s">
-        <v>654</v>
       </c>
       <c r="T172" t="s">
         <v>110</v>
@@ -14398,10 +14413,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C173" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -14410,16 +14425,16 @@
         <v>258</v>
       </c>
       <c r="K173" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M173" t="s">
+        <v>649</v>
+      </c>
+      <c r="N173" t="s">
         <v>652</v>
       </c>
-      <c r="N173" t="s">
-        <v>655</v>
-      </c>
       <c r="R173" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14427,25 +14442,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C174" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
       </c>
       <c r="K174" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M174" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="N174" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="R174" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14462,16 +14477,16 @@
         <v>14</v>
       </c>
       <c r="K175" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M175" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N175" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="R175" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="T175" t="s">
         <v>110</v>
@@ -14491,13 +14506,13 @@
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N176" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="R176" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="T176" t="s">
         <v>110</v>
@@ -14520,19 +14535,19 @@
         <v>189</v>
       </c>
       <c r="G177" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K177" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M177" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N177" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="R177" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="T177" t="s">
         <v>110</v>
@@ -14552,19 +14567,19 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
+        <v>662</v>
+      </c>
+      <c r="K178" t="s">
+        <v>659</v>
+      </c>
+      <c r="M178" t="s">
+        <v>619</v>
+      </c>
+      <c r="N178" t="s">
         <v>665</v>
       </c>
-      <c r="K178" t="s">
-        <v>662</v>
-      </c>
-      <c r="M178" t="s">
-        <v>622</v>
-      </c>
-      <c r="N178" t="s">
-        <v>668</v>
-      </c>
       <c r="R178" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="T178" t="s">
         <v>110</v>
@@ -14575,10 +14590,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C179" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -14587,19 +14602,19 @@
         <v>189</v>
       </c>
       <c r="G179" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K179" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M179" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N179" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="R179" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14607,10 +14622,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C180" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -14619,22 +14634,22 @@
         <v>189</v>
       </c>
       <c r="K180" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M180" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N180" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="R180" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="T180" t="s">
         <v>110</v>
       </c>
       <c r="Z180" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14645,25 +14660,25 @@
         <v>357</v>
       </c>
       <c r="C181" t="s">
+        <v>674</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>675</v>
+      </c>
+      <c r="K181" t="s">
+        <v>659</v>
+      </c>
+      <c r="M181" t="s">
+        <v>676</v>
+      </c>
+      <c r="N181" t="s">
         <v>677</v>
       </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="R181" t="s">
         <v>678</v>
-      </c>
-      <c r="K181" t="s">
-        <v>662</v>
-      </c>
-      <c r="M181" t="s">
-        <v>679</v>
-      </c>
-      <c r="N181" t="s">
-        <v>680</v>
-      </c>
-      <c r="R181" t="s">
-        <v>681</v>
       </c>
       <c r="T181" t="s">
         <v>110</v>
@@ -14677,28 +14692,28 @@
         <v>357</v>
       </c>
       <c r="C182" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="K182" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M182" t="s">
+        <v>676</v>
+      </c>
+      <c r="N182" t="s">
         <v>679</v>
       </c>
-      <c r="N182" t="s">
-        <v>682</v>
-      </c>
       <c r="R182" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="T182" t="s">
         <v>110</v>
       </c>
       <c r="Z182" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14709,31 +14724,31 @@
         <v>357</v>
       </c>
       <c r="C183" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="G183" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K183" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M183" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N183" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="R183" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="T183" t="s">
         <v>110</v>
       </c>
       <c r="Z183" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14741,34 +14756,34 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C184" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F184" t="s">
         <v>189</v>
       </c>
       <c r="G184" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K184" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M184" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N184" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="R184" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="T184" t="s">
         <v>110</v>
@@ -14779,10 +14794,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C185" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -14791,22 +14806,22 @@
         <v>189</v>
       </c>
       <c r="K185" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M185" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N185" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="R185" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="T185" t="s">
         <v>110</v>
       </c>
       <c r="Z185" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14814,28 +14829,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C186" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G186" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M186" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N186" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="R186" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="T186" t="s">
         <v>110</v>
@@ -14846,40 +14861,40 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C187" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
       </c>
       <c r="E187" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F187" t="s">
         <v>189</v>
       </c>
       <c r="G187" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K187" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M187" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N187" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="R187" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="T187" t="s">
         <v>110</v>
       </c>
       <c r="Z187" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14887,37 +14902,37 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C188" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
       </c>
       <c r="E188" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G188" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K188" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M188" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N188" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="R188" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="T188" t="s">
         <v>110</v>
       </c>
       <c r="Z188" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14934,25 +14949,25 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
+        <v>697</v>
+      </c>
+      <c r="G189" t="s">
+        <v>698</v>
+      </c>
+      <c r="K189" t="s">
+        <v>659</v>
+      </c>
+      <c r="M189" t="s">
+        <v>699</v>
+      </c>
+      <c r="N189" t="s">
         <v>700</v>
       </c>
-      <c r="G189" t="s">
+      <c r="R189" t="s">
         <v>701</v>
       </c>
-      <c r="K189" t="s">
-        <v>662</v>
-      </c>
-      <c r="M189" t="s">
-        <v>702</v>
-      </c>
-      <c r="N189" t="s">
-        <v>703</v>
-      </c>
-      <c r="R189" t="s">
-        <v>704</v>
-      </c>
       <c r="Z189" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14969,25 +14984,25 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
+        <v>702</v>
+      </c>
+      <c r="G190" t="s">
+        <v>703</v>
+      </c>
+      <c r="K190" t="s">
+        <v>659</v>
+      </c>
+      <c r="M190" t="s">
+        <v>699</v>
+      </c>
+      <c r="N190" t="s">
+        <v>704</v>
+      </c>
+      <c r="R190" t="s">
         <v>705</v>
       </c>
-      <c r="G190" t="s">
-        <v>706</v>
-      </c>
-      <c r="K190" t="s">
-        <v>662</v>
-      </c>
-      <c r="M190" t="s">
-        <v>702</v>
-      </c>
-      <c r="N190" t="s">
-        <v>707</v>
-      </c>
-      <c r="R190" t="s">
-        <v>708</v>
-      </c>
       <c r="Z190" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15004,25 +15019,25 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
+        <v>706</v>
+      </c>
+      <c r="G191" t="s">
+        <v>707</v>
+      </c>
+      <c r="K191" t="s">
+        <v>659</v>
+      </c>
+      <c r="M191" t="s">
+        <v>699</v>
+      </c>
+      <c r="N191" t="s">
+        <v>708</v>
+      </c>
+      <c r="R191" t="s">
         <v>709</v>
       </c>
-      <c r="G191" t="s">
-        <v>710</v>
-      </c>
-      <c r="K191" t="s">
-        <v>662</v>
-      </c>
-      <c r="M191" t="s">
-        <v>702</v>
-      </c>
-      <c r="N191" t="s">
-        <v>711</v>
-      </c>
-      <c r="R191" t="s">
-        <v>712</v>
-      </c>
       <c r="Z191" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15039,25 +15054,25 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
+        <v>710</v>
+      </c>
+      <c r="G192" t="s">
+        <v>711</v>
+      </c>
+      <c r="K192" t="s">
+        <v>659</v>
+      </c>
+      <c r="M192" t="s">
+        <v>619</v>
+      </c>
+      <c r="N192" t="s">
+        <v>712</v>
+      </c>
+      <c r="R192" t="s">
         <v>713</v>
       </c>
-      <c r="G192" t="s">
-        <v>714</v>
-      </c>
-      <c r="K192" t="s">
-        <v>662</v>
-      </c>
-      <c r="M192" t="s">
-        <v>622</v>
-      </c>
-      <c r="N192" t="s">
-        <v>715</v>
-      </c>
-      <c r="R192" t="s">
-        <v>716</v>
-      </c>
       <c r="Z192" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15074,25 +15089,25 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
+        <v>714</v>
+      </c>
+      <c r="G193" t="s">
+        <v>715</v>
+      </c>
+      <c r="K193" t="s">
+        <v>659</v>
+      </c>
+      <c r="M193" t="s">
+        <v>619</v>
+      </c>
+      <c r="N193" t="s">
+        <v>716</v>
+      </c>
+      <c r="R193" t="s">
         <v>717</v>
       </c>
-      <c r="G193" t="s">
-        <v>718</v>
-      </c>
-      <c r="K193" t="s">
-        <v>662</v>
-      </c>
-      <c r="M193" t="s">
-        <v>622</v>
-      </c>
-      <c r="N193" t="s">
-        <v>719</v>
-      </c>
-      <c r="R193" t="s">
-        <v>720</v>
-      </c>
       <c r="Z193" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15109,25 +15124,25 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
+        <v>718</v>
+      </c>
+      <c r="G194" t="s">
+        <v>719</v>
+      </c>
+      <c r="K194" t="s">
+        <v>659</v>
+      </c>
+      <c r="M194" t="s">
+        <v>619</v>
+      </c>
+      <c r="N194" t="s">
+        <v>720</v>
+      </c>
+      <c r="R194" t="s">
         <v>721</v>
       </c>
-      <c r="G194" t="s">
-        <v>722</v>
-      </c>
-      <c r="K194" t="s">
-        <v>662</v>
-      </c>
-      <c r="M194" t="s">
-        <v>622</v>
-      </c>
-      <c r="N194" t="s">
-        <v>723</v>
-      </c>
-      <c r="R194" t="s">
-        <v>724</v>
-      </c>
       <c r="Z194" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15144,19 +15159,19 @@
         <v>14</v>
       </c>
       <c r="K195" t="s">
+        <v>722</v>
+      </c>
+      <c r="M195" t="s">
+        <v>723</v>
+      </c>
+      <c r="N195" t="s">
+        <v>724</v>
+      </c>
+      <c r="R195" t="s">
         <v>725</v>
       </c>
-      <c r="M195" t="s">
+      <c r="Z195" t="s">
         <v>726</v>
-      </c>
-      <c r="N195" t="s">
-        <v>727</v>
-      </c>
-      <c r="R195" t="s">
-        <v>728</v>
-      </c>
-      <c r="Z195" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15173,19 +15188,19 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M196" t="s">
+        <v>723</v>
+      </c>
+      <c r="N196" t="s">
+        <v>727</v>
+      </c>
+      <c r="R196" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z196" t="s">
         <v>726</v>
-      </c>
-      <c r="N196" t="s">
-        <v>730</v>
-      </c>
-      <c r="R196" t="s">
-        <v>731</v>
-      </c>
-      <c r="Z196" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15202,19 +15217,19 @@
         <v>14</v>
       </c>
       <c r="K197" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M197" t="s">
+        <v>723</v>
+      </c>
+      <c r="N197" t="s">
+        <v>729</v>
+      </c>
+      <c r="R197" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z197" t="s">
         <v>726</v>
-      </c>
-      <c r="N197" t="s">
-        <v>732</v>
-      </c>
-      <c r="R197" t="s">
-        <v>733</v>
-      </c>
-      <c r="Z197" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15222,25 +15237,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>731</v>
+      </c>
+      <c r="C198" t="s">
+        <v>731</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s">
+        <v>617</v>
+      </c>
+      <c r="M198" t="s">
+        <v>732</v>
+      </c>
+      <c r="N198" t="s">
+        <v>733</v>
+      </c>
+      <c r="R198" t="s">
         <v>734</v>
-      </c>
-      <c r="C198" t="s">
-        <v>734</v>
-      </c>
-      <c r="D198" t="s">
-        <v>14</v>
-      </c>
-      <c r="K198" t="s">
-        <v>620</v>
-      </c>
-      <c r="M198" t="s">
-        <v>735</v>
-      </c>
-      <c r="N198" t="s">
-        <v>736</v>
-      </c>
-      <c r="R198" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15248,25 +15263,25 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C199" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D199" t="s">
         <v>14</v>
       </c>
       <c r="K199" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M199" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="N199" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="R199" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15274,25 +15289,25 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C200" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M200" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="N200" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R200" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -15318,7 +15333,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A44"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15354,18 +15369,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B1" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -15373,22 +15388,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>758</v>
+      <c r="E4" t="s">
+        <v>750</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -15574,7 +15589,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B15" s="6">
         <v>5</v>
@@ -15594,12 +15609,10 @@
         <v>443</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>9</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
         <v>11</v>
@@ -15612,11 +15625,11 @@
       <c r="A17" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6">
-        <v>9</v>
-      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
         <v>9</v>
@@ -15701,13 +15714,13 @@
         <v>40</v>
       </c>
       <c r="B23" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6">
         <v>13</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6">
@@ -15718,12 +15731,10 @@
       <c r="A24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6">
@@ -15777,17 +15788,15 @@
         <v>383</v>
       </c>
       <c r="B28" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6">
-        <v>2</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
@@ -15809,17 +15818,15 @@
         <v>395</v>
       </c>
       <c r="B30" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
@@ -15827,11 +15834,11 @@
         <v>364</v>
       </c>
       <c r="B31" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6">
@@ -15857,10 +15864,12 @@
         <v>370</v>
       </c>
       <c r="B33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6">
         <v>3</v>
@@ -15871,12 +15880,10 @@
         <v>380</v>
       </c>
       <c r="B34" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6">
         <v>22</v>
@@ -15915,12 +15922,10 @@
         <v>486</v>
       </c>
       <c r="B37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6">
         <v>2</v>
@@ -16016,7 +16021,7 @@
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B44" s="6">
         <v>3</v>
@@ -16058,7 +16063,7 @@
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
@@ -16075,12 +16080,10 @@
         <v>149</v>
       </c>
       <c r="B48" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6">
         <v>10</v>
@@ -16091,12 +16094,10 @@
         <v>153</v>
       </c>
       <c r="B49" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6">
         <v>6</v>
@@ -16160,7 +16161,7 @@
     </row>
     <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B54" s="6">
         <v>2</v>
@@ -16174,7 +16175,7 @@
     </row>
     <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
@@ -16188,7 +16189,7 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B56" s="6">
         <v>4</v>
@@ -16202,7 +16203,7 @@
     </row>
     <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B57" s="6">
         <v>2</v>
@@ -16216,7 +16217,7 @@
     </row>
     <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B58" s="6">
         <v>2</v>
@@ -16230,22 +16231,22 @@
     </row>
     <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B59" s="6">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C59" s="6">
         <v>14</v>
       </c>
       <c r="D59" s="6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
@@ -16253,16 +16254,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>564</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="5"/>
@@ -16322,8 +16323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16333,6 +16334,7 @@
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -16355,16 +16357,16 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H8" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16377,11 +16379,15 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" t="s">
         <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -16509,7 +16515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -16526,7 +16532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -16546,7 +16552,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>11</v>
       </c>
@@ -16557,10 +16563,10 @@
         <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>564</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -16568,8 +16574,11 @@
       <c r="G19" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -16582,17 +16591,18 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>743</v>
-      </c>
+      <c r="E20" s="8"/>
       <c r="F20" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
@@ -16612,7 +16622,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -16632,7 +16642,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -16652,7 +16662,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -16672,7 +16682,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -16689,7 +16699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>18</v>
       </c>
@@ -16706,7 +16716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -16723,7 +16733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -16740,7 +16750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>21</v>
       </c>
@@ -16757,7 +16767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -16774,7 +16784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>23</v>
       </c>
@@ -16791,7 +16801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -16808,7 +16818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>25</v>
       </c>
@@ -16825,7 +16835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>26</v>
       </c>
@@ -16842,7 +16852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
@@ -16859,7 +16869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -16876,7 +16886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>29</v>
       </c>
@@ -16893,7 +16903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -16910,7 +16920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>31</v>
       </c>
@@ -16921,13 +16931,13 @@
         <v>395</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>32</v>
       </c>
@@ -16940,14 +16950,15 @@
       <c r="D40" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E40" s="8"/>
       <c r="F40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>33</v>
       </c>
@@ -16964,10 +16975,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>34</v>
       </c>
@@ -16987,7 +16998,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>35</v>
       </c>
@@ -17007,7 +17018,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>36</v>
       </c>
@@ -17024,7 +17035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>37</v>
       </c>
@@ -17041,7 +17052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>38</v>
       </c>
@@ -17058,7 +17069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>39</v>
       </c>
@@ -17071,17 +17082,18 @@
       <c r="D47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>747</v>
-      </c>
+      <c r="E47" s="8"/>
       <c r="F47" t="s">
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I47" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>40</v>
       </c>
@@ -17095,16 +17107,19 @@
         <v>564</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
       </c>
-      <c r="G48" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>41</v>
       </c>
@@ -17115,19 +17130,22 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>564</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
       </c>
-      <c r="G49" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>42</v>
       </c>
@@ -17138,19 +17156,22 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>564</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
-      <c r="G50" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>43</v>
       </c>
@@ -17161,16 +17182,16 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>44</v>
       </c>
@@ -17187,7 +17208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>45</v>
       </c>
@@ -17198,7 +17219,7 @@
         <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -17207,7 +17228,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>46</v>
       </c>
@@ -17227,7 +17248,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>47</v>
       </c>
@@ -17247,7 +17268,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>48</v>
       </c>
@@ -17267,7 +17288,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>49</v>
       </c>
@@ -17278,19 +17299,20 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>759</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E57" s="8"/>
       <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>50</v>
       </c>
@@ -17307,7 +17329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>51</v>
       </c>
@@ -17324,7 +17346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>52</v>
       </c>
@@ -17341,7 +17363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>53</v>
       </c>
@@ -17358,7 +17380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>54</v>
       </c>
@@ -17375,7 +17397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>55</v>
       </c>
@@ -17395,7 +17417,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>56</v>
       </c>
@@ -17406,19 +17428,20 @@
         <v>440</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E64" s="8"/>
       <c r="F64" t="s">
         <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I64" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>57</v>
       </c>
@@ -17429,19 +17452,20 @@
         <v>440</v>
       </c>
       <c r="D65" t="s">
-        <v>564</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E65" s="8"/>
       <c r="F65" t="s">
         <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I65" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>58</v>
       </c>
@@ -17452,19 +17476,20 @@
         <v>440</v>
       </c>
       <c r="D66" t="s">
-        <v>564</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E66" s="8"/>
       <c r="F66" t="s">
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I66" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>59</v>
       </c>
@@ -17475,19 +17500,20 @@
         <v>440</v>
       </c>
       <c r="D67" t="s">
-        <v>564</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E67" s="8"/>
       <c r="F67" t="s">
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I67" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>60</v>
       </c>
@@ -17498,19 +17524,22 @@
         <v>395</v>
       </c>
       <c r="D68" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>570</v>
+        <v>756</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
       </c>
-      <c r="G68" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G68" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>61</v>
       </c>
@@ -17521,19 +17550,22 @@
         <v>395</v>
       </c>
       <c r="D69" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>570</v>
+        <v>756</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
       </c>
-      <c r="G69" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>62</v>
       </c>
@@ -17553,7 +17585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>63</v>
       </c>
@@ -17567,16 +17599,19 @@
         <v>3</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>9</v>
+        <v>755</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
-      <c r="G71" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>64</v>
       </c>
@@ -17593,7 +17628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>65</v>
       </c>
@@ -17606,17 +17641,18 @@
       <c r="D73" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>571</v>
-      </c>
+      <c r="E73" s="8"/>
       <c r="F73" t="s">
         <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>66</v>
       </c>
@@ -17627,19 +17663,22 @@
         <v>486</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+      <c r="I74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>67</v>
       </c>
@@ -17650,19 +17689,20 @@
         <v>440</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E75" s="8"/>
       <c r="F75" t="s">
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I75" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>68</v>
       </c>
@@ -17673,19 +17713,20 @@
         <v>440</v>
       </c>
       <c r="D76" t="s">
-        <v>564</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E76" s="8"/>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I76" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>69</v>
       </c>
@@ -17696,19 +17737,20 @@
         <v>440</v>
       </c>
       <c r="D77" t="s">
-        <v>564</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>572</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E77" s="8"/>
       <c r="F77" t="s">
         <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I77" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>70</v>
       </c>
@@ -17719,19 +17761,20 @@
         <v>440</v>
       </c>
       <c r="D78" t="s">
-        <v>564</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E78" s="8"/>
       <c r="F78" t="s">
         <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>71</v>
       </c>
@@ -17742,19 +17785,20 @@
         <v>440</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E79" s="8"/>
       <c r="F79" t="s">
         <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="I79" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>72</v>
       </c>
@@ -17771,7 +17815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>73</v>
       </c>
@@ -17782,16 +17826,16 @@
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F81" t="s">
         <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>74</v>
       </c>
@@ -17802,16 +17846,16 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>75</v>
       </c>
@@ -17822,16 +17866,16 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F83" t="s">
         <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>76</v>
       </c>
@@ -17842,16 +17886,16 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F84" t="s">
         <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>77</v>
       </c>
@@ -17862,16 +17906,16 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F85" t="s">
         <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>78</v>
       </c>
@@ -17891,7 +17935,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>79</v>
       </c>
@@ -17911,7 +17955,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>80</v>
       </c>
@@ -17931,7 +17975,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>81</v>
       </c>
@@ -17945,16 +17989,19 @@
         <v>564</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="20" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I89" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>82</v>
       </c>
@@ -17972,10 +18019,10 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>83</v>
       </c>
@@ -17992,7 +18039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>84</v>
       </c>
@@ -18009,7 +18056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>85</v>
       </c>
@@ -18026,7 +18073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>86</v>
       </c>
@@ -18043,8 +18090,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="10">
         <v>87</v>
       </c>
       <c r="B95" t="s">
@@ -18056,17 +18103,18 @@
       <c r="D95" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>763</v>
-      </c>
+      <c r="E95" s="8"/>
       <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>88</v>
       </c>
@@ -18083,7 +18131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>89</v>
       </c>
@@ -18100,10 +18148,10 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>90</v>
       </c>
@@ -18120,7 +18168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>91</v>
       </c>
@@ -18134,16 +18182,19 @@
         <v>564</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F99" t="s">
         <v>43</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="20" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I99" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>92</v>
       </c>
@@ -18157,7 +18208,7 @@
         <v>564</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F100" t="s">
         <v>43</v>
@@ -18165,8 +18216,11 @@
       <c r="G100" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>93</v>
       </c>
@@ -18188,8 +18242,11 @@
       <c r="G101" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I101" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>94</v>
       </c>
@@ -18211,8 +18268,11 @@
       <c r="G102" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I102" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>95</v>
       </c>
@@ -18226,7 +18286,7 @@
         <v>564</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F103" t="s">
         <v>43</v>
@@ -18234,8 +18294,11 @@
       <c r="G103" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I103" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>96</v>
       </c>
@@ -18254,11 +18317,14 @@
       <c r="F104" t="s">
         <v>43</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>97</v>
       </c>
@@ -18278,7 +18344,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>98</v>
       </c>
@@ -18298,7 +18364,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>99</v>
       </c>
@@ -18315,10 +18381,10 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>100</v>
       </c>
@@ -18335,10 +18401,10 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>101</v>
       </c>
@@ -18355,10 +18421,10 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>102</v>
       </c>
@@ -18378,7 +18444,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>103</v>
       </c>
@@ -18398,7 +18464,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>104</v>
       </c>
@@ -18469,13 +18535,13 @@
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18489,13 +18555,13 @@
         <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18509,13 +18575,13 @@
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18529,13 +18595,13 @@
         <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18549,13 +18615,13 @@
         <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18576,7 +18642,7 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18596,7 +18662,7 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18627,13 +18693,13 @@
         <v>38</v>
       </c>
       <c r="D123" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18647,13 +18713,13 @@
         <v>38</v>
       </c>
       <c r="D124" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18753,7 +18819,7 @@
         <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18773,7 +18839,7 @@
         <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18793,7 +18859,7 @@
         <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18813,7 +18879,7 @@
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18833,7 +18899,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -18994,13 +19060,16 @@
         <v>564</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
       </c>
-      <c r="G141" t="s">
-        <v>566</v>
+      <c r="G141" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19023,7 +19092,7 @@
         <v>566</v>
       </c>
       <c r="I142" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19080,7 +19149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>138</v>
       </c>
@@ -19093,17 +19162,18 @@
       <c r="D146" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="8" t="s">
-        <v>582</v>
-      </c>
+      <c r="E146" s="8"/>
       <c r="F146" t="s">
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+      <c r="I146" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>139</v>
       </c>
@@ -19116,14 +19186,12 @@
       <c r="D147" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="8" t="s">
-        <v>582</v>
-      </c>
+      <c r="E147" s="8"/>
       <c r="F147" t="s">
         <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19164,7 +19232,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I149" t="s">
         <v>568</v>
@@ -19187,7 +19255,7 @@
         <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19207,7 +19275,7 @@
         <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19227,7 +19295,7 @@
         <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19248,7 +19316,7 @@
         <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19470,7 +19538,7 @@
         <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19490,8 +19558,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="13">
         <v>158</v>
       </c>
       <c r="B166" t="s">
@@ -19503,14 +19571,15 @@
       <c r="D166" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="8" t="s">
-        <v>762</v>
-      </c>
+      <c r="E166" s="8"/>
       <c r="F166" t="s">
         <v>14</v>
       </c>
-      <c r="G166" t="s">
-        <v>576</v>
+      <c r="G166" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="I166" s="19" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19575,10 +19644,10 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C170" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -19587,7 +19656,7 @@
         <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -19595,10 +19664,10 @@
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C171" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -19612,10 +19681,10 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C172" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -19629,10 +19698,10 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C173" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -19749,7 +19818,7 @@
         <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -19769,7 +19838,7 @@
         <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -19789,7 +19858,7 @@
         <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -19886,10 +19955,10 @@
         <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C186" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -19906,10 +19975,10 @@
         <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C187" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -19989,7 +20058,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -20012,7 +20081,7 @@
         <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -20032,7 +20101,7 @@
         <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -20052,7 +20121,7 @@
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -20072,7 +20141,7 @@
         <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -20272,7 +20341,7 @@
         <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -20292,7 +20361,7 @@
         <v>477</v>
       </c>
       <c r="C206" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -20312,7 +20381,7 @@
         <v>477</v>
       </c>
       <c r="C207" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA18EE-B79E-4365-BF02-74EA7289A2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BED4C1D-2A50-4E70-BF7A-6B6EACEC97CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="45" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -6854,7 +6854,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -15332,7 +15332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F7331-8E89-4662-A8A5-46AD4C836D77}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -16324,7 +16324,7 @@
   <dimension ref="A8:I210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16563,7 +16563,7 @@
         <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>750</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>740</v>
@@ -19066,7 +19066,7 @@
         <v>43</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I141" s="8" t="s">
         <v>567</v>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BED4C1D-2A50-4E70-BF7A-6B6EACEC97CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9659AEA3-8207-4B98-A9AA-49967D4D8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="764">
   <si>
     <t>id</t>
   </si>
@@ -1766,18 +1766,12 @@
     <t>Observación</t>
   </si>
   <si>
-    <t>Link regional</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
     <t>Abner-Patricio</t>
   </si>
   <si>
-    <t>Links N y R</t>
-  </si>
-  <si>
     <t>Caro</t>
   </si>
   <si>
@@ -2300,9 +2294,6 @@
     <t>Actualizar a datos 2021</t>
   </si>
   <si>
-    <t>Revisar datos y Links N y R</t>
-  </si>
-  <si>
     <t>Valores fuera de rango</t>
   </si>
   <si>
@@ -2340,6 +2331,21 @@
   </si>
   <si>
     <t>(Varios elementos)</t>
+  </si>
+  <si>
+    <t>Hay link de agencia</t>
+  </si>
+  <si>
+    <t>link ok</t>
+  </si>
+  <si>
+    <t>hacer link agencia</t>
+  </si>
+  <si>
+    <t>fijar color a los pueblos</t>
+  </si>
+  <si>
+    <t>Fijar color a rango etario, agregar filtro comuna a R</t>
   </si>
 </sst>
 </file>
@@ -2503,7 +2509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2737,6 +2743,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2899,7 +2911,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2932,6 +2944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4175,13 +4188,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:colOff>1397000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4257,9 +4270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4328,16 +4341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4406,16 +4419,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>250824</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4486,7 +4499,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44432.507889814813" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Karen Farias" refreshedDate="44439.519147222221" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{458BC53E-DB81-46BD-97B3-99253146F2CC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
@@ -4572,15 +4585,15 @@
     <cacheField name="ESTADO" numFmtId="0">
       <sharedItems containsBlank="1" count="10">
         <s v="Listo"/>
+        <s v="ELIMINADO"/>
         <s v="Por ajustar"/>
-        <s v="ELIMINADO"/>
         <s v="Pendiente"/>
         <m u="1"/>
+        <s v="EVALUAR" u="1"/>
+        <s v="Eliminar" u="1"/>
         <s v="Revisar" u="1"/>
+        <s v="Por hacer" u="1"/>
         <s v="DUDA" u="1"/>
-        <s v="EVALUAR" u="1"/>
-        <s v="Por hacer" u="1"/>
-        <s v="Eliminar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Observación" numFmtId="0">
@@ -4962,7 +4975,7 @@
     <n v="31"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <s v="No"/>
     <x v="1"/>
@@ -5061,7 +5074,7 @@
     <n v="40"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Revisando datos y Link regional"/>
     <s v="Yes"/>
     <x v="5"/>
@@ -5072,7 +5085,7 @@
     <n v="41"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Revisando datos"/>
     <s v="Yes"/>
     <x v="5"/>
@@ -5083,7 +5096,7 @@
     <n v="42"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Revisando datos"/>
     <s v="Yes"/>
     <x v="5"/>
@@ -5512,7 +5525,7 @@
     <n v="81"/>
     <x v="7"/>
     <x v="25"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Actualizar a datos 2021"/>
     <s v="No"/>
     <x v="2"/>
@@ -5622,7 +5635,7 @@
     <n v="91"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Revisar datos y Links N y R"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -5633,7 +5646,7 @@
     <n v="92"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Links N y R"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -5644,8 +5657,8 @@
     <n v="93"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
     <m/>
@@ -5655,8 +5668,8 @@
     <n v="94"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
     <m/>
@@ -5666,8 +5679,8 @@
     <n v="95"/>
     <x v="5"/>
     <x v="26"/>
-    <x v="1"/>
-    <s v="Links N y R"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
     <m/>
@@ -5677,8 +5690,8 @@
     <n v="96"/>
     <x v="5"/>
     <x v="26"/>
-    <x v="1"/>
-    <s v="Link regional"/>
+    <x v="0"/>
+    <m/>
     <s v="Yes"/>
     <x v="2"/>
     <m/>
@@ -6084,10 +6097,10 @@
     <n v="133"/>
     <x v="13"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Valores fuera de rango"/>
     <s v="Yes"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <s v="Patricio"/>
   </r>
@@ -6854,7 +6867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -6937,16 +6950,16 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="11">
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
         <item m="1" x="7"/>
-        <item x="0"/>
-        <item x="3"/>
         <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="9"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7296,13 +7309,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A8:I210" totalsRowShown="0">
-  <autoFilter ref="A8:I210" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Por ajustar"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A8:I210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G169">
     <sortCondition ref="A9:A169"/>
   </sortState>
@@ -13751,22 +13758,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>578</v>
+      </c>
+      <c r="C163" t="s">
+        <v>578</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
         <v>580</v>
       </c>
-      <c r="C163" t="s">
-        <v>580</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
+        <v>581</v>
+      </c>
+      <c r="G163" t="s">
         <v>582</v>
-      </c>
-      <c r="F163" t="s">
-        <v>583</v>
-      </c>
-      <c r="G163" t="s">
-        <v>584</v>
       </c>
       <c r="H163" t="s">
         <v>16</v>
@@ -13778,43 +13785,43 @@
         <v>16</v>
       </c>
       <c r="K163" t="s">
+        <v>583</v>
+      </c>
+      <c r="L163" t="s">
+        <v>584</v>
+      </c>
+      <c r="M163" t="s">
         <v>585</v>
       </c>
-      <c r="L163" t="s">
+      <c r="N163" t="s">
         <v>586</v>
       </c>
-      <c r="M163" t="s">
+      <c r="O163" t="s">
         <v>587</v>
       </c>
-      <c r="N163" t="s">
+      <c r="P163" t="s">
         <v>588</v>
       </c>
-      <c r="O163" t="s">
+      <c r="Q163" t="s">
         <v>589</v>
       </c>
-      <c r="P163" t="s">
+      <c r="R163" t="s">
         <v>590</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="S163" t="s">
         <v>591</v>
-      </c>
-      <c r="R163" t="s">
-        <v>592</v>
-      </c>
-      <c r="S163" t="s">
-        <v>593</v>
       </c>
       <c r="T163" t="s">
         <v>158</v>
       </c>
       <c r="U163" t="s">
+        <v>592</v>
+      </c>
+      <c r="V163" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z163" t="s">
         <v>594</v>
-      </c>
-      <c r="V163" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z163" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -13822,22 +13829,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>578</v>
+      </c>
+      <c r="C164" t="s">
+        <v>578</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
         <v>580</v>
       </c>
-      <c r="C164" t="s">
-        <v>580</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
+        <v>581</v>
+      </c>
+      <c r="G164" t="s">
         <v>582</v>
-      </c>
-      <c r="F164" t="s">
-        <v>583</v>
-      </c>
-      <c r="G164" t="s">
-        <v>584</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -13846,46 +13853,46 @@
         <v>17</v>
       </c>
       <c r="J164" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K164">
         <v>2019</v>
       </c>
       <c r="L164" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M164" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N164" t="s">
+        <v>596</v>
+      </c>
+      <c r="O164" t="s">
+        <v>597</v>
+      </c>
+      <c r="P164" t="s">
         <v>598</v>
       </c>
-      <c r="O164" t="s">
+      <c r="Q164" t="s">
         <v>599</v>
       </c>
-      <c r="P164" t="s">
+      <c r="R164" t="s">
         <v>600</v>
       </c>
-      <c r="Q164" t="s">
-        <v>601</v>
-      </c>
-      <c r="R164" t="s">
-        <v>602</v>
-      </c>
       <c r="S164" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T164" t="s">
         <v>158</v>
       </c>
       <c r="U164" t="s">
+        <v>592</v>
+      </c>
+      <c r="V164" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z164" t="s">
         <v>594</v>
-      </c>
-      <c r="V164" t="s">
-        <v>603</v>
-      </c>
-      <c r="Z164" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -13893,22 +13900,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>579</v>
+      </c>
+      <c r="C165" t="s">
+        <v>579</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>602</v>
+      </c>
+      <c r="F165" t="s">
         <v>581</v>
       </c>
-      <c r="C165" t="s">
-        <v>581</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>604</v>
-      </c>
-      <c r="F165" t="s">
-        <v>583</v>
-      </c>
       <c r="G165" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H165" t="s">
         <v>16</v>
@@ -13920,43 +13927,43 @@
         <v>244</v>
       </c>
       <c r="K165" t="s">
+        <v>583</v>
+      </c>
+      <c r="L165" t="s">
+        <v>584</v>
+      </c>
+      <c r="M165" t="s">
         <v>585</v>
       </c>
-      <c r="L165" t="s">
-        <v>586</v>
-      </c>
-      <c r="M165" t="s">
-        <v>587</v>
-      </c>
       <c r="N165" t="s">
+        <v>604</v>
+      </c>
+      <c r="O165" t="s">
+        <v>605</v>
+      </c>
+      <c r="P165" t="s">
         <v>606</v>
       </c>
-      <c r="O165" t="s">
+      <c r="Q165" t="s">
         <v>607</v>
       </c>
-      <c r="P165" t="s">
+      <c r="R165" t="s">
         <v>608</v>
       </c>
-      <c r="Q165" t="s">
-        <v>609</v>
-      </c>
-      <c r="R165" t="s">
-        <v>610</v>
-      </c>
       <c r="S165" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T165" t="s">
         <v>158</v>
       </c>
       <c r="U165" t="s">
+        <v>592</v>
+      </c>
+      <c r="V165" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z165" t="s">
         <v>594</v>
-      </c>
-      <c r="V165" t="s">
-        <v>603</v>
-      </c>
-      <c r="Z165" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -13964,22 +13971,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>579</v>
+      </c>
+      <c r="C166" t="s">
+        <v>579</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>602</v>
+      </c>
+      <c r="F166" t="s">
         <v>581</v>
       </c>
-      <c r="C166" t="s">
-        <v>581</v>
-      </c>
-      <c r="D166" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" t="s">
-        <v>604</v>
-      </c>
-      <c r="F166" t="s">
-        <v>583</v>
-      </c>
       <c r="G166" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H166" t="s">
         <v>16</v>
@@ -13994,40 +14001,40 @@
         <v>2019</v>
       </c>
       <c r="L166" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M166" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N166" t="s">
+        <v>609</v>
+      </c>
+      <c r="O166" t="s">
+        <v>610</v>
+      </c>
+      <c r="P166" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q166" t="s">
         <v>611</v>
       </c>
-      <c r="O166" t="s">
+      <c r="R166" t="s">
         <v>612</v>
       </c>
-      <c r="P166" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>613</v>
-      </c>
-      <c r="R166" t="s">
-        <v>614</v>
-      </c>
       <c r="S166" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T166" t="s">
         <v>158</v>
       </c>
       <c r="U166" t="s">
+        <v>592</v>
+      </c>
+      <c r="V166" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z166" t="s">
         <v>594</v>
-      </c>
-      <c r="V166" t="s">
-        <v>603</v>
-      </c>
-      <c r="Z166" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14044,13 +14051,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F167" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H167" t="s">
         <v>16</v>
@@ -14062,43 +14069,43 @@
         <v>16</v>
       </c>
       <c r="K167" t="s">
+        <v>615</v>
+      </c>
+      <c r="L167" t="s">
+        <v>616</v>
+      </c>
+      <c r="M167" t="s">
         <v>617</v>
       </c>
-      <c r="L167" t="s">
+      <c r="N167" t="s">
         <v>618</v>
       </c>
-      <c r="M167" t="s">
+      <c r="O167" t="s">
         <v>619</v>
       </c>
-      <c r="N167" t="s">
+      <c r="P167" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q167" t="s">
         <v>620</v>
       </c>
-      <c r="O167" t="s">
+      <c r="R167" t="s">
         <v>621</v>
       </c>
-      <c r="P167" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q167" t="s">
+      <c r="S167" t="s">
         <v>622</v>
-      </c>
-      <c r="R167" t="s">
-        <v>623</v>
-      </c>
-      <c r="S167" t="s">
-        <v>624</v>
       </c>
       <c r="T167" t="s">
         <v>24</v>
       </c>
       <c r="U167" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="V167" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Z167" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14115,13 +14122,13 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F168" t="s">
         <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
@@ -14133,43 +14140,43 @@
         <v>16</v>
       </c>
       <c r="K168" t="s">
+        <v>615</v>
+      </c>
+      <c r="L168" t="s">
+        <v>616</v>
+      </c>
+      <c r="M168" t="s">
         <v>617</v>
       </c>
-      <c r="L168" t="s">
-        <v>618</v>
-      </c>
-      <c r="M168" t="s">
-        <v>619</v>
-      </c>
       <c r="N168" t="s">
+        <v>626</v>
+      </c>
+      <c r="O168" t="s">
+        <v>627</v>
+      </c>
+      <c r="P168" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q168" t="s">
         <v>628</v>
       </c>
-      <c r="O168" t="s">
+      <c r="R168" t="s">
         <v>629</v>
       </c>
-      <c r="P168" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>630</v>
-      </c>
-      <c r="R168" t="s">
-        <v>631</v>
-      </c>
       <c r="S168" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T168" t="s">
         <v>24</v>
       </c>
       <c r="U168" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="V168" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Z168" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14186,13 +14193,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F169" t="s">
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H169" t="s">
         <v>16</v>
@@ -14204,40 +14211,40 @@
         <v>16</v>
       </c>
       <c r="K169" t="s">
+        <v>615</v>
+      </c>
+      <c r="L169" t="s">
+        <v>616</v>
+      </c>
+      <c r="M169" t="s">
         <v>617</v>
       </c>
-      <c r="L169" t="s">
-        <v>618</v>
-      </c>
-      <c r="M169" t="s">
-        <v>619</v>
-      </c>
       <c r="N169" t="s">
+        <v>631</v>
+      </c>
+      <c r="O169" t="s">
+        <v>632</v>
+      </c>
+      <c r="P169" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q169" t="s">
         <v>633</v>
       </c>
-      <c r="O169" t="s">
+      <c r="R169" t="s">
         <v>634</v>
       </c>
-      <c r="P169" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>635</v>
-      </c>
-      <c r="R169" t="s">
-        <v>636</v>
-      </c>
       <c r="S169" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T169" t="s">
         <v>24</v>
       </c>
       <c r="U169" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z169" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14254,13 +14261,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F170" t="s">
         <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H170" t="s">
         <v>16</v>
@@ -14272,40 +14279,40 @@
         <v>16</v>
       </c>
       <c r="K170" t="s">
+        <v>615</v>
+      </c>
+      <c r="L170" t="s">
+        <v>616</v>
+      </c>
+      <c r="M170" t="s">
         <v>617</v>
       </c>
-      <c r="L170" t="s">
-        <v>618</v>
-      </c>
-      <c r="M170" t="s">
-        <v>619</v>
-      </c>
       <c r="N170" t="s">
+        <v>636</v>
+      </c>
+      <c r="O170" t="s">
+        <v>637</v>
+      </c>
+      <c r="P170" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q170" t="s">
         <v>638</v>
       </c>
-      <c r="O170" t="s">
+      <c r="R170" t="s">
         <v>639</v>
       </c>
-      <c r="P170" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>640</v>
-      </c>
-      <c r="R170" t="s">
-        <v>641</v>
-      </c>
       <c r="S170" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T170" t="s">
         <v>24</v>
       </c>
       <c r="U170" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z170" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14322,13 +14329,13 @@
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F171" t="s">
         <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H171" t="s">
         <v>16</v>
@@ -14340,40 +14347,40 @@
         <v>16</v>
       </c>
       <c r="K171" t="s">
+        <v>615</v>
+      </c>
+      <c r="L171" t="s">
+        <v>616</v>
+      </c>
+      <c r="M171" t="s">
         <v>617</v>
       </c>
-      <c r="L171" t="s">
-        <v>618</v>
-      </c>
-      <c r="M171" t="s">
-        <v>619</v>
-      </c>
       <c r="N171" t="s">
+        <v>641</v>
+      </c>
+      <c r="O171" t="s">
+        <v>642</v>
+      </c>
+      <c r="P171" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q171" t="s">
         <v>643</v>
       </c>
-      <c r="O171" t="s">
+      <c r="R171" t="s">
         <v>644</v>
       </c>
-      <c r="P171" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>645</v>
-      </c>
-      <c r="R171" t="s">
-        <v>646</v>
-      </c>
       <c r="S171" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T171" t="s">
         <v>24</v>
       </c>
       <c r="U171" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z171" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14381,10 +14388,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C172" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -14393,16 +14400,16 @@
         <v>258</v>
       </c>
       <c r="K172" t="s">
+        <v>646</v>
+      </c>
+      <c r="M172" t="s">
+        <v>647</v>
+      </c>
+      <c r="N172" t="s">
         <v>648</v>
       </c>
-      <c r="M172" t="s">
+      <c r="R172" t="s">
         <v>649</v>
-      </c>
-      <c r="N172" t="s">
-        <v>650</v>
-      </c>
-      <c r="R172" t="s">
-        <v>651</v>
       </c>
       <c r="T172" t="s">
         <v>110</v>
@@ -14413,10 +14420,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C173" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -14425,16 +14432,16 @@
         <v>258</v>
       </c>
       <c r="K173" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M173" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N173" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="R173" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14442,25 +14449,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>645</v>
+      </c>
+      <c r="C174" t="s">
+        <v>645</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
+        <v>646</v>
+      </c>
+      <c r="M174" t="s">
         <v>647</v>
       </c>
-      <c r="C174" t="s">
-        <v>647</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="K174" t="s">
-        <v>648</v>
-      </c>
-      <c r="M174" t="s">
-        <v>649</v>
-      </c>
       <c r="N174" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="R174" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14477,16 +14484,16 @@
         <v>14</v>
       </c>
       <c r="K175" t="s">
+        <v>654</v>
+      </c>
+      <c r="M175" t="s">
+        <v>617</v>
+      </c>
+      <c r="N175" t="s">
+        <v>655</v>
+      </c>
+      <c r="R175" t="s">
         <v>656</v>
-      </c>
-      <c r="M175" t="s">
-        <v>619</v>
-      </c>
-      <c r="N175" t="s">
-        <v>657</v>
-      </c>
-      <c r="R175" t="s">
-        <v>658</v>
       </c>
       <c r="T175" t="s">
         <v>110</v>
@@ -14506,13 +14513,13 @@
         <v>14</v>
       </c>
       <c r="K176" t="s">
+        <v>657</v>
+      </c>
+      <c r="N176" t="s">
+        <v>658</v>
+      </c>
+      <c r="R176" t="s">
         <v>659</v>
-      </c>
-      <c r="N176" t="s">
-        <v>660</v>
-      </c>
-      <c r="R176" t="s">
-        <v>661</v>
       </c>
       <c r="T176" t="s">
         <v>110</v>
@@ -14535,19 +14542,19 @@
         <v>189</v>
       </c>
       <c r="G177" t="s">
+        <v>660</v>
+      </c>
+      <c r="K177" t="s">
+        <v>657</v>
+      </c>
+      <c r="M177" t="s">
+        <v>617</v>
+      </c>
+      <c r="N177" t="s">
+        <v>661</v>
+      </c>
+      <c r="R177" t="s">
         <v>662</v>
-      </c>
-      <c r="K177" t="s">
-        <v>659</v>
-      </c>
-      <c r="M177" t="s">
-        <v>619</v>
-      </c>
-      <c r="N177" t="s">
-        <v>663</v>
-      </c>
-      <c r="R177" t="s">
-        <v>664</v>
       </c>
       <c r="T177" t="s">
         <v>110</v>
@@ -14567,19 +14574,19 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K178" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M178" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N178" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R178" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="T178" t="s">
         <v>110</v>
@@ -14590,10 +14597,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C179" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -14602,19 +14609,19 @@
         <v>189</v>
       </c>
       <c r="G179" t="s">
+        <v>666</v>
+      </c>
+      <c r="K179" t="s">
+        <v>657</v>
+      </c>
+      <c r="M179" t="s">
+        <v>617</v>
+      </c>
+      <c r="N179" t="s">
+        <v>667</v>
+      </c>
+      <c r="R179" t="s">
         <v>668</v>
-      </c>
-      <c r="K179" t="s">
-        <v>659</v>
-      </c>
-      <c r="M179" t="s">
-        <v>619</v>
-      </c>
-      <c r="N179" t="s">
-        <v>669</v>
-      </c>
-      <c r="R179" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14622,10 +14629,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C180" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -14634,22 +14641,22 @@
         <v>189</v>
       </c>
       <c r="K180" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M180" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N180" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="R180" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="T180" t="s">
         <v>110</v>
       </c>
       <c r="Z180" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14660,25 +14667,25 @@
         <v>357</v>
       </c>
       <c r="C181" t="s">
+        <v>672</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>673</v>
+      </c>
+      <c r="K181" t="s">
+        <v>657</v>
+      </c>
+      <c r="M181" t="s">
         <v>674</v>
       </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="N181" t="s">
         <v>675</v>
       </c>
-      <c r="K181" t="s">
-        <v>659</v>
-      </c>
-      <c r="M181" t="s">
+      <c r="R181" t="s">
         <v>676</v>
-      </c>
-      <c r="N181" t="s">
-        <v>677</v>
-      </c>
-      <c r="R181" t="s">
-        <v>678</v>
       </c>
       <c r="T181" t="s">
         <v>110</v>
@@ -14692,28 +14699,28 @@
         <v>357</v>
       </c>
       <c r="C182" t="s">
+        <v>672</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s">
+        <v>657</v>
+      </c>
+      <c r="M182" t="s">
         <v>674</v>
       </c>
-      <c r="D182" t="s">
-        <v>14</v>
-      </c>
-      <c r="K182" t="s">
-        <v>659</v>
-      </c>
-      <c r="M182" t="s">
-        <v>676</v>
-      </c>
       <c r="N182" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="R182" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T182" t="s">
         <v>110</v>
       </c>
       <c r="Z182" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14724,31 +14731,31 @@
         <v>357</v>
       </c>
       <c r="C183" t="s">
+        <v>672</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>679</v>
+      </c>
+      <c r="K183" t="s">
+        <v>657</v>
+      </c>
+      <c r="M183" t="s">
         <v>674</v>
       </c>
-      <c r="D183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="N183" t="s">
+        <v>680</v>
+      </c>
+      <c r="R183" t="s">
         <v>681</v>
-      </c>
-      <c r="K183" t="s">
-        <v>659</v>
-      </c>
-      <c r="M183" t="s">
-        <v>676</v>
-      </c>
-      <c r="N183" t="s">
-        <v>682</v>
-      </c>
-      <c r="R183" t="s">
-        <v>683</v>
       </c>
       <c r="T183" t="s">
         <v>110</v>
       </c>
       <c r="Z183" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14756,34 +14763,34 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C184" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
         <v>189</v>
       </c>
       <c r="G184" t="s">
+        <v>684</v>
+      </c>
+      <c r="K184" t="s">
+        <v>657</v>
+      </c>
+      <c r="M184" t="s">
+        <v>617</v>
+      </c>
+      <c r="N184" t="s">
+        <v>685</v>
+      </c>
+      <c r="R184" t="s">
         <v>686</v>
-      </c>
-      <c r="K184" t="s">
-        <v>659</v>
-      </c>
-      <c r="M184" t="s">
-        <v>619</v>
-      </c>
-      <c r="N184" t="s">
-        <v>687</v>
-      </c>
-      <c r="R184" t="s">
-        <v>688</v>
       </c>
       <c r="T184" t="s">
         <v>110</v>
@@ -14794,10 +14801,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C185" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -14806,22 +14813,22 @@
         <v>189</v>
       </c>
       <c r="K185" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M185" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N185" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="R185" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T185" t="s">
         <v>110</v>
       </c>
       <c r="Z185" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14829,28 +14836,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>682</v>
+      </c>
+      <c r="C186" t="s">
+        <v>682</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>683</v>
+      </c>
+      <c r="G186" t="s">
         <v>684</v>
       </c>
-      <c r="C186" t="s">
-        <v>684</v>
-      </c>
-      <c r="D186" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" t="s">
-        <v>685</v>
-      </c>
-      <c r="G186" t="s">
-        <v>686</v>
-      </c>
       <c r="M186" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N186" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="R186" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T186" t="s">
         <v>110</v>
@@ -14861,40 +14868,40 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C187" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
       </c>
       <c r="E187" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F187" t="s">
         <v>189</v>
       </c>
       <c r="G187" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K187" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M187" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N187" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="R187" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="T187" t="s">
         <v>110</v>
       </c>
       <c r="Z187" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14902,37 +14909,37 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>682</v>
+      </c>
+      <c r="C188" t="s">
+        <v>682</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>683</v>
+      </c>
+      <c r="G188" t="s">
         <v>684</v>
       </c>
-      <c r="C188" t="s">
-        <v>684</v>
-      </c>
-      <c r="D188" t="s">
-        <v>14</v>
-      </c>
-      <c r="E188" t="s">
-        <v>685</v>
-      </c>
-      <c r="G188" t="s">
-        <v>686</v>
-      </c>
       <c r="K188" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M188" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N188" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="R188" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="T188" t="s">
         <v>110</v>
       </c>
       <c r="Z188" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14949,25 +14956,25 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
+        <v>695</v>
+      </c>
+      <c r="G189" t="s">
+        <v>696</v>
+      </c>
+      <c r="K189" t="s">
+        <v>657</v>
+      </c>
+      <c r="M189" t="s">
         <v>697</v>
       </c>
-      <c r="G189" t="s">
+      <c r="N189" t="s">
         <v>698</v>
       </c>
-      <c r="K189" t="s">
-        <v>659</v>
-      </c>
-      <c r="M189" t="s">
+      <c r="R189" t="s">
         <v>699</v>
       </c>
-      <c r="N189" t="s">
-        <v>700</v>
-      </c>
-      <c r="R189" t="s">
-        <v>701</v>
-      </c>
       <c r="Z189" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -14984,25 +14991,25 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
+        <v>700</v>
+      </c>
+      <c r="G190" t="s">
+        <v>701</v>
+      </c>
+      <c r="K190" t="s">
+        <v>657</v>
+      </c>
+      <c r="M190" t="s">
+        <v>697</v>
+      </c>
+      <c r="N190" t="s">
         <v>702</v>
       </c>
-      <c r="G190" t="s">
+      <c r="R190" t="s">
         <v>703</v>
       </c>
-      <c r="K190" t="s">
-        <v>659</v>
-      </c>
-      <c r="M190" t="s">
-        <v>699</v>
-      </c>
-      <c r="N190" t="s">
-        <v>704</v>
-      </c>
-      <c r="R190" t="s">
-        <v>705</v>
-      </c>
       <c r="Z190" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15019,25 +15026,25 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
+        <v>704</v>
+      </c>
+      <c r="G191" t="s">
+        <v>705</v>
+      </c>
+      <c r="K191" t="s">
+        <v>657</v>
+      </c>
+      <c r="M191" t="s">
+        <v>697</v>
+      </c>
+      <c r="N191" t="s">
         <v>706</v>
       </c>
-      <c r="G191" t="s">
+      <c r="R191" t="s">
         <v>707</v>
       </c>
-      <c r="K191" t="s">
-        <v>659</v>
-      </c>
-      <c r="M191" t="s">
-        <v>699</v>
-      </c>
-      <c r="N191" t="s">
-        <v>708</v>
-      </c>
-      <c r="R191" t="s">
-        <v>709</v>
-      </c>
       <c r="Z191" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15054,25 +15061,25 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
+        <v>708</v>
+      </c>
+      <c r="G192" t="s">
+        <v>709</v>
+      </c>
+      <c r="K192" t="s">
+        <v>657</v>
+      </c>
+      <c r="M192" t="s">
+        <v>617</v>
+      </c>
+      <c r="N192" t="s">
         <v>710</v>
       </c>
-      <c r="G192" t="s">
+      <c r="R192" t="s">
         <v>711</v>
       </c>
-      <c r="K192" t="s">
-        <v>659</v>
-      </c>
-      <c r="M192" t="s">
-        <v>619</v>
-      </c>
-      <c r="N192" t="s">
-        <v>712</v>
-      </c>
-      <c r="R192" t="s">
-        <v>713</v>
-      </c>
       <c r="Z192" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15089,25 +15096,25 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
+        <v>712</v>
+      </c>
+      <c r="G193" t="s">
+        <v>713</v>
+      </c>
+      <c r="K193" t="s">
+        <v>657</v>
+      </c>
+      <c r="M193" t="s">
+        <v>617</v>
+      </c>
+      <c r="N193" t="s">
         <v>714</v>
       </c>
-      <c r="G193" t="s">
+      <c r="R193" t="s">
         <v>715</v>
       </c>
-      <c r="K193" t="s">
-        <v>659</v>
-      </c>
-      <c r="M193" t="s">
-        <v>619</v>
-      </c>
-      <c r="N193" t="s">
-        <v>716</v>
-      </c>
-      <c r="R193" t="s">
-        <v>717</v>
-      </c>
       <c r="Z193" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15124,25 +15131,25 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
+        <v>716</v>
+      </c>
+      <c r="G194" t="s">
+        <v>717</v>
+      </c>
+      <c r="K194" t="s">
+        <v>657</v>
+      </c>
+      <c r="M194" t="s">
+        <v>617</v>
+      </c>
+      <c r="N194" t="s">
         <v>718</v>
       </c>
-      <c r="G194" t="s">
+      <c r="R194" t="s">
         <v>719</v>
       </c>
-      <c r="K194" t="s">
-        <v>659</v>
-      </c>
-      <c r="M194" t="s">
-        <v>619</v>
-      </c>
-      <c r="N194" t="s">
-        <v>720</v>
-      </c>
-      <c r="R194" t="s">
-        <v>721</v>
-      </c>
       <c r="Z194" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15159,19 +15166,19 @@
         <v>14</v>
       </c>
       <c r="K195" t="s">
+        <v>720</v>
+      </c>
+      <c r="M195" t="s">
+        <v>721</v>
+      </c>
+      <c r="N195" t="s">
         <v>722</v>
       </c>
-      <c r="M195" t="s">
+      <c r="R195" t="s">
         <v>723</v>
       </c>
-      <c r="N195" t="s">
+      <c r="Z195" t="s">
         <v>724</v>
-      </c>
-      <c r="R195" t="s">
-        <v>725</v>
-      </c>
-      <c r="Z195" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15188,19 +15195,19 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M196" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N196" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="R196" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Z196" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15217,19 +15224,19 @@
         <v>14</v>
       </c>
       <c r="K197" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M197" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N197" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="R197" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Z197" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15237,25 +15244,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>729</v>
+      </c>
+      <c r="C198" t="s">
+        <v>729</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s">
+        <v>615</v>
+      </c>
+      <c r="M198" t="s">
+        <v>730</v>
+      </c>
+      <c r="N198" t="s">
         <v>731</v>
       </c>
-      <c r="C198" t="s">
-        <v>731</v>
-      </c>
-      <c r="D198" t="s">
-        <v>14</v>
-      </c>
-      <c r="K198" t="s">
-        <v>617</v>
-      </c>
-      <c r="M198" t="s">
+      <c r="R198" t="s">
         <v>732</v>
-      </c>
-      <c r="N198" t="s">
-        <v>733</v>
-      </c>
-      <c r="R198" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15263,25 +15270,25 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D199" t="s">
         <v>14</v>
       </c>
       <c r="K199" t="s">
+        <v>733</v>
+      </c>
+      <c r="M199" t="s">
+        <v>730</v>
+      </c>
+      <c r="N199" t="s">
+        <v>734</v>
+      </c>
+      <c r="R199" t="s">
         <v>735</v>
-      </c>
-      <c r="M199" t="s">
-        <v>732</v>
-      </c>
-      <c r="N199" t="s">
-        <v>736</v>
-      </c>
-      <c r="R199" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -15289,25 +15296,25 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M200" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="N200" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="R200" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -15332,18 +15339,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F7331-8E89-4662-A8A5-46AD4C836D77}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
@@ -15369,18 +15376,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -15388,22 +15395,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -15414,13 +15421,13 @@
         <v>301</v>
       </c>
       <c r="B5" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
@@ -15452,11 +15459,11 @@
         <v>340</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
@@ -15589,7 +15596,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B15" s="6">
         <v>5</v>
@@ -15834,13 +15841,13 @@
         <v>364</v>
       </c>
       <c r="B31" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
       <c r="F31" s="6">
         <v>5</v>
       </c>
@@ -15849,11 +15856,11 @@
       <c r="A32" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
-        <v>2</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <v>2</v>
@@ -15867,10 +15874,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="6"/>
       <c r="F33" s="6">
         <v>3</v>
       </c>
@@ -15950,12 +15957,10 @@
         <v>258</v>
       </c>
       <c r="B39" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6">
         <v>19</v>
@@ -15994,12 +15999,10 @@
         <v>268</v>
       </c>
       <c r="B42" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6">
         <v>4</v>
@@ -16021,7 +16024,7 @@
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B44" s="6">
         <v>3</v>
@@ -16063,7 +16066,7 @@
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
@@ -16161,7 +16164,7 @@
     </row>
     <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B54" s="6">
         <v>2</v>
@@ -16175,7 +16178,7 @@
     </row>
     <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
@@ -16189,7 +16192,7 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B56" s="6">
         <v>4</v>
@@ -16203,7 +16206,7 @@
     </row>
     <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B57" s="6">
         <v>2</v>
@@ -16217,7 +16220,7 @@
     </row>
     <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B58" s="6">
         <v>2</v>
@@ -16231,19 +16234,19 @@
     </row>
     <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B59" s="6">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C59" s="6">
         <v>14</v>
       </c>
       <c r="D59" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="6">
         <v>199</v>
@@ -16254,16 +16257,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>564</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="5"/>
@@ -16323,8 +16326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16332,7 +16335,7 @@
     <col min="2" max="2" width="15.90625" customWidth="1"/>
     <col min="3" max="3" width="27.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
     <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -16357,16 +16360,16 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H8" t="s">
+        <v>740</v>
+      </c>
+      <c r="I8" t="s">
         <v>742</v>
       </c>
-      <c r="I8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16387,10 +16390,10 @@
         <v>568</v>
       </c>
       <c r="I9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -16407,7 +16410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16424,7 +16427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16441,7 +16444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -16458,7 +16461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -16478,7 +16481,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -16498,7 +16501,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -16515,7 +16518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -16532,7 +16535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -16563,10 +16566,10 @@
         <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -16578,7 +16581,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -16602,7 +16605,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
@@ -16622,7 +16625,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -16642,7 +16645,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -16662,7 +16665,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -16682,7 +16685,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -16699,7 +16702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>18</v>
       </c>
@@ -16716,7 +16719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -16733,7 +16736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -16750,7 +16753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>21</v>
       </c>
@@ -16767,7 +16770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -16784,7 +16787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>23</v>
       </c>
@@ -16801,7 +16804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -16818,7 +16821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>25</v>
       </c>
@@ -16835,7 +16838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>26</v>
       </c>
@@ -16852,7 +16855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
@@ -16869,7 +16872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -16886,7 +16889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>29</v>
       </c>
@@ -16903,7 +16906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -16920,7 +16923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>31</v>
       </c>
@@ -16931,13 +16934,13 @@
         <v>395</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>32</v>
       </c>
@@ -16958,7 +16961,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>33</v>
       </c>
@@ -16975,10 +16978,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>34</v>
       </c>
@@ -16998,7 +17001,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>35</v>
       </c>
@@ -17018,7 +17021,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>36</v>
       </c>
@@ -17035,7 +17038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>37</v>
       </c>
@@ -17052,7 +17055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>38</v>
       </c>
@@ -17069,7 +17072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>39</v>
       </c>
@@ -17090,7 +17093,7 @@
         <v>568</v>
       </c>
       <c r="I47" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -17107,16 +17110,16 @@
         <v>564</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -17130,19 +17133,19 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -17156,22 +17159,22 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>43</v>
       </c>
@@ -17182,16 +17185,16 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
+        <v>570</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
         <v>571</v>
       </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>44</v>
       </c>
@@ -17208,7 +17211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>45</v>
       </c>
@@ -17219,7 +17222,7 @@
         <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -17228,7 +17231,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>46</v>
       </c>
@@ -17248,7 +17251,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>47</v>
       </c>
@@ -17268,7 +17271,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>48</v>
       </c>
@@ -17288,7 +17291,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>49</v>
       </c>
@@ -17312,7 +17315,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>50</v>
       </c>
@@ -17329,7 +17332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>51</v>
       </c>
@@ -17346,7 +17349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>52</v>
       </c>
@@ -17363,7 +17366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>53</v>
       </c>
@@ -17380,7 +17383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>54</v>
       </c>
@@ -17397,7 +17400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>55</v>
       </c>
@@ -17417,7 +17420,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>56</v>
       </c>
@@ -17438,10 +17441,10 @@
         <v>568</v>
       </c>
       <c r="I64" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>57</v>
       </c>
@@ -17462,10 +17465,10 @@
         <v>568</v>
       </c>
       <c r="I65" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>58</v>
       </c>
@@ -17486,10 +17489,10 @@
         <v>568</v>
       </c>
       <c r="I66" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>59</v>
       </c>
@@ -17510,10 +17513,10 @@
         <v>568</v>
       </c>
       <c r="I67" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>60</v>
       </c>
@@ -17527,19 +17530,19 @@
         <v>3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>61</v>
       </c>
@@ -17553,19 +17556,19 @@
         <v>3</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>62</v>
       </c>
@@ -17585,7 +17588,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>63</v>
       </c>
@@ -17599,19 +17602,19 @@
         <v>3</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>64</v>
       </c>
@@ -17628,7 +17631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>65</v>
       </c>
@@ -17652,7 +17655,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>66</v>
       </c>
@@ -17666,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -17678,7 +17681,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>67</v>
       </c>
@@ -17699,10 +17702,10 @@
         <v>568</v>
       </c>
       <c r="I75" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>68</v>
       </c>
@@ -17723,10 +17726,10 @@
         <v>568</v>
       </c>
       <c r="I76" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>69</v>
       </c>
@@ -17747,10 +17750,10 @@
         <v>568</v>
       </c>
       <c r="I77" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>70</v>
       </c>
@@ -17771,10 +17774,10 @@
         <v>568</v>
       </c>
       <c r="I78" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>71</v>
       </c>
@@ -17795,10 +17798,10 @@
         <v>568</v>
       </c>
       <c r="I79" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>72</v>
       </c>
@@ -17815,7 +17818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>73</v>
       </c>
@@ -17826,16 +17829,16 @@
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F81" t="s">
         <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>74</v>
       </c>
@@ -17846,16 +17849,16 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
+        <v>570</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
         <v>571</v>
       </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>75</v>
       </c>
@@ -17866,16 +17869,16 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F83" t="s">
         <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>76</v>
       </c>
@@ -17886,16 +17889,16 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F84" t="s">
         <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>77</v>
       </c>
@@ -17906,16 +17909,16 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F85" t="s">
         <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>78</v>
       </c>
@@ -17935,7 +17938,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>79</v>
       </c>
@@ -17955,7 +17958,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>80</v>
       </c>
@@ -17986,10 +17989,10 @@
         <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -18001,7 +18004,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>82</v>
       </c>
@@ -18019,10 +18022,10 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>83</v>
       </c>
@@ -18039,7 +18042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>84</v>
       </c>
@@ -18056,7 +18059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>85</v>
       </c>
@@ -18073,7 +18076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>86</v>
       </c>
@@ -18090,7 +18093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
         <v>87</v>
       </c>
@@ -18111,10 +18114,10 @@
         <v>568</v>
       </c>
       <c r="I95" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>88</v>
       </c>
@@ -18131,7 +18134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>89</v>
       </c>
@@ -18148,10 +18151,10 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>90</v>
       </c>
@@ -18179,11 +18182,9 @@
         <v>340</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>748</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E99" s="8"/>
       <c r="F99" t="s">
         <v>43</v>
       </c>
@@ -18205,11 +18206,9 @@
         <v>340</v>
       </c>
       <c r="D100" t="s">
-        <v>564</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>573</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="E100" s="8"/>
       <c r="F100" t="s">
         <v>43</v>
       </c>
@@ -18231,11 +18230,9 @@
         <v>340</v>
       </c>
       <c r="D101" t="s">
-        <v>564</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E101" s="8"/>
       <c r="F101" t="s">
         <v>43</v>
       </c>
@@ -18257,11 +18254,9 @@
         <v>340</v>
       </c>
       <c r="D102" t="s">
-        <v>564</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E102" s="8"/>
       <c r="F102" t="s">
         <v>43</v>
       </c>
@@ -18283,11 +18278,9 @@
         <v>362</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>573</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E103" s="8"/>
       <c r="F103" t="s">
         <v>43</v>
       </c>
@@ -18309,11 +18302,9 @@
         <v>362</v>
       </c>
       <c r="D104" t="s">
-        <v>564</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>570</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E104" s="8"/>
       <c r="F104" t="s">
         <v>43</v>
       </c>
@@ -18324,7 +18315,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>97</v>
       </c>
@@ -18344,7 +18335,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>98</v>
       </c>
@@ -18364,7 +18355,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>99</v>
       </c>
@@ -18381,10 +18372,10 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>100</v>
       </c>
@@ -18401,10 +18392,10 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>101</v>
       </c>
@@ -18421,10 +18412,10 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>102</v>
       </c>
@@ -18444,7 +18435,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>103</v>
       </c>
@@ -18464,7 +18455,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>104</v>
       </c>
@@ -18484,7 +18475,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>105</v>
       </c>
@@ -18504,7 +18495,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>106</v>
       </c>
@@ -18524,7 +18515,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>107</v>
       </c>
@@ -18535,16 +18526,16 @@
         <v>38</v>
       </c>
       <c r="D115" t="s">
+        <v>570</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
         <v>571</v>
       </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>108</v>
       </c>
@@ -18555,16 +18546,16 @@
         <v>38</v>
       </c>
       <c r="D116" t="s">
+        <v>570</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
         <v>571</v>
       </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>109</v>
       </c>
@@ -18575,16 +18566,16 @@
         <v>38</v>
       </c>
       <c r="D117" t="s">
+        <v>570</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
         <v>571</v>
       </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>110</v>
       </c>
@@ -18595,16 +18586,16 @@
         <v>38</v>
       </c>
       <c r="D118" t="s">
+        <v>570</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
         <v>571</v>
       </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>111</v>
       </c>
@@ -18615,16 +18606,16 @@
         <v>38</v>
       </c>
       <c r="D119" t="s">
+        <v>570</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
         <v>571</v>
       </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>112</v>
       </c>
@@ -18642,10 +18633,10 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>113</v>
       </c>
@@ -18662,10 +18653,10 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>114</v>
       </c>
@@ -18682,7 +18673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>115</v>
       </c>
@@ -18693,16 +18684,16 @@
         <v>38</v>
       </c>
       <c r="D123" t="s">
+        <v>570</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
         <v>571</v>
       </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>116</v>
       </c>
@@ -18713,16 +18704,16 @@
         <v>38</v>
       </c>
       <c r="D124" t="s">
+        <v>570</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
         <v>571</v>
       </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>117</v>
       </c>
@@ -18745,7 +18736,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>118</v>
       </c>
@@ -18765,7 +18756,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>119</v>
       </c>
@@ -18785,7 +18776,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>120</v>
       </c>
@@ -18802,7 +18793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>121</v>
       </c>
@@ -18819,10 +18810,10 @@
         <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>122</v>
       </c>
@@ -18839,10 +18830,10 @@
         <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>123</v>
       </c>
@@ -18859,10 +18850,10 @@
         <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>124</v>
       </c>
@@ -18879,10 +18870,10 @@
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>125</v>
       </c>
@@ -18899,10 +18890,10 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="14">
         <v>126</v>
       </c>
@@ -18922,7 +18913,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="14">
         <v>127</v>
       </c>
@@ -18943,7 +18934,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="14">
         <v>128</v>
       </c>
@@ -18964,7 +18955,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="14">
         <v>129</v>
       </c>
@@ -18985,7 +18976,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="14">
         <v>130</v>
       </c>
@@ -19006,7 +18997,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="14">
         <v>131</v>
       </c>
@@ -19026,7 +19017,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="14">
         <v>132</v>
       </c>
@@ -19060,7 +19051,7 @@
         <v>564</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -19072,7 +19063,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>134</v>
       </c>
@@ -19092,10 +19083,10 @@
         <v>566</v>
       </c>
       <c r="I142" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>135</v>
       </c>
@@ -19115,7 +19106,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>136</v>
       </c>
@@ -19132,7 +19123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>137</v>
       </c>
@@ -19149,7 +19140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>138</v>
       </c>
@@ -19167,13 +19158,13 @@
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I146" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>139</v>
       </c>
@@ -19191,10 +19182,10 @@
         <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>140</v>
       </c>
@@ -19214,7 +19205,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="13">
         <v>141</v>
       </c>
@@ -19232,13 +19223,13 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I149" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="13">
         <v>142</v>
       </c>
@@ -19255,10 +19246,10 @@
         <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="13">
         <v>143</v>
       </c>
@@ -19275,10 +19266,10 @@
         <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
         <v>144</v>
       </c>
@@ -19295,10 +19286,10 @@
         <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="13">
         <v>145</v>
       </c>
@@ -19316,10 +19307,10 @@
         <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="13">
         <v>146</v>
       </c>
@@ -19339,7 +19330,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="13">
         <v>147</v>
       </c>
@@ -19359,7 +19350,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="13">
         <v>148</v>
       </c>
@@ -19380,7 +19371,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="13">
         <v>149</v>
       </c>
@@ -19401,7 +19392,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
         <v>150</v>
       </c>
@@ -19421,7 +19412,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="13">
         <v>151</v>
       </c>
@@ -19441,7 +19432,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="13">
         <v>152</v>
       </c>
@@ -19461,7 +19452,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="13">
         <v>153</v>
       </c>
@@ -19481,7 +19472,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="13">
         <v>154</v>
       </c>
@@ -19501,7 +19492,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="13">
         <v>155</v>
       </c>
@@ -19521,7 +19512,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="13">
         <v>156</v>
       </c>
@@ -19538,10 +19529,10 @@
         <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="13">
         <v>157</v>
       </c>
@@ -19558,7 +19549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="13">
         <v>158</v>
       </c>
@@ -19579,10 +19570,10 @@
         <v>566</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="13">
         <v>159</v>
       </c>
@@ -19599,7 +19590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="13">
         <v>160</v>
       </c>
@@ -19619,7 +19610,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="13">
         <v>161</v>
       </c>
@@ -19639,73 +19630,85 @@
         <v>568</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C170" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
       </c>
+      <c r="E170" t="s">
+        <v>760</v>
+      </c>
       <c r="F170" t="s">
         <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C171" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
       </c>
+      <c r="E171" t="s">
+        <v>760</v>
+      </c>
       <c r="F171" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C172" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
       </c>
+      <c r="E172" t="s">
+        <v>760</v>
+      </c>
       <c r="F172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C173" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
       </c>
+      <c r="E173" t="s">
+        <v>760</v>
+      </c>
       <c r="F173" t="s">
         <v>14</v>
       </c>
@@ -19713,7 +19716,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>166</v>
       </c>
@@ -19726,6 +19729,9 @@
       <c r="D174" t="s">
         <v>3</v>
       </c>
+      <c r="E174" t="s">
+        <v>760</v>
+      </c>
       <c r="F174" t="s">
         <v>14</v>
       </c>
@@ -19733,7 +19739,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>167</v>
       </c>
@@ -19746,6 +19752,9 @@
       <c r="D175" t="s">
         <v>3</v>
       </c>
+      <c r="E175" t="s">
+        <v>763</v>
+      </c>
       <c r="F175" t="s">
         <v>14</v>
       </c>
@@ -19753,7 +19762,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>168</v>
       </c>
@@ -19766,11 +19775,14 @@
       <c r="D176" t="s">
         <v>3</v>
       </c>
+      <c r="E176" t="s">
+        <v>760</v>
+      </c>
       <c r="F176" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>169</v>
       </c>
@@ -19781,7 +19793,10 @@
         <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>564</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>762</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -19790,7 +19805,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>170</v>
       </c>
@@ -19803,6 +19818,9 @@
       <c r="D178" t="s">
         <v>3</v>
       </c>
+      <c r="E178" t="s">
+        <v>760</v>
+      </c>
       <c r="F178" t="s">
         <v>14</v>
       </c>
@@ -19810,7 +19828,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>171</v>
       </c>
@@ -19818,11 +19836,14 @@
         <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
+      <c r="E179" s="22" t="s">
+        <v>761</v>
+      </c>
       <c r="F179" t="s">
         <v>14</v>
       </c>
@@ -19830,7 +19851,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>172</v>
       </c>
@@ -19838,11 +19859,14 @@
         <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
+      <c r="E180" s="22" t="s">
+        <v>761</v>
+      </c>
       <c r="F180" t="s">
         <v>14</v>
       </c>
@@ -19850,7 +19874,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>173</v>
       </c>
@@ -19858,11 +19882,14 @@
         <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
+      <c r="E181" s="22" t="s">
+        <v>761</v>
+      </c>
       <c r="F181" t="s">
         <v>14</v>
       </c>
@@ -19870,7 +19897,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>174</v>
       </c>
@@ -19883,6 +19910,9 @@
       <c r="D182" t="s">
         <v>3</v>
       </c>
+      <c r="E182" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="F182" t="s">
         <v>14</v>
       </c>
@@ -19890,7 +19920,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>175</v>
       </c>
@@ -19903,6 +19933,9 @@
       <c r="D183" t="s">
         <v>3</v>
       </c>
+      <c r="E183" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="F183" t="s">
         <v>14</v>
       </c>
@@ -19910,7 +19943,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>176</v>
       </c>
@@ -19923,6 +19956,9 @@
       <c r="D184" t="s">
         <v>3</v>
       </c>
+      <c r="E184" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="F184" t="s">
         <v>14</v>
       </c>
@@ -19930,7 +19966,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>177</v>
       </c>
@@ -19943,6 +19979,9 @@
       <c r="D185" t="s">
         <v>3</v>
       </c>
+      <c r="E185" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="F185" t="s">
         <v>14</v>
       </c>
@@ -19950,19 +19989,22 @@
         <v>567</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C186" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
+      <c r="E186" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="F186" t="s">
         <v>14</v>
       </c>
@@ -19970,19 +20012,22 @@
         <v>567</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C187" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
+      <c r="E187" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="F187" t="s">
         <v>14</v>
       </c>
@@ -19990,7 +20035,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>180</v>
       </c>
@@ -20003,6 +20048,9 @@
       <c r="D188" t="s">
         <v>3</v>
       </c>
+      <c r="E188" t="s">
+        <v>760</v>
+      </c>
       <c r="F188" t="s">
         <v>14</v>
       </c>
@@ -20010,7 +20058,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>181</v>
       </c>
@@ -20023,6 +20071,9 @@
       <c r="D189" t="s">
         <v>3</v>
       </c>
+      <c r="E189" t="s">
+        <v>760</v>
+      </c>
       <c r="F189" t="s">
         <v>14</v>
       </c>
@@ -20030,7 +20081,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>182</v>
       </c>
@@ -20043,6 +20094,9 @@
       <c r="D190" t="s">
         <v>3</v>
       </c>
+      <c r="E190" t="s">
+        <v>760</v>
+      </c>
       <c r="F190" t="s">
         <v>14</v>
       </c>
@@ -20050,7 +20104,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>183</v>
       </c>
@@ -20058,7 +20112,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -20072,8 +20126,11 @@
       <c r="H191" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I191" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>184</v>
       </c>
@@ -20081,7 +20138,7 @@
         <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -20093,7 +20150,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>185</v>
       </c>
@@ -20101,7 +20158,7 @@
         <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -20113,7 +20170,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>186</v>
       </c>
@@ -20121,7 +20178,7 @@
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -20133,7 +20190,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>187</v>
       </c>
@@ -20141,7 +20198,7 @@
         <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -20153,7 +20210,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>188</v>
       </c>
@@ -20173,7 +20230,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>189</v>
       </c>
@@ -20193,7 +20250,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>190</v>
       </c>
@@ -20213,7 +20270,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>191</v>
       </c>
@@ -20233,7 +20290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>192</v>
       </c>
@@ -20253,7 +20310,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>193</v>
       </c>
@@ -20273,7 +20330,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>194</v>
       </c>
@@ -20293,7 +20350,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>195</v>
       </c>
@@ -20313,7 +20370,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>196</v>
       </c>
@@ -20333,7 +20390,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>197</v>
       </c>
@@ -20341,7 +20398,7 @@
         <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -20353,7 +20410,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>198</v>
       </c>
@@ -20361,7 +20418,7 @@
         <v>477</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -20373,7 +20430,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>199</v>
       </c>
@@ -20381,7 +20438,7 @@
         <v>477</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -20393,7 +20450,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>200</v>
       </c>
@@ -20413,7 +20470,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>201</v>
       </c>
@@ -20433,7 +20490,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>202</v>
       </c>
@@ -20889,7 +20946,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D182:D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209">
+  <conditionalFormatting sqref="D182:D185 D187 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>
@@ -20903,7 +20960,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210">
+  <conditionalFormatting sqref="D186 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210 D188:D190">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Pendiente"</formula>
     </cfRule>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9659AEA3-8207-4B98-A9AA-49967D4D8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAB25A-348E-466F-B1FF-152611C79037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16327,7 +16327,7 @@
   <dimension ref="A8:I210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19752,7 +19752,7 @@
       <c r="D175" t="s">
         <v>3</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="8" t="s">
         <v>763</v>
       </c>
       <c r="F175" t="s">

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAB25A-348E-466F-B1FF-152611C79037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B99CF9-F118-4020-A433-1C78F9E84926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="761">
   <si>
     <t>id</t>
   </si>
@@ -2337,15 +2337,6 @@
   </si>
   <si>
     <t>link ok</t>
-  </si>
-  <si>
-    <t>hacer link agencia</t>
-  </si>
-  <si>
-    <t>fijar color a los pueblos</t>
-  </si>
-  <si>
-    <t>Fijar color a rango etario, agregar filtro comuna a R</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2743,12 +2734,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2911,7 +2896,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2944,7 +2929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6867,7 +6851,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -16326,8 +16310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19752,9 +19736,7 @@
       <c r="D175" t="s">
         <v>3</v>
       </c>
-      <c r="E175" s="8" t="s">
-        <v>763</v>
-      </c>
+      <c r="E175" s="8"/>
       <c r="F175" t="s">
         <v>14</v>
       </c>
@@ -19793,11 +19775,9 @@
         <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>564</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>762</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E177" s="8"/>
       <c r="F177" t="s">
         <v>14</v>
       </c>
@@ -19841,8 +19821,8 @@
       <c r="D179" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="22" t="s">
-        <v>761</v>
+      <c r="E179" s="10" t="s">
+        <v>760</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -19864,8 +19844,8 @@
       <c r="D180" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="22" t="s">
-        <v>761</v>
+      <c r="E180" s="10" t="s">
+        <v>760</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -19887,8 +19867,8 @@
       <c r="D181" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="22" t="s">
-        <v>761</v>
+      <c r="E181" s="10" t="s">
+        <v>760</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B99CF9-F118-4020-A433-1C78F9E84926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A7D79-38A0-4076-BB9B-7BA6F1BEF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="760">
   <si>
     <t>id</t>
   </si>
@@ -2289,9 +2290,6 @@
   </si>
   <si>
     <t>Revisando datos y Link regional</t>
-  </si>
-  <si>
-    <t>Actualizar a datos 2021</t>
   </si>
   <si>
     <t>Valores fuera de rango</t>
@@ -6851,7 +6849,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -15363,7 +15361,7 @@
         <v>577</v>
       </c>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -15391,7 +15389,7 @@
         <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>574</v>
@@ -16247,7 +16245,7 @@
         <v>564</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>574</v>
@@ -16310,8 +16308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16374,7 +16372,7 @@
         <v>568</v>
       </c>
       <c r="I9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -16550,7 +16548,7 @@
         <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>738</v>
@@ -16918,7 +16916,7 @@
         <v>395</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -17077,7 +17075,7 @@
         <v>568</v>
       </c>
       <c r="I47" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -17100,10 +17098,10 @@
         <v>43</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -17126,10 +17124,10 @@
         <v>43</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -17152,10 +17150,10 @@
         <v>43</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -17425,7 +17423,7 @@
         <v>568</v>
       </c>
       <c r="I64" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -17449,7 +17447,7 @@
         <v>568</v>
       </c>
       <c r="I65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -17473,7 +17471,7 @@
         <v>568</v>
       </c>
       <c r="I66" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -17497,7 +17495,7 @@
         <v>568</v>
       </c>
       <c r="I67" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -17514,13 +17512,13 @@
         <v>3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>566</v>
@@ -17540,13 +17538,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>566</v>
@@ -17586,13 +17584,13 @@
         <v>3</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>566</v>
@@ -17653,7 +17651,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -17686,7 +17684,7 @@
         <v>568</v>
       </c>
       <c r="I75" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -17710,7 +17708,7 @@
         <v>568</v>
       </c>
       <c r="I76" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -17734,7 +17732,7 @@
         <v>568</v>
       </c>
       <c r="I77" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -17758,7 +17756,7 @@
         <v>568</v>
       </c>
       <c r="I78" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -17782,7 +17780,7 @@
         <v>568</v>
       </c>
       <c r="I79" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -17975,9 +17973,7 @@
       <c r="D89" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>745</v>
-      </c>
+      <c r="E89" s="8"/>
       <c r="F89" t="s">
         <v>14</v>
       </c>
@@ -18098,7 +18094,7 @@
         <v>568</v>
       </c>
       <c r="I95" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -18190,7 +18186,7 @@
         <v>340</v>
       </c>
       <c r="D100" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" t="s">
@@ -19035,7 +19031,7 @@
         <v>564</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -19142,10 +19138,10 @@
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I146" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
@@ -19166,7 +19162,7 @@
         <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -19554,7 +19550,7 @@
         <v>566</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
@@ -19628,7 +19624,7 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -19651,7 +19647,7 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -19671,7 +19667,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -19691,7 +19687,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -19714,7 +19710,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -19758,7 +19754,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
@@ -19799,7 +19795,7 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -19822,7 +19818,7 @@
         <v>3</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -19845,7 +19841,7 @@
         <v>3</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -19868,7 +19864,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -19891,7 +19887,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -19914,7 +19910,7 @@
         <v>3</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -19937,7 +19933,7 @@
         <v>3</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -19960,7 +19956,7 @@
         <v>3</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -19983,7 +19979,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -20006,7 +20002,7 @@
         <v>3</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -20029,7 +20025,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -20052,7 +20048,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -20075,7 +20071,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -20107,7 +20103,7 @@
         <v>566</v>
       </c>
       <c r="I191" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">

--- a/AGENCIA_CONTENIDO.xlsx
+++ b/AGENCIA_CONTENIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A7D79-38A0-4076-BB9B-7BA6F1BEF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A487A-194F-45F5-8DC1-11ED1B4F085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="757">
   <si>
     <t>id</t>
   </si>
@@ -2271,9 +2270,6 @@
     <t>https://analytics.zoho.com/open-view/2395394000008483613</t>
   </si>
   <si>
-    <t xml:space="preserve">Logo DI </t>
-  </si>
-  <si>
     <t>Tecnología, Internet y Telecomunicaciones</t>
   </si>
   <si>
@@ -2286,12 +2282,6 @@
     <t>Columna2</t>
   </si>
   <si>
-    <t>Revisando datos</t>
-  </si>
-  <si>
-    <t>Revisando datos y Link regional</t>
-  </si>
-  <si>
     <t>Valores fuera de rango</t>
   </si>
   <si>
@@ -2310,21 +2300,12 @@
     <t>Patricio-Karen</t>
   </si>
   <si>
-    <t>Título y datos MINMEG</t>
-  </si>
-  <si>
-    <t>Link regional y datos MINMEG</t>
-  </si>
-  <si>
     <t>Feña (Caro)</t>
   </si>
   <si>
     <t>Nati (Caro)</t>
   </si>
   <si>
-    <t>Mover título de arriba</t>
-  </si>
-  <si>
     <t>Por definir</t>
   </si>
   <si>
@@ -2335,6 +2316,15 @@
   </si>
   <si>
     <t>link ok</t>
+  </si>
+  <si>
+    <t>trim-año</t>
+  </si>
+  <si>
+    <t>Título / eje Y / 0 o hacer links R</t>
+  </si>
+  <si>
+    <t>revisar descripción</t>
   </si>
 </sst>
 </file>
@@ -6849,7 +6839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F57B498-24C3-461C-9C6E-567F0C2CB8E9}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -15361,7 +15351,7 @@
         <v>577</v>
       </c>
       <c r="B1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -15389,7 +15379,7 @@
         <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>574</v>
@@ -16174,7 +16164,7 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B56" s="6">
         <v>4</v>
@@ -16245,7 +16235,7 @@
         <v>564</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>574</v>
@@ -16308,8 +16298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16345,10 +16335,10 @@
         <v>577</v>
       </c>
       <c r="H8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -16372,7 +16362,7 @@
         <v>568</v>
       </c>
       <c r="I9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -16548,11 +16538,9 @@
         <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>746</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>738</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" t="s">
         <v>43</v>
       </c>
@@ -16916,7 +16904,7 @@
         <v>395</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -17075,7 +17063,7 @@
         <v>568</v>
       </c>
       <c r="I47" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -17089,19 +17077,17 @@
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>744</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E48" s="8"/>
       <c r="F48" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -17117,17 +17103,15 @@
       <c r="D49" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>743</v>
-      </c>
+      <c r="E49" s="8"/>
       <c r="F49" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -17143,17 +17127,15 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>743</v>
-      </c>
+      <c r="E50" s="8"/>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -17423,7 +17405,7 @@
         <v>568</v>
       </c>
       <c r="I64" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -17447,7 +17429,7 @@
         <v>568</v>
       </c>
       <c r="I65" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -17471,7 +17453,7 @@
         <v>568</v>
       </c>
       <c r="I66" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -17495,7 +17477,7 @@
         <v>568</v>
       </c>
       <c r="I67" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -17511,14 +17493,12 @@
       <c r="D68" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>752</v>
-      </c>
+      <c r="E68" s="8"/>
       <c r="F68" t="s">
         <v>43</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>566</v>
@@ -17537,14 +17517,12 @@
       <c r="D69" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>752</v>
-      </c>
+      <c r="E69" s="8"/>
       <c r="F69" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>566</v>
@@ -17583,14 +17561,12 @@
       <c r="D71" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>751</v>
-      </c>
+      <c r="E71" s="8"/>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>566</v>
@@ -17650,9 +17626,7 @@
       <c r="D74" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>755</v>
-      </c>
+      <c r="E74" s="8"/>
       <c r="F74" t="s">
         <v>43</v>
       </c>
@@ -17684,7 +17658,7 @@
         <v>568</v>
       </c>
       <c r="I75" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -17708,7 +17682,7 @@
         <v>568</v>
       </c>
       <c r="I76" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -17732,7 +17706,7 @@
         <v>568</v>
       </c>
       <c r="I77" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -17756,7 +17730,7 @@
         <v>568</v>
       </c>
       <c r="I78" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -17780,7 +17754,7 @@
         <v>568</v>
       </c>
       <c r="I79" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -18094,7 +18068,7 @@
         <v>568</v>
       </c>
       <c r="I95" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -18186,7 +18160,7 @@
         <v>340</v>
       </c>
       <c r="D100" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" t="s">
@@ -18925,9 +18899,11 @@
         <v>186</v>
       </c>
       <c r="D136" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="8"/>
+        <v>564</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>754</v>
+      </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
@@ -18946,9 +18922,11 @@
         <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="8"/>
+        <v>564</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>755</v>
+      </c>
       <c r="F137" t="s">
         <v>14</v>
       </c>
@@ -19031,7 +19009,7 @@
         <v>564</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -19063,7 +19041,7 @@
         <v>566</v>
       </c>
       <c r="I142" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
@@ -19138,10 +19116,10 @@
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I146" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
@@ -19162,7 +19140,7 @@
         <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -19550,7 +19528,7 @@
         <v>566</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
@@ -19603,6 +19581,9 @@
       <c r="D169" t="s">
         <v>3</v>
       </c>
+      <c r="E169" s="8" t="s">
+        <v>756</v>
+      </c>
       <c r="F169" t="s">
         <v>14</v>
       </c>
@@ -19615,7 +19596,7 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C170" t="s">
         <v>579</v>
@@ -19624,13 +19605,13 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
@@ -19638,7 +19619,7 @@
         <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C171" t="s">
         <v>579</v>
@@ -19647,7 +19628,7 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -19658,7 +19639,7 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C172" t="s">
         <v>578</v>
@@ -19667,7 +19648,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -19678,7 +19659,7 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C173" t="s">
         <v>578</v>
@@ -19687,7 +19668,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -19710,7 +19691,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -19754,7 +19735,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
@@ -19795,7 +19776,7 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -19818,7 +19799,7 @@
         <v>3</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -19841,7 +19822,7 @@
         <v>3</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -19864,7 +19845,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -19887,7 +19868,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -19910,7 +19891,7 @@
         <v>3</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -19933,7 +19914,7 @@
         <v>3</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -19956,7 +19937,7 @@
         <v>3</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -19979,7 +19960,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -20002,7 +19983,7 @@
         <v>3</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -20025,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -20048,7 +20029,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -20071,7 +20052,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -20103,7 +20084,7 @@
         <v>566</v>
       </c>
       <c r="I191" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
